--- a/LCNR - CANTILEVER/Cantilever/kfold/kfold_4_euclid/output_kfold4_2.xlsx
+++ b/LCNR - CANTILEVER/Cantilever/kfold/kfold_4_euclid/output_kfold4_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduard.hogea/Documents/Facultate/Internship/explorare/KNN99---LTN/LCNR_LCNC/LCNR - CANTILEVER/Cantilever/articol/kfold_4_euclid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduard.hogea/Documents/Facultate/Internship/explorare/KNN99---LTN/LCNR_LCNC/LCNC-LCNR/LCNR - CANTILEVER/Cantilever/kfold/kfold_4_euclid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A898B5-34C4-A343-8597-CBE81F6B9FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A388E4A9-D0D4-3040-AA96-7EBA82B61378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,28 +29,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,10 +436,14 @@
   <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -506,105 +488,107 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B2">
-        <v>0.48650985956192022</v>
+        <v>0.44033163785934448</v>
       </c>
       <c r="C2">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="D2" cm="1">
-        <f t="array" ref="D2:D91">ABS(B2:B91 - C2:C91)</f>
-        <v>2.0509859561920196E-2</v>
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="D2">
+        <f>ABS(B2 - C2)</f>
+        <v>2.6331637859344503E-2</v>
       </c>
       <c r="E2">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F2">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G2">
-        <v>2.0117939999999999E-3</v>
+        <v>1.633691E-3</v>
       </c>
       <c r="H2">
-        <v>2.979055E-3</v>
+        <v>2.1613219999999998E-3</v>
       </c>
       <c r="I2">
-        <v>1.669944E-3</v>
+        <v>1.5794279999999999E-3</v>
       </c>
       <c r="J2">
-        <v>2.8619930000000002E-3</v>
+        <v>1.549789E-3</v>
       </c>
       <c r="K2">
-        <v>1.9190399999999999E-3</v>
+        <v>2.3844999999999999E-3</v>
       </c>
       <c r="L2">
-        <v>2.6019620000000002E-3</v>
+        <v>1.056509E-3</v>
       </c>
       <c r="M2">
-        <v>2.1880390000000001E-3</v>
+        <v>2.4823839999999998E-3</v>
       </c>
       <c r="N2">
-        <v>2.3108339999999999E-3</v>
+        <v>1.3582620000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="B3">
-        <v>0.16698044538497919</v>
+        <v>0.70944821834564209</v>
       </c>
       <c r="C3">
-        <v>0.16500000000000001</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="D3">
-        <v>1.9804453849791848E-3</v>
+        <f>ABS(B3 - C3)</f>
+        <v>2.2448218345642035E-2</v>
       </c>
       <c r="E3">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G3">
-        <v>1.8177060000000001E-3</v>
+        <v>1.6475839999999999E-3</v>
       </c>
       <c r="H3">
-        <v>1.6078500000000001E-4</v>
+        <v>2.5320579999999998E-3</v>
       </c>
       <c r="I3">
-        <v>1.35143E-4</v>
+        <v>3.287805E-3</v>
       </c>
       <c r="J3">
-        <v>8.0365099999999995E-4</v>
+        <v>1.9615710000000001E-3</v>
       </c>
       <c r="K3">
-        <v>1.3088799999999999E-3</v>
+        <v>1.950182E-3</v>
       </c>
       <c r="L3">
-        <v>1.0588069999999999E-3</v>
+        <v>3.0739600000000001E-3</v>
       </c>
       <c r="M3">
-        <v>3.9642200000000001E-4</v>
+        <v>2.181765E-3</v>
       </c>
       <c r="N3">
-        <v>3.0571100000000003E-5</v>
+        <v>1.7558230000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="B4">
-        <v>0.26180598139762878</v>
+        <v>0.88528096675872803</v>
       </c>
       <c r="C4">
-        <v>0.255</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="D4">
-        <v>6.8059813976287797E-3</v>
+        <f>ABS(B4 - C4)</f>
+        <v>2.0719033241272E-2</v>
       </c>
       <c r="E4">
         <v>3.3459710000000001E-3</v>
@@ -613,42 +597,43 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G4">
-        <v>2.8423860000000001E-3</v>
+        <v>1.564616E-3</v>
       </c>
       <c r="H4">
-        <v>1.636719E-3</v>
+        <v>1.584731E-3</v>
       </c>
       <c r="I4">
-        <v>2.6113479999999999E-3</v>
+        <v>1.7115940000000001E-3</v>
       </c>
       <c r="J4">
-        <v>2.6560860000000002E-3</v>
+        <v>1.9422790000000001E-3</v>
       </c>
       <c r="K4">
-        <v>1.7215279999999999E-3</v>
+        <v>2.339355E-3</v>
       </c>
       <c r="L4">
-        <v>1.847359E-3</v>
+        <v>2.7435699999999999E-3</v>
       </c>
       <c r="M4">
-        <v>2.854119E-3</v>
+        <v>3.0973369999999999E-3</v>
       </c>
       <c r="N4">
-        <v>2.6503630000000002E-3</v>
+        <v>3.2779860000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.18045023083686829</v>
+        <v>0.48650985956192022</v>
       </c>
       <c r="C5">
-        <v>0.17299999999999999</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D5">
-        <v>7.450230836868299E-3</v>
+        <f>ABS(B5 - C5)</f>
+        <v>2.0509859561920196E-2</v>
       </c>
       <c r="E5">
         <v>3.3459710000000001E-3</v>
@@ -657,42 +642,43 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G5">
-        <v>3.3140079999999998E-3</v>
+        <v>2.0117939999999999E-3</v>
       </c>
       <c r="H5">
-        <v>1.6711880000000001E-3</v>
+        <v>2.979055E-3</v>
       </c>
       <c r="I5">
-        <v>1.7687390000000001E-3</v>
+        <v>1.669944E-3</v>
       </c>
       <c r="J5">
-        <v>2.4913130000000002E-3</v>
+        <v>2.8619930000000002E-3</v>
       </c>
       <c r="K5">
-        <v>2.873156E-3</v>
+        <v>1.9190399999999999E-3</v>
       </c>
       <c r="L5">
-        <v>2.4500250000000002E-3</v>
+        <v>2.6019620000000002E-3</v>
       </c>
       <c r="M5">
-        <v>1.764222E-3</v>
+        <v>2.1880390000000001E-3</v>
       </c>
       <c r="N5">
-        <v>1.62728E-3</v>
+        <v>2.3108339999999999E-3</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="B6">
-        <v>4.9448519945144653E-2</v>
+        <v>0.5796438455581665</v>
       </c>
       <c r="C6">
-        <v>5.6000000000000001E-2</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D6">
-        <v>6.5514800548553478E-3</v>
+        <f>ABS(B6 - C6)</f>
+        <v>1.9643845558166451E-2</v>
       </c>
       <c r="E6">
         <v>3.3459710000000001E-3</v>
@@ -701,130 +687,133 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G6">
-        <v>3.613462E-3</v>
+        <v>1.2515849999999999E-3</v>
       </c>
       <c r="H6">
-        <v>2.6655749999999999E-3</v>
+        <v>2.5402570000000002E-3</v>
       </c>
       <c r="I6">
-        <v>2.0217619999999999E-3</v>
+        <v>1.390084E-3</v>
       </c>
       <c r="J6">
-        <v>1.5136590000000001E-3</v>
+        <v>1.953228E-3</v>
       </c>
       <c r="K6">
-        <v>1.2257920000000001E-3</v>
+        <v>1.8809810000000001E-3</v>
       </c>
       <c r="L6">
-        <v>1.063617E-3</v>
+        <v>1.429816E-3</v>
       </c>
       <c r="M6">
-        <v>1.0700180000000001E-3</v>
+        <v>2.3488210000000001E-3</v>
       </c>
       <c r="N6">
-        <v>1.209569E-3</v>
+        <v>1.096372E-3</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="B7">
-        <v>0.70119118690490723</v>
+        <v>0.60913282632827759</v>
       </c>
       <c r="C7">
-        <v>0.68700000000000006</v>
+        <v>0.59</v>
       </c>
       <c r="D7">
-        <v>1.4191186904907171E-2</v>
+        <f>ABS(B7 - C7)</f>
+        <v>1.9132826328277619E-2</v>
       </c>
       <c r="E7">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G7">
-        <v>9.6497599999999996E-5</v>
+        <v>1.1781649999999999E-3</v>
       </c>
       <c r="H7">
-        <v>9.4294699999999997E-4</v>
+        <v>2.4449290000000002E-3</v>
       </c>
       <c r="I7">
-        <v>1.70218E-3</v>
+        <v>1.732354E-3</v>
       </c>
       <c r="J7">
-        <v>3.6509800000000001E-4</v>
+        <v>1.478207E-3</v>
       </c>
       <c r="K7">
-        <v>3.7229299999999999E-4</v>
+        <v>2.4151239999999998E-3</v>
       </c>
       <c r="L7">
-        <v>1.48715E-3</v>
+        <v>1.0528790000000001E-3</v>
       </c>
       <c r="M7">
-        <v>5.9425099999999996E-4</v>
+        <v>2.447252E-3</v>
       </c>
       <c r="N7">
-        <v>1.81657E-4</v>
+        <v>1.470903E-3</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="B8">
-        <v>0.58124232292175293</v>
+        <v>0.92690950632095337</v>
       </c>
       <c r="C8">
-        <v>0.56299999999999994</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D8">
-        <v>1.8242322921752985E-2</v>
+        <f>ABS(B8 - C8)</f>
+        <v>1.9090493679046583E-2</v>
       </c>
       <c r="E8">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F8">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G8">
-        <v>1.262127E-3</v>
+        <v>1.56185E-3</v>
       </c>
       <c r="H8">
-        <v>2.5639759999999999E-3</v>
+        <v>1.562903E-3</v>
       </c>
       <c r="I8">
-        <v>1.434924E-3</v>
+        <v>1.5984009999999999E-3</v>
       </c>
       <c r="J8">
-        <v>1.9273319999999999E-3</v>
+        <v>1.628719E-3</v>
       </c>
       <c r="K8">
-        <v>1.957482E-3</v>
+        <v>1.7369200000000001E-3</v>
       </c>
       <c r="L8">
-        <v>1.383801E-3</v>
+        <v>1.849463E-3</v>
       </c>
       <c r="M8">
-        <v>2.418641E-3</v>
+        <v>2.0295249999999999E-3</v>
       </c>
       <c r="N8">
-        <v>1.085262E-3</v>
+        <v>2.2618769999999998E-3</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>0.18492753803730011</v>
+        <v>0.58124232292175293</v>
       </c>
       <c r="C9">
-        <v>0.17299999999999999</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="D9">
-        <v>1.1927538037300123E-2</v>
+        <f>ABS(B9 - C9)</f>
+        <v>1.8242322921752985E-2</v>
       </c>
       <c r="E9">
         <v>3.3459710000000001E-3</v>
@@ -833,42 +822,43 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G9">
-        <v>2.841751E-3</v>
+        <v>1.262127E-3</v>
       </c>
       <c r="H9">
-        <v>1.167689E-3</v>
+        <v>2.5639759999999999E-3</v>
       </c>
       <c r="I9">
-        <v>1.2605520000000001E-3</v>
+        <v>1.434924E-3</v>
       </c>
       <c r="J9">
-        <v>1.9970029999999998E-3</v>
+        <v>1.9273319999999999E-3</v>
       </c>
       <c r="K9">
-        <v>2.3899139999999999E-3</v>
+        <v>1.957482E-3</v>
       </c>
       <c r="L9">
-        <v>1.9668440000000001E-3</v>
+        <v>1.383801E-3</v>
       </c>
       <c r="M9">
-        <v>1.2718E-3</v>
+        <v>2.418641E-3</v>
       </c>
       <c r="N9">
-        <v>1.1359790000000001E-3</v>
+        <v>1.085262E-3</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B10">
-        <v>0.80262047052383423</v>
+        <v>0.50527101755142212</v>
       </c>
       <c r="C10">
-        <v>0.79600000000000004</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D10">
-        <v>6.6204705238341877E-3</v>
+        <f>ABS(B10 - C10)</f>
+        <v>1.6271017551422129E-2</v>
       </c>
       <c r="E10">
         <v>3.3459710000000001E-3</v>
@@ -877,42 +867,43 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G10">
-        <v>1.0490370000000001E-3</v>
+        <v>1.432114E-3</v>
       </c>
       <c r="H10">
-        <v>1.3285580000000001E-3</v>
+        <v>2.5660280000000001E-3</v>
       </c>
       <c r="I10">
-        <v>2.2011130000000002E-3</v>
+        <v>1.087658E-3</v>
       </c>
       <c r="J10">
-        <v>2.7429469999999999E-3</v>
+        <v>2.5206970000000001E-3</v>
       </c>
       <c r="K10">
-        <v>2.272109E-3</v>
+        <v>1.1316709999999999E-3</v>
       </c>
       <c r="L10">
-        <v>1.2989799999999999E-3</v>
+        <v>2.5012340000000002E-3</v>
       </c>
       <c r="M10">
-        <v>1.129419E-3</v>
+        <v>1.143172E-3</v>
       </c>
       <c r="N10">
-        <v>1.942928E-3</v>
+        <v>2.4674710000000002E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B11">
-        <v>0.81571024656295776</v>
+        <v>0.88009470701217651</v>
       </c>
       <c r="C11">
-        <v>0.82</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="D11">
-        <v>4.2897534370421875E-3</v>
+        <f>ABS(B11 - C11)</f>
+        <v>1.5905292987823505E-2</v>
       </c>
       <c r="E11">
         <v>3.3459710000000001E-3</v>
@@ -921,350 +912,358 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G11">
-        <v>1.5778540000000001E-3</v>
+        <v>1.565421E-3</v>
       </c>
       <c r="H11">
-        <v>1.7694710000000001E-3</v>
+        <v>1.594736E-3</v>
       </c>
       <c r="I11">
-        <v>2.4759750000000001E-3</v>
+        <v>1.763674E-3</v>
       </c>
       <c r="J11">
-        <v>3.1879500000000002E-3</v>
+        <v>2.071828E-3</v>
       </c>
       <c r="K11">
-        <v>3.2338940000000002E-3</v>
+        <v>2.5479980000000001E-3</v>
       </c>
       <c r="L11">
-        <v>2.4519149999999998E-3</v>
+        <v>2.9751600000000001E-3</v>
       </c>
       <c r="M11">
-        <v>1.686328E-3</v>
+        <v>3.2495990000000002E-3</v>
       </c>
       <c r="N11">
-        <v>1.732293E-3</v>
+        <v>3.2482819999999999E-3</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.80685687065124512</v>
+        <v>0.81143122911453247</v>
       </c>
       <c r="C12">
-        <v>0.81</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="D12">
-        <v>3.1431293487549361E-3</v>
+        <f>ABS(B12 - C12)</f>
+        <v>1.543122911453243E-2</v>
       </c>
       <c r="E12">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F12">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1.5792899999999999E-3</v>
+        <v>4.0571300000000001E-6</v>
       </c>
       <c r="H12">
-        <v>1.801441E-3</v>
+        <v>2.809E-4</v>
       </c>
       <c r="I12">
-        <v>2.567012E-3</v>
+        <v>1.151668E-3</v>
       </c>
       <c r="J12">
-        <v>3.2204130000000001E-3</v>
+        <v>1.6976249999999999E-3</v>
       </c>
       <c r="K12">
-        <v>3.0589760000000001E-3</v>
+        <v>1.222943E-3</v>
       </c>
       <c r="L12">
-        <v>2.1566739999999999E-3</v>
+        <v>2.42897E-4</v>
       </c>
       <c r="M12">
-        <v>1.5855520000000001E-3</v>
+        <v>7.6097099999999993E-5</v>
       </c>
       <c r="N12">
-        <v>1.9907459999999998E-3</v>
+        <v>8.9457499999999999E-4</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B13">
-        <v>0.25350955128669739</v>
+        <v>0.24806380271911621</v>
       </c>
       <c r="C13">
-        <v>0.255</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="D13">
-        <v>1.4904487133026167E-3</v>
+        <f>ABS(B13 - C13)</f>
+        <v>1.5063802719116198E-2</v>
       </c>
       <c r="E13">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G13">
-        <v>1.292694E-3</v>
+        <v>2.9709129999999999E-3</v>
       </c>
       <c r="H13">
-        <v>8.30721E-5</v>
+        <v>1.5888199999999999E-3</v>
       </c>
       <c r="I13">
-        <v>1.051143E-3</v>
+        <v>2.4117769999999999E-3</v>
       </c>
       <c r="J13">
-        <v>1.115759E-3</v>
+        <v>2.8346669999999999E-3</v>
       </c>
       <c r="K13">
-        <v>1.78068E-4</v>
+        <v>2.0726299999999998E-3</v>
       </c>
       <c r="L13">
-        <v>3.1999200000000001E-4</v>
+        <v>1.5938759999999999E-3</v>
       </c>
       <c r="M13">
-        <v>1.3686060000000001E-3</v>
+        <v>2.379206E-3</v>
       </c>
       <c r="N13">
-        <v>1.180501E-3</v>
+        <v>3.0511259999999999E-3</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>7.5290054082870483E-2</v>
+        <v>0.70119118690490723</v>
       </c>
       <c r="C14">
-        <v>8.1000000000000003E-2</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="D14">
-        <v>5.7099459171295192E-3</v>
+        <f>ABS(B14 - C14)</f>
+        <v>1.4191186904907171E-2</v>
       </c>
       <c r="E14">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F14">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>3.9732320000000002E-3</v>
+        <v>9.6497599999999996E-5</v>
       </c>
       <c r="H14">
-        <v>2.711003E-3</v>
+        <v>9.4294699999999997E-4</v>
       </c>
       <c r="I14">
-        <v>2.0064670000000001E-3</v>
+        <v>1.70218E-3</v>
       </c>
       <c r="J14">
-        <v>1.6129510000000001E-3</v>
+        <v>3.6509800000000001E-4</v>
       </c>
       <c r="K14">
-        <v>1.5968320000000001E-3</v>
+        <v>3.7229299999999999E-4</v>
       </c>
       <c r="L14">
-        <v>1.796434E-3</v>
+        <v>1.48715E-3</v>
       </c>
       <c r="M14">
-        <v>2.1186899999999999E-3</v>
+        <v>5.9425099999999996E-4</v>
       </c>
       <c r="N14">
-        <v>2.487249E-3</v>
+        <v>1.81657E-4</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.34801605343818659</v>
+        <v>0.67361801862716675</v>
       </c>
       <c r="C15">
-        <v>0.34699999999999998</v>
+        <v>0.66</v>
       </c>
       <c r="D15">
-        <v>1.0160534381866149E-3</v>
+        <f>ABS(B15 - C15)</f>
+        <v>1.3618018627166717E-2</v>
       </c>
       <c r="E15">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F15">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1.9112510000000001E-3</v>
+        <v>8.2470099999999995E-5</v>
       </c>
       <c r="H15">
-        <v>1.6810390000000001E-3</v>
+        <v>1.08073E-3</v>
       </c>
       <c r="I15">
-        <v>2.2190439999999999E-3</v>
+        <v>1.5107530000000001E-3</v>
       </c>
       <c r="J15">
-        <v>1.064686E-3</v>
+        <v>4.9378400000000001E-5</v>
       </c>
       <c r="K15">
-        <v>2.11188E-3</v>
+        <v>8.9862700000000004E-4</v>
       </c>
       <c r="L15">
-        <v>2.1935290000000001E-3</v>
+        <v>1.2728990000000001E-3</v>
       </c>
       <c r="M15">
-        <v>1.0721629999999999E-3</v>
+        <v>1.7238600000000001E-5</v>
       </c>
       <c r="N15">
-        <v>2.242384E-3</v>
+        <v>1.0025940000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>0.97644579410552979</v>
+        <v>0.888621985912323</v>
       </c>
       <c r="C16">
-        <v>0.98</v>
+        <v>0.876</v>
       </c>
       <c r="D16">
-        <v>3.5542058944701971E-3</v>
+        <f>ABS(B16 - C16)</f>
+        <v>1.2621985912322997E-2</v>
       </c>
       <c r="E16">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F16">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G16">
-        <v>1.5618870000000001E-3</v>
+        <v>1.038473E-3</v>
       </c>
       <c r="H16">
-        <v>1.556059E-3</v>
+        <v>1.0938759999999999E-3</v>
       </c>
       <c r="I16">
-        <v>1.5746379999999999E-3</v>
+        <v>1.3732289999999999E-3</v>
       </c>
       <c r="J16">
-        <v>1.562538E-3</v>
+        <v>1.8495300000000001E-3</v>
       </c>
       <c r="K16">
-        <v>1.590244E-3</v>
+        <v>2.4251699999999999E-3</v>
       </c>
       <c r="L16">
-        <v>1.576938E-3</v>
+        <v>2.742005E-3</v>
       </c>
       <c r="M16">
-        <v>1.5859839999999999E-3</v>
+        <v>2.66804E-3</v>
       </c>
       <c r="N16">
-        <v>1.610939E-3</v>
+        <v>2.2191369999999999E-3</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>0.36115294694900513</v>
+        <v>0.18492753803730011</v>
       </c>
       <c r="C17">
-        <v>0.36</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="D17">
-        <v>1.1529469490051403E-3</v>
+        <f>ABS(B17 - C17)</f>
+        <v>1.1927538037300123E-2</v>
       </c>
       <c r="E17">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G17">
-        <v>7.9372700000000004E-4</v>
+        <v>2.841751E-3</v>
       </c>
       <c r="H17">
-        <v>7.17759E-4</v>
+        <v>1.167689E-3</v>
       </c>
       <c r="I17">
-        <v>1.0738080000000001E-3</v>
+        <v>1.2605520000000001E-3</v>
       </c>
       <c r="J17">
-        <v>-8.0622599999999996E-6</v>
+        <v>1.9970029999999998E-3</v>
       </c>
       <c r="K17">
-        <v>1.2716660000000001E-3</v>
+        <v>2.3899139999999999E-3</v>
       </c>
       <c r="L17">
-        <v>8.5092999999999996E-4</v>
+        <v>1.9668440000000001E-3</v>
       </c>
       <c r="M17">
-        <v>1.03205E-4</v>
+        <v>1.2718E-3</v>
       </c>
       <c r="N17">
-        <v>1.4567880000000001E-3</v>
+        <v>1.1359790000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B18">
-        <v>0.67361801862716675</v>
+        <v>0.86433935165405273</v>
       </c>
       <c r="C18">
-        <v>0.66</v>
+        <v>0.876</v>
       </c>
       <c r="D18">
-        <v>1.3618018627166717E-2</v>
+        <f>ABS(B18 - C18)</f>
+        <v>1.1660648345947267E-2</v>
       </c>
       <c r="E18">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G18">
-        <v>8.2470099999999995E-5</v>
+        <v>1.569076E-3</v>
       </c>
       <c r="H18">
-        <v>1.08073E-3</v>
+        <v>1.6236040000000001E-3</v>
       </c>
       <c r="I18">
-        <v>1.5107530000000001E-3</v>
+        <v>1.9055980000000001E-3</v>
       </c>
       <c r="J18">
-        <v>4.9378400000000001E-5</v>
+        <v>2.388481E-3</v>
       </c>
       <c r="K18">
-        <v>8.9862700000000004E-4</v>
+        <v>2.9736599999999999E-3</v>
       </c>
       <c r="L18">
-        <v>1.2728990000000001E-3</v>
+        <v>3.2985829999999999E-3</v>
       </c>
       <c r="M18">
-        <v>1.7238600000000001E-5</v>
+        <v>3.2256849999999998E-3</v>
       </c>
       <c r="N18">
-        <v>1.0025940000000001E-3</v>
+        <v>2.7680389999999999E-3</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B19">
-        <v>0.95202404260635376</v>
+        <v>0.83133471012115479</v>
       </c>
       <c r="C19">
-        <v>0.94599999999999995</v>
+        <v>0.82</v>
       </c>
       <c r="D19">
-        <v>6.0240426063538077E-3</v>
+        <f>ABS(B19 - C19)</f>
+        <v>1.1334710121154834E-2</v>
       </c>
       <c r="E19">
         <v>3.3459710000000001E-3</v>
@@ -1273,28 +1272,28 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-1.3821E-5</v>
+        <v>-2.3471700000000002E-6</v>
       </c>
       <c r="H19">
-        <v>-1.7150600000000001E-5</v>
+        <v>1.84759E-4</v>
       </c>
       <c r="I19">
-        <v>1.7515000000000001E-5</v>
+        <v>8.7353799999999998E-4</v>
       </c>
       <c r="J19">
-        <v>4.7853499999999998E-5</v>
+        <v>1.565571E-3</v>
       </c>
       <c r="K19">
-        <v>1.5737800000000001E-4</v>
+        <v>1.607748E-3</v>
       </c>
       <c r="L19">
-        <v>2.72661E-4</v>
+        <v>8.4265200000000005E-4</v>
       </c>
       <c r="M19">
-        <v>4.5694699999999997E-4</v>
+        <v>9.8060199999999993E-5</v>
       </c>
       <c r="N19">
-        <v>6.9489900000000002E-4</v>
+        <v>1.48412E-4</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1308,6 +1307,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="D20">
+        <f>ABS(B20 - C20)</f>
         <v>1.0883992671966554E-2</v>
       </c>
       <c r="E20">
@@ -1343,16 +1343,17 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B21">
-        <v>0.81143122911453247</v>
+        <v>0.52671980857849121</v>
       </c>
       <c r="C21">
-        <v>0.79600000000000004</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D21">
-        <v>1.543122911453243E-2</v>
+        <f>ABS(B21 - C21)</f>
+        <v>1.0719808578491197E-2</v>
       </c>
       <c r="E21">
         <v>3.3459710000000001E-3</v>
@@ -1361,42 +1362,43 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.0571300000000001E-6</v>
+        <v>3.06712E-4</v>
       </c>
       <c r="H21">
-        <v>2.809E-4</v>
+        <v>1.517025E-3</v>
       </c>
       <c r="I21">
-        <v>1.151668E-3</v>
+        <v>3.7748199999999999E-5</v>
       </c>
       <c r="J21">
-        <v>1.6976249999999999E-3</v>
+        <v>1.420466E-3</v>
       </c>
       <c r="K21">
-        <v>1.222943E-3</v>
+        <v>8.2420200000000001E-5</v>
       </c>
       <c r="L21">
-        <v>2.42897E-4</v>
+        <v>1.365228E-3</v>
       </c>
       <c r="M21">
-        <v>7.6097099999999993E-5</v>
+        <v>1.4023400000000001E-4</v>
       </c>
       <c r="N21">
-        <v>8.9457499999999999E-4</v>
+        <v>1.292699E-3</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B22">
-        <v>0.45717814564704901</v>
+        <v>0.70004904270172119</v>
       </c>
       <c r="C22">
-        <v>0.46600000000000003</v>
+        <v>0.69</v>
       </c>
       <c r="D22">
-        <v>8.8218543529510196E-3</v>
+        <f>ABS(B22 - C22)</f>
+        <v>1.0049042701721245E-2</v>
       </c>
       <c r="E22">
         <v>3.3459710000000001E-3</v>
@@ -1405,130 +1407,133 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.5270199999999998E-4</v>
+        <v>5.5627700000000003E-5</v>
       </c>
       <c r="H22">
-        <v>1.4643919999999999E-3</v>
+        <v>8.8510800000000001E-4</v>
       </c>
       <c r="I22">
-        <v>9.4949800000000004E-5</v>
+        <v>1.6819879999999999E-3</v>
       </c>
       <c r="J22">
-        <v>1.3362350000000001E-3</v>
+        <v>3.83397E-4</v>
       </c>
       <c r="K22">
-        <v>3.5916300000000002E-4</v>
+        <v>2.968E-4</v>
       </c>
       <c r="L22">
-        <v>1.0569010000000001E-3</v>
+        <v>1.4434370000000001E-3</v>
       </c>
       <c r="M22">
-        <v>6.4724200000000002E-4</v>
+        <v>6.5412999999999995E-4</v>
       </c>
       <c r="N22">
-        <v>7.4598799999999995E-4</v>
+        <v>9.7124800000000002E-5</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="B23">
-        <v>0.26135984063148499</v>
+        <v>0.70002079010009766</v>
       </c>
       <c r="C23">
-        <v>0.255</v>
+        <v>0.69</v>
       </c>
       <c r="D23">
-        <v>6.3598406314849809E-3</v>
+        <f>ABS(B23 - C23)</f>
+        <v>1.002079010009771E-2</v>
       </c>
       <c r="E23">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F23">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G23">
-        <v>2.3155680000000001E-3</v>
+        <v>1.6380209999999999E-3</v>
       </c>
       <c r="H23">
-        <v>1.109358E-3</v>
+        <v>2.4678149999999999E-3</v>
       </c>
       <c r="I23">
-        <v>2.086517E-3</v>
+        <v>3.2722110000000001E-3</v>
       </c>
       <c r="J23">
-        <v>2.135082E-3</v>
+        <v>1.9710869999999998E-3</v>
       </c>
       <c r="K23">
-        <v>1.2071180000000001E-3</v>
+        <v>1.8765310000000001E-3</v>
       </c>
       <c r="L23">
-        <v>1.3703179999999999E-3</v>
+        <v>3.0321559999999998E-3</v>
       </c>
       <c r="M23">
-        <v>2.4096019999999998E-3</v>
+        <v>2.2478229999999999E-3</v>
       </c>
       <c r="N23">
-        <v>2.1918739999999999E-3</v>
+        <v>1.67567E-3</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B24">
-        <v>0.97992789745330811</v>
+        <v>6.3234955072402954E-2</v>
       </c>
       <c r="C24">
-        <v>0.98</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D24">
-        <v>7.2102546691876768E-5</v>
+        <f>ABS(B24 - C24)</f>
+        <v>9.7650449275970413E-3</v>
       </c>
       <c r="E24">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F24">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G24">
-        <v>1.0324100000000001E-3</v>
+        <v>4.0474409999999997E-3</v>
       </c>
       <c r="H24">
-        <v>1.024257E-3</v>
+        <v>2.8590080000000001E-3</v>
       </c>
       <c r="I24">
-        <v>1.0433160000000001E-3</v>
+        <v>2.1696469999999998E-3</v>
       </c>
       <c r="J24">
-        <v>1.031887E-3</v>
+        <v>1.7271089999999999E-3</v>
       </c>
       <c r="K24">
-        <v>1.060456E-3</v>
+        <v>1.6079530000000001E-3</v>
       </c>
       <c r="L24">
-        <v>1.048174E-3</v>
+        <v>1.6935590000000001E-3</v>
       </c>
       <c r="M24">
-        <v>1.058448E-3</v>
+        <v>1.94534E-3</v>
       </c>
       <c r="N24">
-        <v>1.0848120000000001E-3</v>
+        <v>2.2822139999999999E-3</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="B25">
-        <v>8.1680417060852051E-2</v>
+        <v>0.7691580057144165</v>
       </c>
       <c r="C25">
-        <v>7.2999999999999995E-2</v>
+        <v>0.76</v>
       </c>
       <c r="D25">
-        <v>8.6804170608520553E-3</v>
+        <f>ABS(B25 - C25)</f>
+        <v>9.158005714416495E-3</v>
       </c>
       <c r="E25">
         <v>3.3459710000000001E-3</v>
@@ -1537,42 +1542,43 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G25">
-        <v>3.5349230000000001E-3</v>
+        <v>1.06825E-3</v>
       </c>
       <c r="H25">
-        <v>2.3394620000000001E-3</v>
+        <v>1.525761E-3</v>
       </c>
       <c r="I25">
-        <v>1.6453699999999999E-3</v>
+        <v>2.5597710000000002E-3</v>
       </c>
       <c r="J25">
-        <v>1.1973330000000001E-3</v>
+        <v>2.5776330000000002E-3</v>
       </c>
       <c r="K25">
-        <v>1.0774059999999999E-3</v>
+        <v>1.4979430000000001E-3</v>
       </c>
       <c r="L25">
-        <v>1.1487859999999999E-3</v>
+        <v>1.1189640000000001E-3</v>
       </c>
       <c r="M25">
-        <v>1.410981E-3</v>
+        <v>2.0728909999999999E-3</v>
       </c>
       <c r="N25">
-        <v>1.754149E-3</v>
+        <v>2.523707E-3</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>0.23573955893516541</v>
+        <v>0.45717814564704901</v>
       </c>
       <c r="C26">
-        <v>0.23300000000000001</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D26">
-        <v>2.7395589351653926E-3</v>
+        <f>ABS(B26 - C26)</f>
+        <v>8.8218543529510196E-3</v>
       </c>
       <c r="E26">
         <v>3.3459710000000001E-3</v>
@@ -1581,262 +1587,268 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1.39536E-3</v>
+        <v>4.5270199999999998E-4</v>
       </c>
       <c r="H26">
-        <v>4.8624100000000001E-6</v>
+        <v>1.4643919999999999E-3</v>
       </c>
       <c r="I26">
-        <v>8.1966299999999999E-4</v>
+        <v>9.4949800000000004E-5</v>
       </c>
       <c r="J26">
-        <v>1.2540679999999999E-3</v>
+        <v>1.3362350000000001E-3</v>
       </c>
       <c r="K26">
-        <v>5.01604E-4</v>
+        <v>3.5916300000000002E-4</v>
       </c>
       <c r="L26">
-        <v>-9.0326099999999996E-6</v>
+        <v>1.0569010000000001E-3</v>
       </c>
       <c r="M26">
-        <v>7.7245999999999999E-4</v>
+        <v>6.4724200000000002E-4</v>
       </c>
       <c r="N26">
-        <v>1.4766689999999999E-3</v>
+        <v>7.4598799999999995E-4</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27">
-        <v>0.28685089945793152</v>
+        <v>8.1680417060852051E-2</v>
       </c>
       <c r="C27">
-        <v>0.28999999999999998</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D27">
-        <v>3.1491005420684615E-3</v>
+        <f>ABS(B27 - C27)</f>
+        <v>8.6804170608520553E-3</v>
       </c>
       <c r="E27">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F27">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G27">
-        <v>2.6702729999999999E-3</v>
+        <v>3.5349230000000001E-3</v>
       </c>
       <c r="H27">
-        <v>1.800935E-3</v>
+        <v>2.3394620000000001E-3</v>
       </c>
       <c r="I27">
-        <v>2.8387410000000001E-3</v>
+        <v>1.6453699999999999E-3</v>
       </c>
       <c r="J27">
-        <v>2.1886520000000001E-3</v>
+        <v>1.1973330000000001E-3</v>
       </c>
       <c r="K27">
-        <v>1.6451969999999999E-3</v>
+        <v>1.0774059999999999E-3</v>
       </c>
       <c r="L27">
-        <v>2.7441560000000002E-3</v>
+        <v>1.1487859999999999E-3</v>
       </c>
       <c r="M27">
-        <v>2.8097460000000001E-3</v>
+        <v>1.410981E-3</v>
       </c>
       <c r="N27">
-        <v>1.674551E-3</v>
+        <v>1.754149E-3</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="B28">
-        <v>0.56153076887130737</v>
+        <v>0.6513332724571228</v>
       </c>
       <c r="C28">
-        <v>0.56000000000000005</v>
+        <v>0.66</v>
       </c>
       <c r="D28">
-        <v>1.5307688713073198E-3</v>
+        <f>ABS(B28 - C28)</f>
+        <v>8.6667275428772284E-3</v>
       </c>
       <c r="E28">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F28">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G28">
-        <v>1.794316E-3</v>
+        <v>1.119047E-3</v>
       </c>
       <c r="H28">
-        <v>3.083611E-3</v>
+        <v>2.1094730000000002E-3</v>
       </c>
       <c r="I28">
-        <v>1.9338389999999999E-3</v>
+        <v>2.5397729999999999E-3</v>
       </c>
       <c r="J28">
-        <v>2.4929510000000002E-3</v>
+        <v>1.093403E-3</v>
       </c>
       <c r="K28">
-        <v>2.4239840000000001E-3</v>
+        <v>1.932666E-3</v>
       </c>
       <c r="L28">
-        <v>1.9660060000000002E-3</v>
+        <v>2.3107449999999999E-3</v>
       </c>
       <c r="M28">
-        <v>2.8892409999999999E-3</v>
+        <v>1.0666619999999999E-3</v>
       </c>
       <c r="N28">
-        <v>1.6305709999999999E-3</v>
+        <v>2.0376069999999999E-3</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.29411792755126948</v>
+        <v>0.35565876960754389</v>
       </c>
       <c r="C29">
-        <v>0.28999999999999998</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D29">
-        <v>4.1179275512694957E-3</v>
+        <f>ABS(B29 - C29)</f>
+        <v>8.6587696075439147E-3</v>
       </c>
       <c r="E29">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G29">
-        <v>1.0985999999999999E-3</v>
+        <v>2.4180790000000001E-3</v>
       </c>
       <c r="H29">
-        <v>2.18798E-4</v>
+        <v>2.207709E-3</v>
       </c>
       <c r="I29">
-        <v>1.2629780000000001E-3</v>
+        <v>2.740517E-3</v>
       </c>
       <c r="J29">
-        <v>6.1846600000000002E-4</v>
+        <v>1.588157E-3</v>
       </c>
       <c r="K29">
-        <v>5.8366299999999997E-5</v>
+        <v>2.622582E-3</v>
       </c>
       <c r="L29">
-        <v>1.1553959999999999E-3</v>
+        <v>2.7204730000000002E-3</v>
       </c>
       <c r="M29">
-        <v>1.245997E-3</v>
+        <v>1.5712E-3</v>
       </c>
       <c r="N29">
-        <v>1.01106E-4</v>
+        <v>2.755464E-3</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B30">
-        <v>0.21327900886535639</v>
+        <v>0.66865217685699463</v>
       </c>
       <c r="C30">
-        <v>0.21</v>
+        <v>0.66</v>
       </c>
       <c r="D30">
-        <v>3.2790088653563976E-3</v>
+        <f>ABS(B30 - C30)</f>
+        <v>8.6521768569945978E-3</v>
       </c>
       <c r="E30">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F30">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G30">
-        <v>2.5790409999999998E-3</v>
+        <v>1.663103E-3</v>
       </c>
       <c r="H30">
-        <v>1.0408539999999999E-3</v>
+        <v>2.65468E-3</v>
       </c>
       <c r="I30">
-        <v>1.617837E-3</v>
+        <v>3.0884480000000001E-3</v>
       </c>
       <c r="J30">
-        <v>2.3147630000000001E-3</v>
+        <v>1.633032E-3</v>
       </c>
       <c r="K30">
-        <v>1.9787479999999998E-3</v>
+        <v>2.4720319999999999E-3</v>
       </c>
       <c r="L30">
-        <v>1.167913E-3</v>
+        <v>2.8564049999999998E-3</v>
       </c>
       <c r="M30">
-        <v>1.2415379999999999E-3</v>
+        <v>1.602175E-3</v>
       </c>
       <c r="N30">
-        <v>2.1523459999999999E-3</v>
+        <v>2.5717499999999998E-3</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="B31">
-        <v>0.89694458246231079</v>
+        <v>0.49698251485824579</v>
       </c>
       <c r="C31">
-        <v>0.89600000000000002</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D31">
-        <v>9.4458246231077236E-4</v>
+        <f>ABS(B31 - C31)</f>
+        <v>7.9825148582458039E-3</v>
       </c>
       <c r="E31">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G31">
-        <v>-9.7159900000000008E-6</v>
+        <v>1.9495929999999999E-3</v>
       </c>
       <c r="H31">
-        <v>1.4965400000000001E-5</v>
+        <v>3.0502649999999999E-3</v>
       </c>
       <c r="I31">
-        <v>1.8280299999999999E-4</v>
+        <v>1.5916120000000001E-3</v>
       </c>
       <c r="J31">
-        <v>4.9002900000000001E-4</v>
+        <v>3.0231530000000002E-3</v>
       </c>
       <c r="K31">
-        <v>9.6528599999999999E-4</v>
+        <v>1.6279949999999999E-3</v>
       </c>
       <c r="L31">
-        <v>1.3912709999999999E-3</v>
+        <v>2.987787E-3</v>
       </c>
       <c r="M31">
-        <v>1.664158E-3</v>
+        <v>1.640215E-3</v>
       </c>
       <c r="N31">
-        <v>1.6617750000000001E-3</v>
+        <v>2.9416260000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B32">
-        <v>0.52079272270202637</v>
+        <v>0.2179459631443024</v>
       </c>
       <c r="C32">
-        <v>0.51600000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="D32">
-        <v>4.792722702026353E-3</v>
+        <f>ABS(B32 - C32)</f>
+        <v>7.9459631443024037E-3</v>
       </c>
       <c r="E32">
         <v>3.3459710000000001E-3</v>
@@ -1845,42 +1857,43 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G32">
-        <v>1.8847029999999999E-3</v>
+        <v>3.1081199999999998E-3</v>
       </c>
       <c r="H32">
-        <v>3.1074079999999999E-3</v>
+        <v>1.570281E-3</v>
       </c>
       <c r="I32">
-        <v>1.6206409999999999E-3</v>
+        <v>2.1574239999999998E-3</v>
       </c>
       <c r="J32">
-        <v>3.0099929999999999E-3</v>
+        <v>2.8549840000000001E-3</v>
       </c>
       <c r="K32">
-        <v>1.6692580000000001E-3</v>
+        <v>2.5081700000000001E-3</v>
       </c>
       <c r="L32">
-        <v>2.952508E-3</v>
+        <v>1.69221E-3</v>
       </c>
       <c r="M32">
-        <v>1.7315130000000001E-3</v>
+        <v>1.7756779999999999E-3</v>
       </c>
       <c r="N32">
-        <v>2.875973E-3</v>
+        <v>2.6955519999999999E-3</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.76329267024993896</v>
+        <v>0.1727193146944046</v>
       </c>
       <c r="C33">
-        <v>0.76</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D33">
-        <v>3.292670249938956E-3</v>
+        <f>ABS(B33 - C33)</f>
+        <v>7.7193146944045943E-3</v>
       </c>
       <c r="E33">
         <v>3.3459710000000001E-3</v>
@@ -1889,130 +1902,133 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G33">
-        <v>1.594778E-3</v>
+        <v>3.3659879999999999E-3</v>
       </c>
       <c r="H33">
-        <v>2.0362259999999999E-3</v>
+        <v>1.725793E-3</v>
       </c>
       <c r="I33">
-        <v>3.0788590000000002E-3</v>
+        <v>1.7103559999999999E-3</v>
       </c>
       <c r="J33">
-        <v>3.0873239999999998E-3</v>
+        <v>2.3761820000000001E-3</v>
       </c>
       <c r="K33">
-        <v>2.015354E-3</v>
+        <v>2.8627800000000001E-3</v>
       </c>
       <c r="L33">
-        <v>1.643018E-3</v>
+        <v>2.6020169999999999E-3</v>
       </c>
       <c r="M33">
-        <v>2.5868190000000002E-3</v>
+        <v>1.9299440000000001E-3</v>
       </c>
       <c r="N33">
-        <v>3.0290629999999998E-3</v>
+        <v>1.5933399999999999E-3</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B34">
-        <v>0.86433935165405273</v>
+        <v>0.2174638360738754</v>
       </c>
       <c r="C34">
-        <v>0.876</v>
+        <v>0.21</v>
       </c>
       <c r="D34">
-        <v>1.1660648345947267E-2</v>
+        <f>ABS(B34 - C34)</f>
+        <v>7.4638360738754073E-3</v>
       </c>
       <c r="E34">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F34">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>1.569076E-3</v>
+        <v>1.562978E-3</v>
       </c>
       <c r="H34">
-        <v>1.6236040000000001E-3</v>
+        <v>-8.9638599999999996E-6</v>
       </c>
       <c r="I34">
-        <v>1.9055980000000001E-3</v>
+        <v>5.8158099999999996E-4</v>
       </c>
       <c r="J34">
-        <v>2.388481E-3</v>
+        <v>1.2982650000000001E-3</v>
       </c>
       <c r="K34">
-        <v>2.9736599999999999E-3</v>
+        <v>9.5641400000000005E-4</v>
       </c>
       <c r="L34">
-        <v>3.2985829999999999E-3</v>
+        <v>1.20505E-4</v>
       </c>
       <c r="M34">
-        <v>3.2256849999999998E-3</v>
+        <v>1.8397699999999999E-4</v>
       </c>
       <c r="N34">
-        <v>2.7680389999999999E-3</v>
+        <v>1.115752E-3</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B35">
-        <v>0.76458346843719482</v>
+        <v>0.18045023083686829</v>
       </c>
       <c r="C35">
-        <v>0.76</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="D35">
-        <v>4.5834684371948153E-3</v>
+        <f>ABS(B35 - C35)</f>
+        <v>7.450230836868299E-3</v>
       </c>
       <c r="E35">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G35">
-        <v>1.6278700000000001E-5</v>
+        <v>3.3140079999999998E-3</v>
       </c>
       <c r="H35">
-        <v>4.5665799999999998E-4</v>
+        <v>1.6711880000000001E-3</v>
       </c>
       <c r="I35">
-        <v>1.4968570000000001E-3</v>
+        <v>1.7687390000000001E-3</v>
       </c>
       <c r="J35">
-        <v>1.500181E-3</v>
+        <v>2.4913130000000002E-3</v>
       </c>
       <c r="K35">
-        <v>4.2763399999999998E-4</v>
+        <v>2.873156E-3</v>
       </c>
       <c r="L35">
-        <v>6.2045900000000002E-5</v>
+        <v>2.4500250000000002E-3</v>
       </c>
       <c r="M35">
-        <v>1.0079589999999999E-3</v>
+        <v>1.764222E-3</v>
       </c>
       <c r="N35">
-        <v>1.440946E-3</v>
+        <v>1.62728E-3</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B36">
-        <v>0.17156502604484561</v>
+        <v>0.68277519941329956</v>
       </c>
       <c r="C36">
-        <v>0.16500000000000001</v>
+        <v>0.69</v>
       </c>
       <c r="D36">
-        <v>6.565026044845601E-3</v>
+        <f>ABS(B36 - C36)</f>
+        <v>7.2248005867003862E-3</v>
       </c>
       <c r="E36">
         <v>3.3459710000000001E-3</v>
@@ -2021,86 +2037,88 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G36">
-        <v>2.8580929999999999E-3</v>
+        <v>1.1306249999999999E-3</v>
       </c>
       <c r="H36">
-        <v>1.209878E-3</v>
+        <v>1.951508E-3</v>
       </c>
       <c r="I36">
-        <v>1.1883099999999999E-3</v>
+        <v>2.748178E-3</v>
       </c>
       <c r="J36">
-        <v>1.866007E-3</v>
+        <v>1.447844E-3</v>
       </c>
       <c r="K36">
-        <v>2.3615939999999998E-3</v>
+        <v>1.357434E-3</v>
       </c>
       <c r="L36">
-        <v>2.1057419999999999E-3</v>
+        <v>2.5125260000000002E-3</v>
       </c>
       <c r="M36">
-        <v>1.440357E-3</v>
+        <v>1.7253450000000001E-3</v>
       </c>
       <c r="N36">
-        <v>1.087848E-3</v>
+        <v>1.1597770000000001E-3</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B37">
-        <v>0.35560625791549683</v>
+        <v>0.49601823091506958</v>
       </c>
       <c r="C37">
-        <v>0.36</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D37">
-        <v>4.3937420845031605E-3</v>
+        <f>ABS(B37 - C37)</f>
+        <v>7.0182309150695898E-3</v>
       </c>
       <c r="E37">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F37">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>2.3616650000000002E-3</v>
+        <v>3.7458400000000002E-4</v>
       </c>
       <c r="H37">
-        <v>2.2930289999999998E-3</v>
+        <v>1.4718699999999999E-3</v>
       </c>
       <c r="I37">
-        <v>2.6382279999999998E-3</v>
+        <v>1.8550300000000001E-5</v>
       </c>
       <c r="J37">
-        <v>1.574893E-3</v>
+        <v>1.4307530000000001E-3</v>
       </c>
       <c r="K37">
-        <v>2.8472739999999999E-3</v>
+        <v>5.1217900000000003E-5</v>
       </c>
       <c r="L37">
-        <v>2.411519E-3</v>
+        <v>1.392512E-3</v>
       </c>
       <c r="M37">
-        <v>1.693045E-3</v>
+        <v>4.8810000000000002E-5</v>
       </c>
       <c r="N37">
-        <v>3.026936E-3</v>
+        <v>1.34442E-3</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B38">
-        <v>0.35565876960754389</v>
+        <v>4.9015730619430542E-2</v>
       </c>
       <c r="C38">
-        <v>0.34699999999999998</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D38">
-        <v>8.6587696075439147E-3</v>
+        <f>ABS(B38 - C38)</f>
+        <v>6.9842693805694592E-3</v>
       </c>
       <c r="E38">
         <v>3.3459710000000001E-3</v>
@@ -2109,86 +2127,88 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G38">
-        <v>2.4180790000000001E-3</v>
+        <v>4.1304820000000004E-3</v>
       </c>
       <c r="H38">
-        <v>2.207709E-3</v>
+        <v>3.1811719999999999E-3</v>
       </c>
       <c r="I38">
-        <v>2.740517E-3</v>
+        <v>2.5392909999999999E-3</v>
       </c>
       <c r="J38">
-        <v>1.588157E-3</v>
+        <v>2.0338019999999999E-3</v>
       </c>
       <c r="K38">
-        <v>2.622582E-3</v>
+        <v>1.748941E-3</v>
       </c>
       <c r="L38">
-        <v>2.7204730000000002E-3</v>
+        <v>1.5899169999999999E-3</v>
       </c>
       <c r="M38">
-        <v>1.5712E-3</v>
+        <v>1.599156E-3</v>
       </c>
       <c r="N38">
-        <v>2.755464E-3</v>
+        <v>1.740716E-3</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B39">
-        <v>0.52671980857849121</v>
+        <v>0.59697616100311279</v>
       </c>
       <c r="C39">
-        <v>0.51600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="D39">
-        <v>1.0719808578491197E-2</v>
+        <f>ABS(B39 - C39)</f>
+        <v>6.9761610031128241E-3</v>
       </c>
       <c r="E39">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G39">
-        <v>3.06712E-4</v>
+        <v>1.7520400000000001E-3</v>
       </c>
       <c r="H39">
-        <v>1.517025E-3</v>
+        <v>3.0341410000000002E-3</v>
       </c>
       <c r="I39">
-        <v>3.7748199999999999E-5</v>
+        <v>2.2960440000000001E-3</v>
       </c>
       <c r="J39">
-        <v>1.420466E-3</v>
+        <v>2.022378E-3</v>
       </c>
       <c r="K39">
-        <v>8.2420200000000001E-5</v>
+        <v>2.9734919999999999E-3</v>
       </c>
       <c r="L39">
-        <v>1.365228E-3</v>
+        <v>1.579099E-3</v>
       </c>
       <c r="M39">
-        <v>1.4023400000000001E-4</v>
+        <v>2.9927199999999999E-3</v>
       </c>
       <c r="N39">
-        <v>1.292699E-3</v>
+        <v>2.005256E-3</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B40">
-        <v>0.1727193146944046</v>
+        <v>0.26180598139762878</v>
       </c>
       <c r="C40">
-        <v>0.16500000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="D40">
-        <v>7.7193146944045943E-3</v>
+        <f>ABS(B40 - C40)</f>
+        <v>6.8059813976287797E-3</v>
       </c>
       <c r="E40">
         <v>3.3459710000000001E-3</v>
@@ -2197,130 +2217,133 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G40">
-        <v>3.3659879999999999E-3</v>
+        <v>2.8423860000000001E-3</v>
       </c>
       <c r="H40">
-        <v>1.725793E-3</v>
+        <v>1.636719E-3</v>
       </c>
       <c r="I40">
-        <v>1.7103559999999999E-3</v>
+        <v>2.6113479999999999E-3</v>
       </c>
       <c r="J40">
-        <v>2.3761820000000001E-3</v>
+        <v>2.6560860000000002E-3</v>
       </c>
       <c r="K40">
-        <v>2.8627800000000001E-3</v>
+        <v>1.7215279999999999E-3</v>
       </c>
       <c r="L40">
-        <v>2.6020169999999999E-3</v>
+        <v>1.847359E-3</v>
       </c>
       <c r="M40">
-        <v>1.9299440000000001E-3</v>
+        <v>2.854119E-3</v>
       </c>
       <c r="N40">
-        <v>1.5933399999999999E-3</v>
+        <v>2.6503630000000002E-3</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B41">
-        <v>0.34826543927192688</v>
+        <v>0.82676082849502563</v>
       </c>
       <c r="C41">
-        <v>0.34699999999999998</v>
+        <v>0.82</v>
       </c>
       <c r="D41">
-        <v>1.2654392719269048E-3</v>
+        <f>ABS(B41 - C41)</f>
+        <v>6.7608284950256836E-3</v>
       </c>
       <c r="E41">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G41">
-        <v>8.4112399999999995E-4</v>
+        <v>1.0560680000000001E-3</v>
       </c>
       <c r="H41">
-        <v>6.2199200000000003E-4</v>
+        <v>1.2435230000000001E-3</v>
       </c>
       <c r="I41">
-        <v>1.1587920000000001E-3</v>
+        <v>1.9379849999999999E-3</v>
       </c>
       <c r="J41">
-        <v>8.3249900000000001E-6</v>
+        <v>2.635217E-3</v>
       </c>
       <c r="K41">
-        <v>1.0274220000000001E-3</v>
+        <v>2.6768999999999999E-3</v>
       </c>
       <c r="L41">
-        <v>1.1387319999999999E-3</v>
+        <v>1.906942E-3</v>
       </c>
       <c r="M41">
-        <v>-1.56912E-5</v>
+        <v>1.1586019999999999E-3</v>
       </c>
       <c r="N41">
-        <v>1.147138E-3</v>
+        <v>1.2090390000000001E-3</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B42">
-        <v>0.24806380271911621</v>
+        <v>0.80262047052383423</v>
       </c>
       <c r="C42">
-        <v>0.23300000000000001</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="D42">
-        <v>1.5063802719116198E-2</v>
+        <f>ABS(B42 - C42)</f>
+        <v>6.6204705238341877E-3</v>
       </c>
       <c r="E42">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F42">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G42">
-        <v>2.9709129999999999E-3</v>
+        <v>1.0490370000000001E-3</v>
       </c>
       <c r="H42">
-        <v>1.5888199999999999E-3</v>
+        <v>1.3285580000000001E-3</v>
       </c>
       <c r="I42">
-        <v>2.4117769999999999E-3</v>
+        <v>2.2011130000000002E-3</v>
       </c>
       <c r="J42">
-        <v>2.8346669999999999E-3</v>
+        <v>2.7429469999999999E-3</v>
       </c>
       <c r="K42">
-        <v>2.0726299999999998E-3</v>
+        <v>2.272109E-3</v>
       </c>
       <c r="L42">
-        <v>1.5938759999999999E-3</v>
+        <v>1.2989799999999999E-3</v>
       </c>
       <c r="M42">
-        <v>2.379206E-3</v>
+        <v>1.129419E-3</v>
       </c>
       <c r="N42">
-        <v>3.0511259999999999E-3</v>
+        <v>1.942928E-3</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B43">
-        <v>8.7545320391654968E-2</v>
+        <v>0.17156502604484561</v>
       </c>
       <c r="C43">
-        <v>8.1000000000000003E-2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D43">
-        <v>6.5453203916549657E-3</v>
+        <f>ABS(B43 - C43)</f>
+        <v>6.565026044845601E-3</v>
       </c>
       <c r="E43">
         <v>3.3459710000000001E-3</v>
@@ -2329,262 +2352,268 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G43">
-        <v>3.4522020000000001E-3</v>
+        <v>2.8580929999999999E-3</v>
       </c>
       <c r="H43">
-        <v>2.190474E-3</v>
+        <v>1.209878E-3</v>
       </c>
       <c r="I43">
-        <v>1.4998240000000001E-3</v>
+        <v>1.1883099999999999E-3</v>
       </c>
       <c r="J43">
-        <v>1.1205150000000001E-3</v>
+        <v>1.866007E-3</v>
       </c>
       <c r="K43">
-        <v>1.1137460000000001E-3</v>
+        <v>2.3615939999999998E-3</v>
       </c>
       <c r="L43">
-        <v>1.2967180000000001E-3</v>
+        <v>2.1057419999999999E-3</v>
       </c>
       <c r="M43">
-        <v>1.6435569999999999E-3</v>
+        <v>1.440357E-3</v>
       </c>
       <c r="N43">
-        <v>2.0105600000000002E-3</v>
+        <v>1.087848E-3</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B44">
-        <v>0.46568822860717768</v>
+        <v>0.31844592094421392</v>
       </c>
       <c r="C44">
-        <v>0.46600000000000003</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D44">
-        <v>3.1177139282234645E-4</v>
+        <f>ABS(B44 - C44)</f>
+        <v>6.5540790557860884E-3</v>
       </c>
       <c r="E44">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F44">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G44">
-        <v>1.467105E-3</v>
+        <v>2.533198E-3</v>
       </c>
       <c r="H44">
-        <v>2.4349089999999999E-3</v>
+        <v>2.0558299999999998E-3</v>
       </c>
       <c r="I44">
-        <v>1.128488E-3</v>
+        <v>2.8734350000000001E-3</v>
       </c>
       <c r="J44">
-        <v>2.318868E-3</v>
+        <v>1.7488040000000001E-3</v>
       </c>
       <c r="K44">
-        <v>1.3813899999999999E-3</v>
+        <v>2.1942260000000001E-3</v>
       </c>
       <c r="L44">
-        <v>2.0597969999999999E-3</v>
+        <v>3.0718609999999999E-3</v>
       </c>
       <c r="M44">
-        <v>1.655E-3</v>
+        <v>1.861903E-3</v>
       </c>
       <c r="N44">
-        <v>1.770226E-3</v>
+        <v>2.065173E-3</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B45">
-        <v>0.56198078393936157</v>
+        <v>4.9448519945144653E-2</v>
       </c>
       <c r="C45">
-        <v>0.56000000000000005</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D45">
-        <v>1.980783939361519E-3</v>
+        <f>ABS(B45 - C45)</f>
+        <v>6.5514800548553478E-3</v>
       </c>
       <c r="E45">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G45">
-        <v>2.2021899999999999E-4</v>
+        <v>3.613462E-3</v>
       </c>
       <c r="H45">
-        <v>1.514341E-3</v>
+        <v>2.6655749999999999E-3</v>
       </c>
       <c r="I45">
-        <v>3.5114100000000002E-4</v>
+        <v>2.0217619999999999E-3</v>
       </c>
       <c r="J45">
-        <v>9.2241800000000004E-4</v>
+        <v>1.5136590000000001E-3</v>
       </c>
       <c r="K45">
-        <v>8.39185E-4</v>
+        <v>1.2257920000000001E-3</v>
       </c>
       <c r="L45">
-        <v>3.9321700000000001E-4</v>
+        <v>1.063617E-3</v>
       </c>
       <c r="M45">
-        <v>1.307487E-3</v>
+        <v>1.0700180000000001E-3</v>
       </c>
       <c r="N45">
-        <v>5.1530399999999997E-5</v>
+        <v>1.209569E-3</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B46">
-        <v>0.70004904270172119</v>
+        <v>8.7545320391654968E-2</v>
       </c>
       <c r="C46">
-        <v>0.69</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D46">
-        <v>1.0049042701721245E-2</v>
+        <f>ABS(B46 - C46)</f>
+        <v>6.5453203916549657E-3</v>
       </c>
       <c r="E46">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G46">
-        <v>5.5627700000000003E-5</v>
+        <v>3.4522020000000001E-3</v>
       </c>
       <c r="H46">
-        <v>8.8510800000000001E-4</v>
+        <v>2.190474E-3</v>
       </c>
       <c r="I46">
-        <v>1.6819879999999999E-3</v>
+        <v>1.4998240000000001E-3</v>
       </c>
       <c r="J46">
-        <v>3.83397E-4</v>
+        <v>1.1205150000000001E-3</v>
       </c>
       <c r="K46">
-        <v>2.968E-4</v>
+        <v>1.1137460000000001E-3</v>
       </c>
       <c r="L46">
-        <v>1.4434370000000001E-3</v>
+        <v>1.2967180000000001E-3</v>
       </c>
       <c r="M46">
-        <v>6.5412999999999995E-4</v>
+        <v>1.6435569999999999E-3</v>
       </c>
       <c r="N46">
-        <v>9.7124800000000002E-5</v>
+        <v>2.0105600000000002E-3</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="B47">
-        <v>0.799052894115448</v>
+        <v>0.90252101421356201</v>
       </c>
       <c r="C47">
-        <v>0.79600000000000004</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="D47">
-        <v>3.0528941154479572E-3</v>
+        <f>ABS(B47 - C47)</f>
+        <v>6.5210142135619931E-3</v>
       </c>
       <c r="E47">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F47">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G47">
-        <v>1.58245E-3</v>
+        <v>1.041497E-3</v>
       </c>
       <c r="H47">
-        <v>1.8676750000000001E-3</v>
+        <v>1.069246E-3</v>
       </c>
       <c r="I47">
-        <v>2.7605020000000002E-3</v>
+        <v>1.2370510000000001E-3</v>
       </c>
       <c r="J47">
-        <v>3.323328E-3</v>
+        <v>1.5423769999999999E-3</v>
       </c>
       <c r="K47">
-        <v>2.8398910000000002E-3</v>
+        <v>2.014306E-3</v>
       </c>
       <c r="L47">
-        <v>1.835574E-3</v>
+        <v>2.4371269999999999E-3</v>
       </c>
       <c r="M47">
-        <v>1.6592289999999999E-3</v>
+        <v>2.708893E-3</v>
       </c>
       <c r="N47">
-        <v>2.494858E-3</v>
+        <v>2.7081599999999998E-3</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.1190817654132843</v>
+        <v>0.56942909955978394</v>
       </c>
       <c r="C48">
-        <v>0.12</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="D48">
-        <v>9.182345867156938E-4</v>
+        <f>ABS(B48 - C48)</f>
+        <v>6.4290995597839906E-3</v>
       </c>
       <c r="E48">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G48">
-        <v>2.1137869999999998E-3</v>
+        <v>1.7899929999999999E-3</v>
       </c>
       <c r="H48">
-        <v>5.6239799999999998E-4</v>
+        <v>3.0682000000000001E-3</v>
       </c>
       <c r="I48">
-        <v>3.0508999999999999E-5</v>
+        <v>1.9587599999999999E-3</v>
       </c>
       <c r="J48">
-        <v>1.2902399999999999E-4</v>
+        <v>2.4381730000000001E-3</v>
       </c>
       <c r="K48">
-        <v>6.4474900000000002E-4</v>
+        <v>2.4691549999999998E-3</v>
       </c>
       <c r="L48">
-        <v>1.11491E-3</v>
+        <v>1.8905180000000001E-3</v>
       </c>
       <c r="M48">
-        <v>1.2988819999999999E-3</v>
+        <v>2.9148669999999998E-3</v>
       </c>
       <c r="N48">
-        <v>1.0971329999999999E-3</v>
+        <v>1.592869E-3</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B49">
-        <v>0.8999602198600769</v>
+        <v>0.33139997720718378</v>
       </c>
       <c r="C49">
-        <v>0.90600000000000003</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D49">
-        <v>6.0397801399231232E-3</v>
+        <f>ABS(B49 - C49)</f>
+        <v>6.3999772071837713E-3</v>
       </c>
       <c r="E49">
         <v>3.3459710000000001E-3</v>
@@ -2593,218 +2622,223 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G49">
-        <v>1.049052E-3</v>
+        <v>1.9903410000000001E-3</v>
       </c>
       <c r="H49">
-        <v>1.0664660000000001E-3</v>
+        <v>1.507539E-3</v>
       </c>
       <c r="I49">
-        <v>1.1923509999999999E-3</v>
+        <v>2.3218290000000001E-3</v>
       </c>
       <c r="J49">
-        <v>1.4231409999999999E-3</v>
+        <v>1.217103E-3</v>
       </c>
       <c r="K49">
-        <v>1.821254E-3</v>
+        <v>1.6443670000000001E-3</v>
       </c>
       <c r="L49">
-        <v>2.2269400000000002E-3</v>
+        <v>2.518808E-3</v>
       </c>
       <c r="M49">
-        <v>2.5820109999999999E-3</v>
+        <v>1.331622E-3</v>
       </c>
       <c r="N49">
-        <v>2.7635070000000001E-3</v>
+        <v>1.5189820000000001E-3</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B50">
-        <v>0.2179459631443024</v>
+        <v>0.26135984063148499</v>
       </c>
       <c r="C50">
-        <v>0.21</v>
+        <v>0.255</v>
       </c>
       <c r="D50">
-        <v>7.9459631443024037E-3</v>
+        <f>ABS(B50 - C50)</f>
+        <v>6.3598406314849809E-3</v>
       </c>
       <c r="E50">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F50">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G50">
-        <v>3.1081199999999998E-3</v>
+        <v>2.3155680000000001E-3</v>
       </c>
       <c r="H50">
-        <v>1.570281E-3</v>
+        <v>1.109358E-3</v>
       </c>
       <c r="I50">
-        <v>2.1574239999999998E-3</v>
+        <v>2.086517E-3</v>
       </c>
       <c r="J50">
-        <v>2.8549840000000001E-3</v>
+        <v>2.135082E-3</v>
       </c>
       <c r="K50">
-        <v>2.5081700000000001E-3</v>
+        <v>1.2071180000000001E-3</v>
       </c>
       <c r="L50">
-        <v>1.69221E-3</v>
+        <v>1.3703179999999999E-3</v>
       </c>
       <c r="M50">
-        <v>1.7756779999999999E-3</v>
+        <v>2.4096019999999998E-3</v>
       </c>
       <c r="N50">
-        <v>2.6955519999999999E-3</v>
+        <v>2.1918739999999999E-3</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B51">
-        <v>0.12535347044467929</v>
+        <v>0.81628495454788208</v>
       </c>
       <c r="C51">
-        <v>0.12</v>
+        <v>0.81</v>
       </c>
       <c r="D51">
-        <v>5.3534704446792925E-3</v>
+        <f>ABS(B51 - C51)</f>
+        <v>6.2849545478820268E-3</v>
       </c>
       <c r="E51">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F51">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G51">
-        <v>3.671241E-3</v>
+        <v>1.0481679999999999E-3</v>
       </c>
       <c r="H51">
-        <v>2.1304900000000001E-3</v>
+        <v>1.2696890000000001E-3</v>
       </c>
       <c r="I51">
-        <v>1.6085100000000001E-3</v>
+        <v>2.0332390000000001E-3</v>
       </c>
       <c r="J51">
-        <v>1.7176450000000001E-3</v>
+        <v>2.6844239999999999E-3</v>
       </c>
       <c r="K51">
-        <v>2.2382970000000002E-3</v>
+        <v>2.5233959999999998E-3</v>
       </c>
       <c r="L51">
-        <v>2.703296E-3</v>
+        <v>1.624833E-3</v>
       </c>
       <c r="M51">
-        <v>2.873146E-3</v>
+        <v>1.0580870000000001E-3</v>
       </c>
       <c r="N51">
-        <v>2.655934E-3</v>
+        <v>1.464782E-3</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B52">
-        <v>0.41580057144165039</v>
+        <v>0.8999602198600769</v>
       </c>
       <c r="C52">
-        <v>0.41399999999999998</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="D52">
-        <v>1.8005714416504115E-3</v>
+        <f>ABS(B52 - C52)</f>
+        <v>6.0397801399231232E-3</v>
       </c>
       <c r="E52">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F52">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G52">
-        <v>2.1687759999999999E-3</v>
+        <v>1.049052E-3</v>
       </c>
       <c r="H52">
-        <v>2.6988429999999998E-3</v>
+        <v>1.0664660000000001E-3</v>
       </c>
       <c r="I52">
-        <v>2.1093890000000001E-3</v>
+        <v>1.1923509999999999E-3</v>
       </c>
       <c r="J52">
-        <v>2.0904970000000002E-3</v>
+        <v>1.4231409999999999E-3</v>
       </c>
       <c r="K52">
-        <v>2.913639E-3</v>
+        <v>1.821254E-3</v>
       </c>
       <c r="L52">
-        <v>1.588664E-3</v>
+        <v>2.2269400000000002E-3</v>
       </c>
       <c r="M52">
-        <v>3.014929E-3</v>
+        <v>2.5820109999999999E-3</v>
       </c>
       <c r="N52">
-        <v>1.881499E-3</v>
+        <v>2.7635070000000001E-3</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B53">
-        <v>0.12199147045612339</v>
+        <v>0.95202404260635376</v>
       </c>
       <c r="C53">
-        <v>0.12</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D53">
-        <v>1.9914704561233981E-3</v>
+        <f>ABS(B53 - C53)</f>
+        <v>6.0240426063538077E-3</v>
       </c>
       <c r="E53">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F53">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>3.1686079999999998E-3</v>
+        <v>-1.3821E-5</v>
       </c>
       <c r="H53">
-        <v>1.6116290000000001E-3</v>
+        <v>-1.7150600000000001E-5</v>
       </c>
       <c r="I53">
-        <v>1.081879E-3</v>
+        <v>1.7515000000000001E-5</v>
       </c>
       <c r="J53">
-        <v>1.1862520000000001E-3</v>
+        <v>4.7853499999999998E-5</v>
       </c>
       <c r="K53">
-        <v>1.706452E-3</v>
+        <v>1.5737800000000001E-4</v>
       </c>
       <c r="L53">
-        <v>2.175434E-3</v>
+        <v>2.72661E-4</v>
       </c>
       <c r="M53">
-        <v>2.3519790000000001E-3</v>
+        <v>4.5694699999999997E-4</v>
       </c>
       <c r="N53">
-        <v>2.1408019999999998E-3</v>
+        <v>6.9489900000000002E-4</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B54">
-        <v>0.88009470701217651</v>
+        <v>7.5290054082870483E-2</v>
       </c>
       <c r="C54">
-        <v>0.89600000000000002</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D54">
-        <v>1.5905292987823505E-2</v>
+        <f>ABS(B54 - C54)</f>
+        <v>5.7099459171295192E-3</v>
       </c>
       <c r="E54">
         <v>3.3459710000000001E-3</v>
@@ -2813,42 +2847,43 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G54">
-        <v>1.565421E-3</v>
+        <v>3.9732320000000002E-3</v>
       </c>
       <c r="H54">
-        <v>1.594736E-3</v>
+        <v>2.711003E-3</v>
       </c>
       <c r="I54">
-        <v>1.763674E-3</v>
+        <v>2.0064670000000001E-3</v>
       </c>
       <c r="J54">
-        <v>2.071828E-3</v>
+        <v>1.6129510000000001E-3</v>
       </c>
       <c r="K54">
-        <v>2.5479980000000001E-3</v>
+        <v>1.5968320000000001E-3</v>
       </c>
       <c r="L54">
-        <v>2.9751600000000001E-3</v>
+        <v>1.796434E-3</v>
       </c>
       <c r="M54">
-        <v>3.2495990000000002E-3</v>
+        <v>2.1186899999999999E-3</v>
       </c>
       <c r="N54">
-        <v>3.2482819999999999E-3</v>
+        <v>2.487249E-3</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>0.68277519941329956</v>
+        <v>0.29569709300994867</v>
       </c>
       <c r="C55">
-        <v>0.69</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D55">
-        <v>7.2248005867003862E-3</v>
+        <f>ABS(B55 - C55)</f>
+        <v>5.6970930099486949E-3</v>
       </c>
       <c r="E55">
         <v>3.3459710000000001E-3</v>
@@ -2857,86 +2892,88 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G55">
-        <v>1.1306249999999999E-3</v>
+        <v>2.1372779999999998E-3</v>
       </c>
       <c r="H55">
-        <v>1.951508E-3</v>
+        <v>1.2575189999999999E-3</v>
       </c>
       <c r="I55">
-        <v>2.748178E-3</v>
+        <v>2.306368E-3</v>
       </c>
       <c r="J55">
-        <v>1.447844E-3</v>
+        <v>1.6546309999999999E-3</v>
       </c>
       <c r="K55">
-        <v>1.357434E-3</v>
+        <v>1.102408E-3</v>
       </c>
       <c r="L55">
-        <v>2.5125260000000002E-3</v>
+        <v>2.2105620000000001E-3</v>
       </c>
       <c r="M55">
-        <v>1.7253450000000001E-3</v>
+        <v>2.286649E-3</v>
       </c>
       <c r="N55">
-        <v>1.1597770000000001E-3</v>
+        <v>1.140809E-3</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B56">
-        <v>0.888621985912323</v>
+        <v>0.900321364402771</v>
       </c>
       <c r="C56">
-        <v>0.876</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="D56">
-        <v>1.2621985912322997E-2</v>
+        <f>ABS(B56 - C56)</f>
+        <v>5.6786355972290314E-3</v>
       </c>
       <c r="E56">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F56">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>1.038473E-3</v>
+        <v>-1.07211E-5</v>
       </c>
       <c r="H56">
-        <v>1.0938759999999999E-3</v>
+        <v>4.9438500000000001E-6</v>
       </c>
       <c r="I56">
-        <v>1.3732289999999999E-3</v>
+        <v>1.3124799999999999E-4</v>
       </c>
       <c r="J56">
-        <v>1.8495300000000001E-3</v>
+        <v>3.6234899999999998E-4</v>
       </c>
       <c r="K56">
-        <v>2.4251699999999999E-3</v>
+        <v>7.6076900000000001E-4</v>
       </c>
       <c r="L56">
-        <v>2.742005E-3</v>
+        <v>1.1666269999999999E-3</v>
       </c>
       <c r="M56">
-        <v>2.66804E-3</v>
+        <v>1.521515E-3</v>
       </c>
       <c r="N56">
-        <v>2.2191369999999999E-3</v>
+        <v>1.702631E-3</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B57">
-        <v>0.66865217685699463</v>
+        <v>0.12535347044467929</v>
       </c>
       <c r="C57">
-        <v>0.66</v>
+        <v>0.12</v>
       </c>
       <c r="D57">
-        <v>8.6521768569945978E-3</v>
+        <f>ABS(B57 - C57)</f>
+        <v>5.3534704446792925E-3</v>
       </c>
       <c r="E57">
         <v>3.3459710000000001E-3</v>
@@ -2945,42 +2982,43 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G57">
-        <v>1.663103E-3</v>
+        <v>3.671241E-3</v>
       </c>
       <c r="H57">
-        <v>2.65468E-3</v>
+        <v>2.1304900000000001E-3</v>
       </c>
       <c r="I57">
-        <v>3.0884480000000001E-3</v>
+        <v>1.6085100000000001E-3</v>
       </c>
       <c r="J57">
-        <v>1.633032E-3</v>
+        <v>1.7176450000000001E-3</v>
       </c>
       <c r="K57">
-        <v>2.4720319999999999E-3</v>
+        <v>2.2382970000000002E-3</v>
       </c>
       <c r="L57">
-        <v>2.8564049999999998E-3</v>
+        <v>2.703296E-3</v>
       </c>
       <c r="M57">
-        <v>1.602175E-3</v>
+        <v>2.873146E-3</v>
       </c>
       <c r="N57">
-        <v>2.5717499999999998E-3</v>
+        <v>2.655934E-3</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B58">
-        <v>0.56942909955978394</v>
+        <v>0.52079272270202637</v>
       </c>
       <c r="C58">
-        <v>0.56299999999999994</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D58">
-        <v>6.4290995597839906E-3</v>
+        <f>ABS(B58 - C58)</f>
+        <v>4.792722702026353E-3</v>
       </c>
       <c r="E58">
         <v>3.3459710000000001E-3</v>
@@ -2989,42 +3027,43 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G58">
-        <v>1.7899929999999999E-3</v>
+        <v>1.8847029999999999E-3</v>
       </c>
       <c r="H58">
-        <v>3.0682000000000001E-3</v>
+        <v>3.1074079999999999E-3</v>
       </c>
       <c r="I58">
-        <v>1.9587599999999999E-3</v>
+        <v>1.6206409999999999E-3</v>
       </c>
       <c r="J58">
-        <v>2.4381730000000001E-3</v>
+        <v>3.0099929999999999E-3</v>
       </c>
       <c r="K58">
-        <v>2.4691549999999998E-3</v>
+        <v>1.6692580000000001E-3</v>
       </c>
       <c r="L58">
-        <v>1.8905180000000001E-3</v>
+        <v>2.952508E-3</v>
       </c>
       <c r="M58">
-        <v>2.9148669999999998E-3</v>
+        <v>1.7315130000000001E-3</v>
       </c>
       <c r="N58">
-        <v>1.592869E-3</v>
+        <v>2.875973E-3</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>0.94757020473480225</v>
+        <v>0.52068948745727539</v>
       </c>
       <c r="C59">
-        <v>0.94599999999999995</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D59">
-        <v>1.5702047348022941E-3</v>
+        <f>ABS(B59 - C59)</f>
+        <v>4.6894874572753764E-3</v>
       </c>
       <c r="E59">
         <v>3.3459710000000001E-3</v>
@@ -3033,438 +3072,448 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G59">
-        <v>1.019531E-3</v>
+        <v>1.3777380000000001E-3</v>
       </c>
       <c r="H59">
-        <v>1.0197629999999999E-3</v>
+        <v>2.6007690000000002E-3</v>
       </c>
       <c r="I59">
-        <v>1.056193E-3</v>
+        <v>1.094072E-3</v>
       </c>
       <c r="J59">
-        <v>1.0878190000000001E-3</v>
+        <v>2.500679E-3</v>
       </c>
       <c r="K59">
-        <v>1.1977540000000001E-3</v>
+        <v>1.1437400000000001E-3</v>
       </c>
       <c r="L59">
-        <v>1.3124639999999999E-3</v>
+        <v>2.4495820000000001E-3</v>
       </c>
       <c r="M59">
-        <v>1.49512E-3</v>
+        <v>1.209159E-3</v>
       </c>
       <c r="N59">
-        <v>1.7304359999999999E-3</v>
+        <v>2.3690209999999998E-3</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B60">
-        <v>0.52068948745727539</v>
+        <v>0.76458346843719482</v>
       </c>
       <c r="C60">
-        <v>0.51600000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="D60">
-        <v>4.6894874572753764E-3</v>
+        <f>ABS(B60 - C60)</f>
+        <v>4.5834684371948153E-3</v>
       </c>
       <c r="E60">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F60">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>1.3777380000000001E-3</v>
+        <v>1.6278700000000001E-5</v>
       </c>
       <c r="H60">
-        <v>2.6007690000000002E-3</v>
+        <v>4.5665799999999998E-4</v>
       </c>
       <c r="I60">
-        <v>1.094072E-3</v>
+        <v>1.4968570000000001E-3</v>
       </c>
       <c r="J60">
-        <v>2.500679E-3</v>
+        <v>1.500181E-3</v>
       </c>
       <c r="K60">
-        <v>1.1437400000000001E-3</v>
+        <v>4.2763399999999998E-4</v>
       </c>
       <c r="L60">
-        <v>2.4495820000000001E-3</v>
+        <v>6.2045900000000002E-5</v>
       </c>
       <c r="M60">
-        <v>1.209159E-3</v>
+        <v>1.0079589999999999E-3</v>
       </c>
       <c r="N60">
-        <v>2.3690209999999998E-3</v>
+        <v>1.440946E-3</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B61">
-        <v>0.68652892112731934</v>
+        <v>8.5413992404937744E-2</v>
       </c>
       <c r="C61">
-        <v>0.68700000000000006</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D61">
-        <v>4.7107887268071913E-4</v>
+        <f>ABS(B61 - C61)</f>
+        <v>4.4139924049377416E-3</v>
       </c>
       <c r="E61">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F61">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>1.098225E-3</v>
+        <v>2.374148E-3</v>
       </c>
       <c r="H61">
-        <v>1.9559769999999998E-3</v>
+        <v>1.1361399999999999E-3</v>
       </c>
       <c r="I61">
-        <v>2.7203459999999998E-3</v>
+        <v>4.3773E-4</v>
       </c>
       <c r="J61">
-        <v>1.4023040000000001E-3</v>
+        <v>4.8497900000000002E-5</v>
       </c>
       <c r="K61">
-        <v>1.393743E-3</v>
+        <v>3.4390700000000003E-5</v>
       </c>
       <c r="L61">
-        <v>2.513323E-3</v>
+        <v>2.12597E-4</v>
       </c>
       <c r="M61">
-        <v>1.623659E-3</v>
+        <v>5.3994399999999999E-4</v>
       </c>
       <c r="N61">
-        <v>1.2105849999999999E-3</v>
+        <v>8.9895399999999999E-4</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B62">
-        <v>0.23511302471160889</v>
+        <v>0.35560625791549683</v>
       </c>
       <c r="C62">
-        <v>0.23300000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="D62">
-        <v>2.1130247116088741E-3</v>
+        <f>ABS(B62 - C62)</f>
+        <v>4.3937420845031605E-3</v>
       </c>
       <c r="E62">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F62">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G62">
-        <v>2.4318120000000002E-3</v>
+        <v>2.3616650000000002E-3</v>
       </c>
       <c r="H62">
-        <v>1.0592189999999999E-3</v>
+        <v>2.2930289999999998E-3</v>
       </c>
       <c r="I62">
-        <v>1.8789340000000001E-3</v>
+        <v>2.6382279999999998E-3</v>
       </c>
       <c r="J62">
-        <v>2.3000989999999999E-3</v>
+        <v>1.574893E-3</v>
       </c>
       <c r="K62">
-        <v>1.555706E-3</v>
+        <v>2.8472739999999999E-3</v>
       </c>
       <c r="L62">
-        <v>1.0765880000000001E-3</v>
+        <v>2.411519E-3</v>
       </c>
       <c r="M62">
-        <v>1.8633199999999999E-3</v>
+        <v>1.693045E-3</v>
       </c>
       <c r="N62">
-        <v>2.5443660000000002E-3</v>
+        <v>3.026936E-3</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.83133471012115479</v>
+        <v>0.36437803506851202</v>
       </c>
       <c r="C63">
-        <v>0.82</v>
+        <v>0.36</v>
       </c>
       <c r="D63">
-        <v>1.1334710121154834E-2</v>
+        <f>ABS(B63 - C63)</f>
+        <v>4.3780350685120317E-3</v>
       </c>
       <c r="E63">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G63">
-        <v>-2.3471700000000002E-6</v>
+        <v>1.8348290000000001E-3</v>
       </c>
       <c r="H63">
-        <v>1.84759E-4</v>
+        <v>1.767769E-3</v>
       </c>
       <c r="I63">
-        <v>8.7353799999999998E-4</v>
+        <v>2.1193929999999998E-3</v>
       </c>
       <c r="J63">
-        <v>1.565571E-3</v>
+        <v>1.0449960000000001E-3</v>
       </c>
       <c r="K63">
-        <v>1.607748E-3</v>
+        <v>2.3279080000000001E-3</v>
       </c>
       <c r="L63">
-        <v>8.4265200000000005E-4</v>
+        <v>1.8958689999999999E-3</v>
       </c>
       <c r="M63">
-        <v>9.8060199999999993E-5</v>
+        <v>1.164799E-3</v>
       </c>
       <c r="N63">
-        <v>1.48412E-4</v>
+        <v>2.5139030000000001E-3</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="B64">
-        <v>0.50527101755142212</v>
+        <v>0.81571024656295776</v>
       </c>
       <c r="C64">
-        <v>0.48899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="D64">
-        <v>1.6271017551422129E-2</v>
+        <f>ABS(B64 - C64)</f>
+        <v>4.2897534370421875E-3</v>
       </c>
       <c r="E64">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F64">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G64">
-        <v>1.432114E-3</v>
+        <v>1.5778540000000001E-3</v>
       </c>
       <c r="H64">
-        <v>2.5660280000000001E-3</v>
+        <v>1.7694710000000001E-3</v>
       </c>
       <c r="I64">
-        <v>1.087658E-3</v>
+        <v>2.4759750000000001E-3</v>
       </c>
       <c r="J64">
-        <v>2.5206970000000001E-3</v>
+        <v>3.1879500000000002E-3</v>
       </c>
       <c r="K64">
-        <v>1.1316709999999999E-3</v>
+        <v>3.2338940000000002E-3</v>
       </c>
       <c r="L64">
-        <v>2.5012340000000002E-3</v>
+        <v>2.4519149999999998E-3</v>
       </c>
       <c r="M64">
-        <v>1.143172E-3</v>
+        <v>1.686328E-3</v>
       </c>
       <c r="N64">
-        <v>2.4674710000000002E-3</v>
+        <v>1.732293E-3</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B65">
-        <v>0.33139997720718378</v>
+        <v>0.29411792755126948</v>
       </c>
       <c r="C65">
-        <v>0.32500000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D65">
-        <v>6.3999772071837713E-3</v>
+        <f>ABS(B65 - C65)</f>
+        <v>4.1179275512694957E-3</v>
       </c>
       <c r="E65">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F65">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>1.9903410000000001E-3</v>
+        <v>1.0985999999999999E-3</v>
       </c>
       <c r="H65">
-        <v>1.507539E-3</v>
+        <v>2.18798E-4</v>
       </c>
       <c r="I65">
-        <v>2.3218290000000001E-3</v>
+        <v>1.2629780000000001E-3</v>
       </c>
       <c r="J65">
-        <v>1.217103E-3</v>
+        <v>6.1846600000000002E-4</v>
       </c>
       <c r="K65">
-        <v>1.6443670000000001E-3</v>
+        <v>5.8366299999999997E-5</v>
       </c>
       <c r="L65">
-        <v>2.518808E-3</v>
+        <v>1.1553959999999999E-3</v>
       </c>
       <c r="M65">
-        <v>1.331622E-3</v>
+        <v>1.245997E-3</v>
       </c>
       <c r="N65">
-        <v>1.5189820000000001E-3</v>
+        <v>1.01106E-4</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="B66">
-        <v>0.29569709300994867</v>
+        <v>0.97644579410552979</v>
       </c>
       <c r="C66">
-        <v>0.28999999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="D66">
-        <v>5.6970930099486949E-3</v>
+        <f>ABS(B66 - C66)</f>
+        <v>3.5542058944701971E-3</v>
       </c>
       <c r="E66">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F66">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G66">
-        <v>2.1372779999999998E-3</v>
+        <v>1.5618870000000001E-3</v>
       </c>
       <c r="H66">
-        <v>1.2575189999999999E-3</v>
+        <v>1.556059E-3</v>
       </c>
       <c r="I66">
-        <v>2.306368E-3</v>
+        <v>1.5746379999999999E-3</v>
       </c>
       <c r="J66">
-        <v>1.6546309999999999E-3</v>
+        <v>1.562538E-3</v>
       </c>
       <c r="K66">
-        <v>1.102408E-3</v>
+        <v>1.590244E-3</v>
       </c>
       <c r="L66">
-        <v>2.2105620000000001E-3</v>
+        <v>1.576938E-3</v>
       </c>
       <c r="M66">
-        <v>2.286649E-3</v>
+        <v>1.5859839999999999E-3</v>
       </c>
       <c r="N66">
-        <v>1.140809E-3</v>
+        <v>1.610939E-3</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.82676082849502563</v>
+        <v>0.32836917042732239</v>
       </c>
       <c r="C67">
-        <v>0.82</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D67">
-        <v>6.7608284950256836E-3</v>
+        <f>ABS(B67 - C67)</f>
+        <v>3.3691704273223766E-3</v>
       </c>
       <c r="E67">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F67">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>1.0560680000000001E-3</v>
+        <v>9.5751199999999999E-4</v>
       </c>
       <c r="H67">
-        <v>1.2435230000000001E-3</v>
+        <v>4.7555399999999999E-4</v>
       </c>
       <c r="I67">
-        <v>1.9379849999999999E-3</v>
+        <v>1.290266E-3</v>
       </c>
       <c r="J67">
-        <v>2.635217E-3</v>
+        <v>1.77491E-4</v>
       </c>
       <c r="K67">
-        <v>2.6768999999999999E-3</v>
+        <v>5.9929199999999997E-4</v>
       </c>
       <c r="L67">
-        <v>1.906942E-3</v>
+        <v>1.486862E-3</v>
       </c>
       <c r="M67">
-        <v>1.1586019999999999E-3</v>
+        <v>2.9353099999999998E-4</v>
       </c>
       <c r="N67">
-        <v>1.2090390000000001E-3</v>
+        <v>4.6819500000000003E-4</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B68">
-        <v>0.5796438455581665</v>
+        <v>0.76329267024993896</v>
       </c>
       <c r="C68">
-        <v>0.56000000000000005</v>
+        <v>0.76</v>
       </c>
       <c r="D68">
-        <v>1.9643845558166451E-2</v>
+        <f>ABS(B68 - C68)</f>
+        <v>3.292670249938956E-3</v>
       </c>
       <c r="E68">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F68">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G68">
-        <v>1.2515849999999999E-3</v>
+        <v>1.594778E-3</v>
       </c>
       <c r="H68">
-        <v>2.5402570000000002E-3</v>
+        <v>2.0362259999999999E-3</v>
       </c>
       <c r="I68">
-        <v>1.390084E-3</v>
+        <v>3.0788590000000002E-3</v>
       </c>
       <c r="J68">
-        <v>1.953228E-3</v>
+        <v>3.0873239999999998E-3</v>
       </c>
       <c r="K68">
-        <v>1.8809810000000001E-3</v>
+        <v>2.015354E-3</v>
       </c>
       <c r="L68">
-        <v>1.429816E-3</v>
+        <v>1.643018E-3</v>
       </c>
       <c r="M68">
-        <v>2.3488210000000001E-3</v>
+        <v>2.5868190000000002E-3</v>
       </c>
       <c r="N68">
-        <v>1.096372E-3</v>
+        <v>3.0290629999999998E-3</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B69">
-        <v>0.44033163785934448</v>
+        <v>0.21327900886535639</v>
       </c>
       <c r="C69">
-        <v>0.41399999999999998</v>
+        <v>0.21</v>
       </c>
       <c r="D69">
-        <v>2.6331637859344503E-2</v>
+        <f>ABS(B69 - C69)</f>
+        <v>3.2790088653563976E-3</v>
       </c>
       <c r="E69">
         <v>3.3459710000000001E-3</v>
@@ -3473,306 +3522,313 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G69">
-        <v>1.633691E-3</v>
+        <v>2.5790409999999998E-3</v>
       </c>
       <c r="H69">
-        <v>2.1613219999999998E-3</v>
+        <v>1.0408539999999999E-3</v>
       </c>
       <c r="I69">
-        <v>1.5794279999999999E-3</v>
+        <v>1.617837E-3</v>
       </c>
       <c r="J69">
-        <v>1.549789E-3</v>
+        <v>2.3147630000000001E-3</v>
       </c>
       <c r="K69">
-        <v>2.3844999999999999E-3</v>
+        <v>1.9787479999999998E-3</v>
       </c>
       <c r="L69">
-        <v>1.056509E-3</v>
+        <v>1.167913E-3</v>
       </c>
       <c r="M69">
-        <v>2.4823839999999998E-3</v>
+        <v>1.2415379999999999E-3</v>
       </c>
       <c r="N69">
-        <v>1.3582620000000001E-3</v>
+        <v>2.1523459999999999E-3</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B70">
-        <v>0.60913282632827759</v>
+        <v>0.28685089945793152</v>
       </c>
       <c r="C70">
-        <v>0.59</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D70">
-        <v>1.9132826328277619E-2</v>
+        <f>ABS(B70 - C70)</f>
+        <v>3.1491005420684615E-3</v>
       </c>
       <c r="E70">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F70">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G70">
-        <v>1.1781649999999999E-3</v>
+        <v>2.6702729999999999E-3</v>
       </c>
       <c r="H70">
-        <v>2.4449290000000002E-3</v>
+        <v>1.800935E-3</v>
       </c>
       <c r="I70">
-        <v>1.732354E-3</v>
+        <v>2.8387410000000001E-3</v>
       </c>
       <c r="J70">
-        <v>1.478207E-3</v>
+        <v>2.1886520000000001E-3</v>
       </c>
       <c r="K70">
-        <v>2.4151239999999998E-3</v>
+        <v>1.6451969999999999E-3</v>
       </c>
       <c r="L70">
-        <v>1.0528790000000001E-3</v>
+        <v>2.7441560000000002E-3</v>
       </c>
       <c r="M70">
-        <v>2.447252E-3</v>
+        <v>2.8097460000000001E-3</v>
       </c>
       <c r="N70">
-        <v>1.470903E-3</v>
+        <v>1.674551E-3</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="B71">
-        <v>0.36437803506851202</v>
+        <v>0.80685687065124512</v>
       </c>
       <c r="C71">
-        <v>0.36</v>
+        <v>0.81</v>
       </c>
       <c r="D71">
-        <v>4.3780350685120317E-3</v>
+        <f>ABS(B71 - C71)</f>
+        <v>3.1431293487549361E-3</v>
       </c>
       <c r="E71">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F71">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G71">
-        <v>1.8348290000000001E-3</v>
+        <v>1.5792899999999999E-3</v>
       </c>
       <c r="H71">
-        <v>1.767769E-3</v>
+        <v>1.801441E-3</v>
       </c>
       <c r="I71">
-        <v>2.1193929999999998E-3</v>
+        <v>2.567012E-3</v>
       </c>
       <c r="J71">
-        <v>1.0449960000000001E-3</v>
+        <v>3.2204130000000001E-3</v>
       </c>
       <c r="K71">
-        <v>2.3279080000000001E-3</v>
+        <v>3.0589760000000001E-3</v>
       </c>
       <c r="L71">
-        <v>1.8958689999999999E-3</v>
+        <v>2.1566739999999999E-3</v>
       </c>
       <c r="M71">
-        <v>1.164799E-3</v>
+        <v>1.5855520000000001E-3</v>
       </c>
       <c r="N71">
-        <v>2.5139030000000001E-3</v>
+        <v>1.9907459999999998E-3</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B72">
-        <v>0.90252101421356201</v>
+        <v>0.799052894115448</v>
       </c>
       <c r="C72">
-        <v>0.89600000000000002</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="D72">
-        <v>6.5210142135619931E-3</v>
+        <f>ABS(B72 - C72)</f>
+        <v>3.0528941154479572E-3</v>
       </c>
       <c r="E72">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F72">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G72">
-        <v>1.041497E-3</v>
+        <v>1.58245E-3</v>
       </c>
       <c r="H72">
-        <v>1.069246E-3</v>
+        <v>1.8676750000000001E-3</v>
       </c>
       <c r="I72">
-        <v>1.2370510000000001E-3</v>
+        <v>2.7605020000000002E-3</v>
       </c>
       <c r="J72">
-        <v>1.5423769999999999E-3</v>
+        <v>3.323328E-3</v>
       </c>
       <c r="K72">
-        <v>2.014306E-3</v>
+        <v>2.8398910000000002E-3</v>
       </c>
       <c r="L72">
-        <v>2.4371269999999999E-3</v>
+        <v>1.835574E-3</v>
       </c>
       <c r="M72">
-        <v>2.708893E-3</v>
+        <v>1.6592289999999999E-3</v>
       </c>
       <c r="N72">
-        <v>2.7081599999999998E-3</v>
+        <v>2.494858E-3</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B73">
-        <v>0.59697616100311279</v>
+        <v>0.23573955893516541</v>
       </c>
       <c r="C73">
-        <v>0.59</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="D73">
-        <v>6.9761610031128241E-3</v>
+        <f>ABS(B73 - C73)</f>
+        <v>2.7395589351653926E-3</v>
       </c>
       <c r="E73">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F73">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>1.7520400000000001E-3</v>
+        <v>1.39536E-3</v>
       </c>
       <c r="H73">
-        <v>3.0341410000000002E-3</v>
+        <v>4.8624100000000001E-6</v>
       </c>
       <c r="I73">
-        <v>2.2960440000000001E-3</v>
+        <v>8.1966299999999999E-4</v>
       </c>
       <c r="J73">
-        <v>2.022378E-3</v>
+        <v>1.2540679999999999E-3</v>
       </c>
       <c r="K73">
-        <v>2.9734919999999999E-3</v>
+        <v>5.01604E-4</v>
       </c>
       <c r="L73">
-        <v>1.579099E-3</v>
+        <v>-9.0326099999999996E-6</v>
       </c>
       <c r="M73">
-        <v>2.9927199999999999E-3</v>
+        <v>7.7245999999999999E-4</v>
       </c>
       <c r="N73">
-        <v>2.005256E-3</v>
+        <v>1.4766689999999999E-3</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B74">
-        <v>0.41532015800476069</v>
+        <v>0.23511302471160889</v>
       </c>
       <c r="C74">
-        <v>0.41399999999999998</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="D74">
-        <v>1.3201580047607075E-3</v>
+        <f>ABS(B74 - C74)</f>
+        <v>2.1130247116088741E-3</v>
       </c>
       <c r="E74">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G74">
-        <v>6.0752199999999999E-4</v>
+        <v>2.4318120000000002E-3</v>
       </c>
       <c r="H74">
-        <v>1.143282E-3</v>
+        <v>1.0592189999999999E-3</v>
       </c>
       <c r="I74">
-        <v>5.4572799999999999E-4</v>
+        <v>1.8789340000000001E-3</v>
       </c>
       <c r="J74">
-        <v>5.1350199999999999E-4</v>
+        <v>2.3000989999999999E-3</v>
       </c>
       <c r="K74">
-        <v>1.3691840000000001E-3</v>
+        <v>1.555706E-3</v>
       </c>
       <c r="L74">
-        <v>3.4906999999999999E-6</v>
+        <v>1.0765880000000001E-3</v>
       </c>
       <c r="M74">
-        <v>1.4618999999999999E-3</v>
+        <v>1.8633199999999999E-3</v>
       </c>
       <c r="N74">
-        <v>3.1891200000000003E-4</v>
+        <v>2.5443660000000002E-3</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B75">
-        <v>8.5413992404937744E-2</v>
+        <v>0.12199147045612339</v>
       </c>
       <c r="C75">
-        <v>8.1000000000000003E-2</v>
+        <v>0.12</v>
       </c>
       <c r="D75">
-        <v>4.4139924049377416E-3</v>
+        <f>ABS(B75 - C75)</f>
+        <v>1.9914704561233981E-3</v>
       </c>
       <c r="E75">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G75">
-        <v>2.374148E-3</v>
+        <v>3.1686079999999998E-3</v>
       </c>
       <c r="H75">
-        <v>1.1361399999999999E-3</v>
+        <v>1.6116290000000001E-3</v>
       </c>
       <c r="I75">
-        <v>4.3773E-4</v>
+        <v>1.081879E-3</v>
       </c>
       <c r="J75">
-        <v>4.8497900000000002E-5</v>
+        <v>1.1862520000000001E-3</v>
       </c>
       <c r="K75">
-        <v>3.4390700000000003E-5</v>
+        <v>1.706452E-3</v>
       </c>
       <c r="L75">
-        <v>2.12597E-4</v>
+        <v>2.175434E-3</v>
       </c>
       <c r="M75">
-        <v>5.3994399999999999E-4</v>
+        <v>2.3519790000000001E-3</v>
       </c>
       <c r="N75">
-        <v>8.9895399999999999E-4</v>
+        <v>2.1408019999999998E-3</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B76">
-        <v>0.32836917042732239</v>
+        <v>0.56198078393936157</v>
       </c>
       <c r="C76">
-        <v>0.32500000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D76">
-        <v>3.3691704273223766E-3</v>
+        <f>ABS(B76 - C76)</f>
+        <v>1.980783939361519E-3</v>
       </c>
       <c r="E76">
         <v>3.3459710000000001E-3</v>
@@ -3781,174 +3837,178 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>9.5751199999999999E-4</v>
+        <v>2.2021899999999999E-4</v>
       </c>
       <c r="H76">
-        <v>4.7555399999999999E-4</v>
+        <v>1.514341E-3</v>
       </c>
       <c r="I76">
-        <v>1.290266E-3</v>
+        <v>3.5114100000000002E-4</v>
       </c>
       <c r="J76">
-        <v>1.77491E-4</v>
+        <v>9.2241800000000004E-4</v>
       </c>
       <c r="K76">
-        <v>5.9929199999999997E-4</v>
+        <v>8.39185E-4</v>
       </c>
       <c r="L76">
-        <v>1.486862E-3</v>
+        <v>3.9321700000000001E-4</v>
       </c>
       <c r="M76">
-        <v>2.9353099999999998E-4</v>
+        <v>1.307487E-3</v>
       </c>
       <c r="N76">
-        <v>4.6819500000000003E-4</v>
+        <v>5.1530399999999997E-5</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="B77">
-        <v>0.7691580057144165</v>
+        <v>0.16698044538497919</v>
       </c>
       <c r="C77">
-        <v>0.76</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D77">
-        <v>9.158005714416495E-3</v>
+        <f>ABS(B77 - C77)</f>
+        <v>1.9804453849791848E-3</v>
       </c>
       <c r="E77">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F77">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>1.06825E-3</v>
+        <v>1.8177060000000001E-3</v>
       </c>
       <c r="H77">
-        <v>1.525761E-3</v>
+        <v>1.6078500000000001E-4</v>
       </c>
       <c r="I77">
-        <v>2.5597710000000002E-3</v>
+        <v>1.35143E-4</v>
       </c>
       <c r="J77">
-        <v>2.5776330000000002E-3</v>
+        <v>8.0365099999999995E-4</v>
       </c>
       <c r="K77">
-        <v>1.4979430000000001E-3</v>
+        <v>1.3088799999999999E-3</v>
       </c>
       <c r="L77">
-        <v>1.1189640000000001E-3</v>
+        <v>1.0588069999999999E-3</v>
       </c>
       <c r="M77">
-        <v>2.0728909999999999E-3</v>
+        <v>3.9642200000000001E-4</v>
       </c>
       <c r="N77">
-        <v>2.523707E-3</v>
+        <v>3.0571100000000003E-5</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B78">
-        <v>0.49601823091506958</v>
+        <v>0.41580057144165039</v>
       </c>
       <c r="C78">
-        <v>0.48899999999999999</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D78">
-        <v>7.0182309150695898E-3</v>
+        <f>ABS(B78 - C78)</f>
+        <v>1.8005714416504115E-3</v>
       </c>
       <c r="E78">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G78">
-        <v>3.7458400000000002E-4</v>
+        <v>2.1687759999999999E-3</v>
       </c>
       <c r="H78">
-        <v>1.4718699999999999E-3</v>
+        <v>2.6988429999999998E-3</v>
       </c>
       <c r="I78">
-        <v>1.8550300000000001E-5</v>
+        <v>2.1093890000000001E-3</v>
       </c>
       <c r="J78">
-        <v>1.4307530000000001E-3</v>
+        <v>2.0904970000000002E-3</v>
       </c>
       <c r="K78">
-        <v>5.1217900000000003E-5</v>
+        <v>2.913639E-3</v>
       </c>
       <c r="L78">
-        <v>1.392512E-3</v>
+        <v>1.588664E-3</v>
       </c>
       <c r="M78">
-        <v>4.8810000000000002E-5</v>
+        <v>3.014929E-3</v>
       </c>
       <c r="N78">
-        <v>1.34442E-3</v>
+        <v>1.881499E-3</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B79">
-        <v>0.17154128849506381</v>
+        <v>0.94757020473480225</v>
       </c>
       <c r="C79">
-        <v>0.17299999999999999</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D79">
-        <v>1.4587115049361776E-3</v>
+        <f>ABS(B79 - C79)</f>
+        <v>1.5702047348022941E-3</v>
       </c>
       <c r="E79">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G79">
-        <v>1.7614799999999999E-3</v>
+        <v>1.019531E-3</v>
       </c>
       <c r="H79">
-        <v>1.07638E-4</v>
+        <v>1.0197629999999999E-3</v>
       </c>
       <c r="I79">
-        <v>1.8912000000000001E-4</v>
+        <v>1.056193E-3</v>
       </c>
       <c r="J79">
-        <v>9.1463099999999995E-4</v>
+        <v>1.0878190000000001E-3</v>
       </c>
       <c r="K79">
-        <v>1.305886E-3</v>
+        <v>1.1977540000000001E-3</v>
       </c>
       <c r="L79">
-        <v>8.9108000000000004E-4</v>
+        <v>1.3124639999999999E-3</v>
       </c>
       <c r="M79">
-        <v>1.9330399999999999E-4</v>
+        <v>1.49512E-3</v>
       </c>
       <c r="N79">
-        <v>4.4169999999999999E-5</v>
+        <v>1.7304359999999999E-3</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="B80">
-        <v>0.88528096675872803</v>
+        <v>0.56153076887130737</v>
       </c>
       <c r="C80">
-        <v>0.90600000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D80">
-        <v>2.0719033241272E-2</v>
+        <f>ABS(B80 - C80)</f>
+        <v>1.5307688713073198E-3</v>
       </c>
       <c r="E80">
         <v>3.3459710000000001E-3</v>
@@ -3957,130 +4017,133 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G80">
-        <v>1.564616E-3</v>
+        <v>1.794316E-3</v>
       </c>
       <c r="H80">
-        <v>1.584731E-3</v>
+        <v>3.083611E-3</v>
       </c>
       <c r="I80">
-        <v>1.7115940000000001E-3</v>
+        <v>1.9338389999999999E-3</v>
       </c>
       <c r="J80">
-        <v>1.9422790000000001E-3</v>
+        <v>2.4929510000000002E-3</v>
       </c>
       <c r="K80">
-        <v>2.339355E-3</v>
+        <v>2.4239840000000001E-3</v>
       </c>
       <c r="L80">
-        <v>2.7435699999999999E-3</v>
+        <v>1.9660060000000002E-3</v>
       </c>
       <c r="M80">
-        <v>3.0973369999999999E-3</v>
+        <v>2.8892409999999999E-3</v>
       </c>
       <c r="N80">
-        <v>3.2779860000000001E-3</v>
+        <v>1.6305709999999999E-3</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="B81">
-        <v>0.70944821834564209</v>
+        <v>0.25350955128669739</v>
       </c>
       <c r="C81">
-        <v>0.68700000000000006</v>
+        <v>0.255</v>
       </c>
       <c r="D81">
-        <v>2.2448218345642035E-2</v>
+        <f>ABS(B81 - C81)</f>
+        <v>1.4904487133026167E-3</v>
       </c>
       <c r="E81">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F81">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>1.6475839999999999E-3</v>
+        <v>1.292694E-3</v>
       </c>
       <c r="H81">
-        <v>2.5320579999999998E-3</v>
+        <v>8.30721E-5</v>
       </c>
       <c r="I81">
-        <v>3.287805E-3</v>
+        <v>1.051143E-3</v>
       </c>
       <c r="J81">
-        <v>1.9615710000000001E-3</v>
+        <v>1.115759E-3</v>
       </c>
       <c r="K81">
-        <v>1.950182E-3</v>
+        <v>1.78068E-4</v>
       </c>
       <c r="L81">
-        <v>3.0739600000000001E-3</v>
+        <v>3.1999200000000001E-4</v>
       </c>
       <c r="M81">
-        <v>2.181765E-3</v>
+        <v>1.3686060000000001E-3</v>
       </c>
       <c r="N81">
-        <v>1.7558230000000001E-3</v>
+        <v>1.180501E-3</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B82">
-        <v>6.3234955072402954E-2</v>
+        <v>0.17154128849506381</v>
       </c>
       <c r="C82">
-        <v>7.2999999999999995E-2</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="D82">
-        <v>9.7650449275970413E-3</v>
+        <f>ABS(B82 - C82)</f>
+        <v>1.4587115049361776E-3</v>
       </c>
       <c r="E82">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F82">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>4.0474409999999997E-3</v>
+        <v>1.7614799999999999E-3</v>
       </c>
       <c r="H82">
-        <v>2.8590080000000001E-3</v>
+        <v>1.07638E-4</v>
       </c>
       <c r="I82">
-        <v>2.1696469999999998E-3</v>
+        <v>1.8912000000000001E-4</v>
       </c>
       <c r="J82">
-        <v>1.7271089999999999E-3</v>
+        <v>9.1463099999999995E-4</v>
       </c>
       <c r="K82">
-        <v>1.6079530000000001E-3</v>
+        <v>1.305886E-3</v>
       </c>
       <c r="L82">
-        <v>1.6935590000000001E-3</v>
+        <v>8.9108000000000004E-4</v>
       </c>
       <c r="M82">
-        <v>1.94534E-3</v>
+        <v>1.9330399999999999E-4</v>
       </c>
       <c r="N82">
-        <v>2.2822139999999999E-3</v>
+        <v>4.4169999999999999E-5</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B83">
-        <v>0.2174638360738754</v>
+        <v>0.41532015800476069</v>
       </c>
       <c r="C83">
-        <v>0.21</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D83">
-        <v>7.4638360738754073E-3</v>
+        <f>ABS(B83 - C83)</f>
+        <v>1.3201580047607075E-3</v>
       </c>
       <c r="E83">
         <v>3.3459710000000001E-3</v>
@@ -4089,42 +4152,43 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>1.562978E-3</v>
+        <v>6.0752199999999999E-4</v>
       </c>
       <c r="H83">
-        <v>-8.9638599999999996E-6</v>
+        <v>1.143282E-3</v>
       </c>
       <c r="I83">
-        <v>5.8158099999999996E-4</v>
+        <v>5.4572799999999999E-4</v>
       </c>
       <c r="J83">
-        <v>1.2982650000000001E-3</v>
+        <v>5.1350199999999999E-4</v>
       </c>
       <c r="K83">
-        <v>9.5641400000000005E-4</v>
+        <v>1.3691840000000001E-3</v>
       </c>
       <c r="L83">
-        <v>1.20505E-4</v>
+        <v>3.4906999999999999E-6</v>
       </c>
       <c r="M83">
-        <v>1.8397699999999999E-4</v>
+        <v>1.4618999999999999E-3</v>
       </c>
       <c r="N83">
-        <v>1.115752E-3</v>
+        <v>3.1891200000000003E-4</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="B84">
-        <v>0.900321364402771</v>
+        <v>0.34826543927192688</v>
       </c>
       <c r="C84">
-        <v>0.90600000000000003</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D84">
-        <v>5.6786355972290314E-3</v>
+        <f>ABS(B84 - C84)</f>
+        <v>1.2654392719269048E-3</v>
       </c>
       <c r="E84">
         <v>3.3459710000000001E-3</v>
@@ -4133,218 +4197,223 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>-1.07211E-5</v>
+        <v>8.4112399999999995E-4</v>
       </c>
       <c r="H84">
-        <v>4.9438500000000001E-6</v>
+        <v>6.2199200000000003E-4</v>
       </c>
       <c r="I84">
-        <v>1.3124799999999999E-4</v>
+        <v>1.1587920000000001E-3</v>
       </c>
       <c r="J84">
-        <v>3.6234899999999998E-4</v>
+        <v>8.3249900000000001E-6</v>
       </c>
       <c r="K84">
-        <v>7.6076900000000001E-4</v>
+        <v>1.0274220000000001E-3</v>
       </c>
       <c r="L84">
-        <v>1.1666269999999999E-3</v>
+        <v>1.1387319999999999E-3</v>
       </c>
       <c r="M84">
-        <v>1.521515E-3</v>
+        <v>-1.56912E-5</v>
       </c>
       <c r="N84">
-        <v>1.702631E-3</v>
+        <v>1.147138E-3</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="B85">
-        <v>0.81628495454788208</v>
+        <v>0.36115294694900513</v>
       </c>
       <c r="C85">
-        <v>0.81</v>
+        <v>0.36</v>
       </c>
       <c r="D85">
-        <v>6.2849545478820268E-3</v>
+        <f>ABS(B85 - C85)</f>
+        <v>1.1529469490051403E-3</v>
       </c>
       <c r="E85">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F85">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>1.0481679999999999E-3</v>
+        <v>7.9372700000000004E-4</v>
       </c>
       <c r="H85">
-        <v>1.2696890000000001E-3</v>
+        <v>7.17759E-4</v>
       </c>
       <c r="I85">
-        <v>2.0332390000000001E-3</v>
+        <v>1.0738080000000001E-3</v>
       </c>
       <c r="J85">
-        <v>2.6844239999999999E-3</v>
+        <v>-8.0622599999999996E-6</v>
       </c>
       <c r="K85">
-        <v>2.5233959999999998E-3</v>
+        <v>1.2716660000000001E-3</v>
       </c>
       <c r="L85">
-        <v>1.624833E-3</v>
+        <v>8.5092999999999996E-4</v>
       </c>
       <c r="M85">
-        <v>1.0580870000000001E-3</v>
+        <v>1.03205E-4</v>
       </c>
       <c r="N85">
-        <v>1.464782E-3</v>
+        <v>1.4567880000000001E-3</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="B86">
-        <v>0.49698251485824579</v>
+        <v>0.34801605343818659</v>
       </c>
       <c r="C86">
-        <v>0.48899999999999999</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D86">
-        <v>7.9825148582458039E-3</v>
+        <f>ABS(B86 - C86)</f>
+        <v>1.0160534381866149E-3</v>
       </c>
       <c r="E86">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F86">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G86">
-        <v>1.9495929999999999E-3</v>
+        <v>1.9112510000000001E-3</v>
       </c>
       <c r="H86">
-        <v>3.0502649999999999E-3</v>
+        <v>1.6810390000000001E-3</v>
       </c>
       <c r="I86">
-        <v>1.5916120000000001E-3</v>
+        <v>2.2190439999999999E-3</v>
       </c>
       <c r="J86">
-        <v>3.0231530000000002E-3</v>
+        <v>1.064686E-3</v>
       </c>
       <c r="K86">
-        <v>1.6279949999999999E-3</v>
+        <v>2.11188E-3</v>
       </c>
       <c r="L86">
-        <v>2.987787E-3</v>
+        <v>2.1935290000000001E-3</v>
       </c>
       <c r="M86">
-        <v>1.640215E-3</v>
+        <v>1.0721629999999999E-3</v>
       </c>
       <c r="N86">
-        <v>2.9416260000000001E-3</v>
+        <v>2.242384E-3</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="B87">
-        <v>0.92690950632095337</v>
+        <v>0.89694458246231079</v>
       </c>
       <c r="C87">
-        <v>0.94599999999999995</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="D87">
-        <v>1.9090493679046583E-2</v>
+        <f>ABS(B87 - C87)</f>
+        <v>9.4458246231077236E-4</v>
       </c>
       <c r="E87">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F87">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>1.56185E-3</v>
+        <v>-9.7159900000000008E-6</v>
       </c>
       <c r="H87">
-        <v>1.562903E-3</v>
+        <v>1.4965400000000001E-5</v>
       </c>
       <c r="I87">
-        <v>1.5984009999999999E-3</v>
+        <v>1.8280299999999999E-4</v>
       </c>
       <c r="J87">
-        <v>1.628719E-3</v>
+        <v>4.9002900000000001E-4</v>
       </c>
       <c r="K87">
-        <v>1.7369200000000001E-3</v>
+        <v>9.6528599999999999E-4</v>
       </c>
       <c r="L87">
-        <v>1.849463E-3</v>
+        <v>1.3912709999999999E-3</v>
       </c>
       <c r="M87">
-        <v>2.0295249999999999E-3</v>
+        <v>1.664158E-3</v>
       </c>
       <c r="N87">
-        <v>2.2618769999999998E-3</v>
+        <v>1.6617750000000001E-3</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B88">
-        <v>4.9015730619430542E-2</v>
+        <v>0.1190817654132843</v>
       </c>
       <c r="C88">
-        <v>5.6000000000000001E-2</v>
+        <v>0.12</v>
       </c>
       <c r="D88">
-        <v>6.9842693805694592E-3</v>
+        <f>ABS(B88 - C88)</f>
+        <v>9.182345867156938E-4</v>
       </c>
       <c r="E88">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F88">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>4.1304820000000004E-3</v>
+        <v>2.1137869999999998E-3</v>
       </c>
       <c r="H88">
-        <v>3.1811719999999999E-3</v>
+        <v>5.6239799999999998E-4</v>
       </c>
       <c r="I88">
-        <v>2.5392909999999999E-3</v>
+        <v>3.0508999999999999E-5</v>
       </c>
       <c r="J88">
-        <v>2.0338019999999999E-3</v>
+        <v>1.2902399999999999E-4</v>
       </c>
       <c r="K88">
-        <v>1.748941E-3</v>
+        <v>6.4474900000000002E-4</v>
       </c>
       <c r="L88">
-        <v>1.5899169999999999E-3</v>
+        <v>1.11491E-3</v>
       </c>
       <c r="M88">
-        <v>1.599156E-3</v>
+        <v>1.2988819999999999E-3</v>
       </c>
       <c r="N88">
-        <v>1.740716E-3</v>
+        <v>1.0971329999999999E-3</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B89">
-        <v>0.6513332724571228</v>
+        <v>0.68652892112731934</v>
       </c>
       <c r="C89">
-        <v>0.66</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="D89">
-        <v>8.6667275428772284E-3</v>
+        <f>ABS(B89 - C89)</f>
+        <v>4.7107887268071913E-4</v>
       </c>
       <c r="E89">
         <v>3.3459710000000001E-3</v>
@@ -4353,119 +4422,124 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G89">
-        <v>1.119047E-3</v>
+        <v>1.098225E-3</v>
       </c>
       <c r="H89">
-        <v>2.1094730000000002E-3</v>
+        <v>1.9559769999999998E-3</v>
       </c>
       <c r="I89">
-        <v>2.5397729999999999E-3</v>
+        <v>2.7203459999999998E-3</v>
       </c>
       <c r="J89">
-        <v>1.093403E-3</v>
+        <v>1.4023040000000001E-3</v>
       </c>
       <c r="K89">
-        <v>1.932666E-3</v>
+        <v>1.393743E-3</v>
       </c>
       <c r="L89">
-        <v>2.3107449999999999E-3</v>
+        <v>2.513323E-3</v>
       </c>
       <c r="M89">
-        <v>1.0666619999999999E-3</v>
+        <v>1.623659E-3</v>
       </c>
       <c r="N89">
-        <v>2.0376069999999999E-3</v>
+        <v>1.2105849999999999E-3</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B90">
-        <v>0.70002079010009766</v>
+        <v>0.46568822860717768</v>
       </c>
       <c r="C90">
-        <v>0.69</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D90">
-        <v>1.002079010009771E-2</v>
+        <f>ABS(B90 - C90)</f>
+        <v>3.1177139282234645E-4</v>
       </c>
       <c r="E90">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F90">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G90">
-        <v>1.6380209999999999E-3</v>
+        <v>1.467105E-3</v>
       </c>
       <c r="H90">
-        <v>2.4678149999999999E-3</v>
+        <v>2.4349089999999999E-3</v>
       </c>
       <c r="I90">
-        <v>3.2722110000000001E-3</v>
+        <v>1.128488E-3</v>
       </c>
       <c r="J90">
-        <v>1.9710869999999998E-3</v>
+        <v>2.318868E-3</v>
       </c>
       <c r="K90">
-        <v>1.8765310000000001E-3</v>
+        <v>1.3813899999999999E-3</v>
       </c>
       <c r="L90">
-        <v>3.0321559999999998E-3</v>
+        <v>2.0597969999999999E-3</v>
       </c>
       <c r="M90">
-        <v>2.2478229999999999E-3</v>
+        <v>1.655E-3</v>
       </c>
       <c r="N90">
-        <v>1.67567E-3</v>
+        <v>1.770226E-3</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="B91">
-        <v>0.31844592094421392</v>
+        <v>0.97992789745330811</v>
       </c>
       <c r="C91">
-        <v>0.32500000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="D91">
-        <v>6.5540790557860884E-3</v>
+        <f>ABS(B91 - C91)</f>
+        <v>7.2102546691876768E-5</v>
       </c>
       <c r="E91">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F91">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G91">
-        <v>2.533198E-3</v>
+        <v>1.0324100000000001E-3</v>
       </c>
       <c r="H91">
-        <v>2.0558299999999998E-3</v>
+        <v>1.024257E-3</v>
       </c>
       <c r="I91">
-        <v>2.8734350000000001E-3</v>
+        <v>1.0433160000000001E-3</v>
       </c>
       <c r="J91">
-        <v>1.7488040000000001E-3</v>
+        <v>1.031887E-3</v>
       </c>
       <c r="K91">
-        <v>2.1942260000000001E-3</v>
+        <v>1.060456E-3</v>
       </c>
       <c r="L91">
-        <v>3.0718609999999999E-3</v>
+        <v>1.048174E-3</v>
       </c>
       <c r="M91">
-        <v>1.861903E-3</v>
+        <v>1.058448E-3</v>
       </c>
       <c r="N91">
-        <v>2.065173E-3</v>
+        <v>1.0848120000000001E-3</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N91">
+    <sortCondition descending="1" ref="D1:D91"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/LCNR - CANTILEVER/Cantilever/kfold/kfold_4_euclid/output_kfold4_2.xlsx
+++ b/LCNR - CANTILEVER/Cantilever/kfold/kfold_4_euclid/output_kfold4_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduard.hogea/Documents/Facultate/Internship/explorare/KNN99---LTN/LCNR_LCNC/LCNC-LCNR/LCNR - CANTILEVER/Cantilever/kfold/kfold_4_euclid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A388E4A9-D0D4-3040-AA96-7EBA82B61378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393A4E75-B476-A746-8D5F-1291C9464E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,13 +436,13 @@
   <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="6.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -488,17 +488,17 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.44033163785934448</v>
+        <v>0.3846566379070282</v>
       </c>
       <c r="C2">
-        <v>0.41399999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="D2">
-        <f>ABS(B2 - C2)</f>
-        <v>2.6331637859344503E-2</v>
+        <f>(B2-C2)</f>
+        <v>2.4656637907028212E-2</v>
       </c>
       <c r="E2">
         <v>3.3459710000000001E-3</v>
@@ -507,223 +507,223 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G2">
-        <v>1.633691E-3</v>
+        <v>1.8348290000000001E-3</v>
       </c>
       <c r="H2">
-        <v>2.1613219999999998E-3</v>
+        <v>1.767769E-3</v>
       </c>
       <c r="I2">
-        <v>1.5794279999999999E-3</v>
+        <v>2.1193929999999998E-3</v>
       </c>
       <c r="J2">
-        <v>1.549789E-3</v>
+        <v>1.0449960000000001E-3</v>
       </c>
       <c r="K2">
-        <v>2.3844999999999999E-3</v>
+        <v>2.3279080000000001E-3</v>
       </c>
       <c r="L2">
-        <v>1.056509E-3</v>
+        <v>1.8958689999999999E-3</v>
       </c>
       <c r="M2">
-        <v>2.4823839999999998E-3</v>
+        <v>1.164799E-3</v>
       </c>
       <c r="N2">
-        <v>1.3582620000000001E-3</v>
+        <v>2.5139030000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B3">
-        <v>0.70944821834564209</v>
+        <v>0.19115680456161499</v>
       </c>
       <c r="C3">
-        <v>0.68700000000000006</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="D3">
-        <f>ABS(B3 - C3)</f>
-        <v>2.2448218345642035E-2</v>
+        <f>(B3-C3)</f>
+        <v>1.8156804561615003E-2</v>
       </c>
       <c r="E3">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F3">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G3">
-        <v>1.6475839999999999E-3</v>
+        <v>2.841751E-3</v>
       </c>
       <c r="H3">
-        <v>2.5320579999999998E-3</v>
+        <v>1.167689E-3</v>
       </c>
       <c r="I3">
-        <v>3.287805E-3</v>
+        <v>1.2605520000000001E-3</v>
       </c>
       <c r="J3">
-        <v>1.9615710000000001E-3</v>
+        <v>1.9970029999999998E-3</v>
       </c>
       <c r="K3">
-        <v>1.950182E-3</v>
+        <v>2.3899139999999999E-3</v>
       </c>
       <c r="L3">
-        <v>3.0739600000000001E-3</v>
+        <v>1.9668440000000001E-3</v>
       </c>
       <c r="M3">
-        <v>2.181765E-3</v>
+        <v>1.2718E-3</v>
       </c>
       <c r="N3">
-        <v>1.7558230000000001E-3</v>
+        <v>1.1359790000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>0.88528096675872803</v>
+        <v>0.18022872507572171</v>
       </c>
       <c r="C4">
-        <v>0.90600000000000003</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D4">
-        <f>ABS(B4 - C4)</f>
-        <v>2.0719033241272E-2</v>
+        <f>(B4-C4)</f>
+        <v>1.5228725075721705E-2</v>
       </c>
       <c r="E4">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F4">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G4">
-        <v>1.564616E-3</v>
+        <v>2.8580929999999999E-3</v>
       </c>
       <c r="H4">
-        <v>1.584731E-3</v>
+        <v>1.209878E-3</v>
       </c>
       <c r="I4">
-        <v>1.7115940000000001E-3</v>
+        <v>1.1883099999999999E-3</v>
       </c>
       <c r="J4">
-        <v>1.9422790000000001E-3</v>
+        <v>1.866007E-3</v>
       </c>
       <c r="K4">
-        <v>2.339355E-3</v>
+        <v>2.3615939999999998E-3</v>
       </c>
       <c r="L4">
-        <v>2.7435699999999999E-3</v>
+        <v>2.1057419999999999E-3</v>
       </c>
       <c r="M4">
-        <v>3.0973369999999999E-3</v>
+        <v>1.440357E-3</v>
       </c>
       <c r="N4">
-        <v>3.2779860000000001E-3</v>
+        <v>1.087848E-3</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.30454623699188232</v>
+      </c>
+      <c r="C5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D5">
+        <f>(B5-C5)</f>
+        <v>1.4546236991882344E-2</v>
+      </c>
+      <c r="E5">
+        <v>3.3459710000000001E-3</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="B5">
-        <v>0.48650985956192022</v>
-      </c>
-      <c r="C5">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="D5">
-        <f>ABS(B5 - C5)</f>
-        <v>2.0509859561920196E-2</v>
-      </c>
-      <c r="E5">
-        <v>3.3459710000000001E-3</v>
-      </c>
-      <c r="F5">
-        <v>3.3459710000000001E-3</v>
-      </c>
       <c r="G5">
-        <v>2.0117939999999999E-3</v>
+        <v>1.0985999999999999E-3</v>
       </c>
       <c r="H5">
-        <v>2.979055E-3</v>
+        <v>2.18798E-4</v>
       </c>
       <c r="I5">
-        <v>1.669944E-3</v>
+        <v>1.2629780000000001E-3</v>
       </c>
       <c r="J5">
-        <v>2.8619930000000002E-3</v>
+        <v>6.1846600000000002E-4</v>
       </c>
       <c r="K5">
-        <v>1.9190399999999999E-3</v>
+        <v>5.8366299999999997E-5</v>
       </c>
       <c r="L5">
-        <v>2.6019620000000002E-3</v>
+        <v>1.1553959999999999E-3</v>
       </c>
       <c r="M5">
-        <v>2.1880390000000001E-3</v>
+        <v>1.245997E-3</v>
       </c>
       <c r="N5">
-        <v>2.3108339999999999E-3</v>
+        <v>1.01106E-4</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5796438455581665</v>
+        <v>0.47829499840736389</v>
       </c>
       <c r="C6">
-        <v>0.56000000000000005</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D6">
-        <f>ABS(B6 - C6)</f>
-        <v>1.9643845558166451E-2</v>
+        <f>(B6-C6)</f>
+        <v>1.2294998407363866E-2</v>
       </c>
       <c r="E6">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F6">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1.2515849999999999E-3</v>
+        <v>4.5270199999999998E-4</v>
       </c>
       <c r="H6">
-        <v>2.5402570000000002E-3</v>
+        <v>1.4643919999999999E-3</v>
       </c>
       <c r="I6">
-        <v>1.390084E-3</v>
+        <v>9.4949800000000004E-5</v>
       </c>
       <c r="J6">
-        <v>1.953228E-3</v>
+        <v>1.3362350000000001E-3</v>
       </c>
       <c r="K6">
-        <v>1.8809810000000001E-3</v>
+        <v>3.5916300000000002E-4</v>
       </c>
       <c r="L6">
-        <v>1.429816E-3</v>
+        <v>1.0569010000000001E-3</v>
       </c>
       <c r="M6">
-        <v>2.3488210000000001E-3</v>
+        <v>6.4724200000000002E-4</v>
       </c>
       <c r="N6">
-        <v>1.096372E-3</v>
+        <v>7.4598799999999995E-4</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B7">
-        <v>0.60913282632827759</v>
+        <v>0.2220757603645325</v>
       </c>
       <c r="C7">
-        <v>0.59</v>
+        <v>0.21</v>
       </c>
       <c r="D7">
-        <f>ABS(B7 - C7)</f>
-        <v>1.9132826328277619E-2</v>
+        <f>(B7-C7)</f>
+        <v>1.2075760364532506E-2</v>
       </c>
       <c r="E7">
         <v>3.3459710000000001E-3</v>
@@ -732,313 +732,313 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G7">
-        <v>1.1781649999999999E-3</v>
+        <v>2.5790409999999998E-3</v>
       </c>
       <c r="H7">
-        <v>2.4449290000000002E-3</v>
+        <v>1.0408539999999999E-3</v>
       </c>
       <c r="I7">
-        <v>1.732354E-3</v>
+        <v>1.617837E-3</v>
       </c>
       <c r="J7">
-        <v>1.478207E-3</v>
+        <v>2.3147630000000001E-3</v>
       </c>
       <c r="K7">
-        <v>2.4151239999999998E-3</v>
+        <v>1.9787479999999998E-3</v>
       </c>
       <c r="L7">
-        <v>1.0528790000000001E-3</v>
+        <v>1.167913E-3</v>
       </c>
       <c r="M7">
-        <v>2.447252E-3</v>
+        <v>1.2415379999999999E-3</v>
       </c>
       <c r="N7">
-        <v>1.470903E-3</v>
+        <v>2.1523459999999999E-3</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.92690950632095337</v>
+        <v>0.33686655759811401</v>
       </c>
       <c r="C8">
-        <v>0.94599999999999995</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D8">
-        <f>ABS(B8 - C8)</f>
-        <v>1.9090493679046583E-2</v>
+        <f>(B8-C8)</f>
+        <v>1.1866557598114003E-2</v>
       </c>
       <c r="E8">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F8">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1.56185E-3</v>
+        <v>9.5751199999999999E-4</v>
       </c>
       <c r="H8">
-        <v>1.562903E-3</v>
+        <v>4.7555399999999999E-4</v>
       </c>
       <c r="I8">
-        <v>1.5984009999999999E-3</v>
+        <v>1.290266E-3</v>
       </c>
       <c r="J8">
-        <v>1.628719E-3</v>
+        <v>1.77491E-4</v>
       </c>
       <c r="K8">
-        <v>1.7369200000000001E-3</v>
+        <v>5.9929199999999997E-4</v>
       </c>
       <c r="L8">
-        <v>1.849463E-3</v>
+        <v>1.486862E-3</v>
       </c>
       <c r="M8">
-        <v>2.0295249999999999E-3</v>
+        <v>2.9353099999999998E-4</v>
       </c>
       <c r="N8">
-        <v>2.2618769999999998E-3</v>
+        <v>4.6819500000000003E-4</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.58124232292175293</v>
+        <v>0.95752418041229248</v>
       </c>
       <c r="C9">
-        <v>0.56299999999999994</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D9">
-        <f>ABS(B9 - C9)</f>
-        <v>1.8242322921752985E-2</v>
+        <f>(B9-C9)</f>
+        <v>1.1524180412292528E-2</v>
       </c>
       <c r="E9">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F9">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G9">
-        <v>1.262127E-3</v>
+        <v>1.56185E-3</v>
       </c>
       <c r="H9">
-        <v>2.5639759999999999E-3</v>
+        <v>1.562903E-3</v>
       </c>
       <c r="I9">
-        <v>1.434924E-3</v>
+        <v>1.5984009999999999E-3</v>
       </c>
       <c r="J9">
-        <v>1.9273319999999999E-3</v>
+        <v>1.628719E-3</v>
       </c>
       <c r="K9">
-        <v>1.957482E-3</v>
+        <v>1.7369200000000001E-3</v>
       </c>
       <c r="L9">
-        <v>1.383801E-3</v>
+        <v>1.849463E-3</v>
       </c>
       <c r="M9">
-        <v>2.418641E-3</v>
+        <v>2.0295249999999999E-3</v>
       </c>
       <c r="N9">
-        <v>1.085262E-3</v>
+        <v>2.2618769999999998E-3</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>0.50527101755142212</v>
+        <v>0.35734677314758301</v>
       </c>
       <c r="C10">
-        <v>0.48899999999999999</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D10">
-        <f>ABS(B10 - C10)</f>
-        <v>1.6271017551422129E-2</v>
+        <f>(B10-C10)</f>
+        <v>1.0346773147583033E-2</v>
       </c>
       <c r="E10">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F10">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G10">
-        <v>1.432114E-3</v>
+        <v>2.4180790000000001E-3</v>
       </c>
       <c r="H10">
-        <v>2.5660280000000001E-3</v>
+        <v>2.207709E-3</v>
       </c>
       <c r="I10">
-        <v>1.087658E-3</v>
+        <v>2.740517E-3</v>
       </c>
       <c r="J10">
-        <v>2.5206970000000001E-3</v>
+        <v>1.588157E-3</v>
       </c>
       <c r="K10">
-        <v>1.1316709999999999E-3</v>
+        <v>2.622582E-3</v>
       </c>
       <c r="L10">
-        <v>2.5012340000000002E-3</v>
+        <v>2.7204730000000002E-3</v>
       </c>
       <c r="M10">
-        <v>1.143172E-3</v>
+        <v>1.5712E-3</v>
       </c>
       <c r="N10">
-        <v>2.4674710000000002E-3</v>
+        <v>2.755464E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B11">
-        <v>0.88009470701217651</v>
+        <v>0.2647213339805603</v>
       </c>
       <c r="C11">
-        <v>0.89600000000000002</v>
+        <v>0.255</v>
       </c>
       <c r="D11">
-        <f>ABS(B11 - C11)</f>
-        <v>1.5905292987823505E-2</v>
+        <f>(B11-C11)</f>
+        <v>9.7213339805602983E-3</v>
       </c>
       <c r="E11">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F11">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G11">
-        <v>1.565421E-3</v>
+        <v>2.3155680000000001E-3</v>
       </c>
       <c r="H11">
-        <v>1.594736E-3</v>
+        <v>1.109358E-3</v>
       </c>
       <c r="I11">
-        <v>1.763674E-3</v>
+        <v>2.086517E-3</v>
       </c>
       <c r="J11">
-        <v>2.071828E-3</v>
+        <v>2.135082E-3</v>
       </c>
       <c r="K11">
-        <v>2.5479980000000001E-3</v>
+        <v>1.2071180000000001E-3</v>
       </c>
       <c r="L11">
-        <v>2.9751600000000001E-3</v>
+        <v>1.3703179999999999E-3</v>
       </c>
       <c r="M11">
-        <v>3.2495990000000002E-3</v>
+        <v>2.4096019999999998E-3</v>
       </c>
       <c r="N11">
-        <v>3.2482819999999999E-3</v>
+        <v>2.1918739999999999E-3</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>0.81143122911453247</v>
+        <v>0.95529252290725708</v>
       </c>
       <c r="C12">
-        <v>0.79600000000000004</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D12">
-        <f>ABS(B12 - C12)</f>
-        <v>1.543122911453243E-2</v>
+        <f>(B12-C12)</f>
+        <v>9.292522907257128E-3</v>
       </c>
       <c r="E12">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G12">
-        <v>4.0571300000000001E-6</v>
+        <v>1.019531E-3</v>
       </c>
       <c r="H12">
-        <v>2.809E-4</v>
+        <v>1.0197629999999999E-3</v>
       </c>
       <c r="I12">
-        <v>1.151668E-3</v>
+        <v>1.056193E-3</v>
       </c>
       <c r="J12">
-        <v>1.6976249999999999E-3</v>
+        <v>1.0878190000000001E-3</v>
       </c>
       <c r="K12">
-        <v>1.222943E-3</v>
+        <v>1.1977540000000001E-3</v>
       </c>
       <c r="L12">
-        <v>2.42897E-4</v>
+        <v>1.3124639999999999E-3</v>
       </c>
       <c r="M12">
-        <v>7.6097099999999993E-5</v>
+        <v>1.49512E-3</v>
       </c>
       <c r="N12">
-        <v>8.9457499999999999E-4</v>
+        <v>1.7304359999999999E-3</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B13">
-        <v>0.24806380271911621</v>
+        <v>0.29927444458007812</v>
       </c>
       <c r="C13">
-        <v>0.23300000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D13">
-        <f>ABS(B13 - C13)</f>
-        <v>1.5063802719116198E-2</v>
+        <f>(B13-C13)</f>
+        <v>9.274444580078145E-3</v>
       </c>
       <c r="E13">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F13">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G13">
-        <v>2.9709129999999999E-3</v>
+        <v>2.1372779999999998E-3</v>
       </c>
       <c r="H13">
-        <v>1.5888199999999999E-3</v>
+        <v>1.2575189999999999E-3</v>
       </c>
       <c r="I13">
-        <v>2.4117769999999999E-3</v>
+        <v>2.306368E-3</v>
       </c>
       <c r="J13">
-        <v>2.8346669999999999E-3</v>
+        <v>1.6546309999999999E-3</v>
       </c>
       <c r="K13">
-        <v>2.0726299999999998E-3</v>
+        <v>1.102408E-3</v>
       </c>
       <c r="L13">
-        <v>1.5938759999999999E-3</v>
+        <v>2.2105620000000001E-3</v>
       </c>
       <c r="M13">
-        <v>2.379206E-3</v>
+        <v>2.286649E-3</v>
       </c>
       <c r="N13">
-        <v>3.0511259999999999E-3</v>
+        <v>1.140809E-3</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>0.70119118690490723</v>
+        <v>0.82913351058959961</v>
       </c>
       <c r="C14">
-        <v>0.68700000000000006</v>
+        <v>0.82</v>
       </c>
       <c r="D14">
-        <f>ABS(B14 - C14)</f>
-        <v>1.4191186904907171E-2</v>
+        <f>(B14-C14)</f>
+        <v>9.1335105895996582E-3</v>
       </c>
       <c r="E14">
         <v>3.3459710000000001E-3</v>
@@ -1047,88 +1047,88 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>9.6497599999999996E-5</v>
+        <v>-2.3471700000000002E-6</v>
       </c>
       <c r="H14">
-        <v>9.4294699999999997E-4</v>
+        <v>1.84759E-4</v>
       </c>
       <c r="I14">
-        <v>1.70218E-3</v>
+        <v>8.7353799999999998E-4</v>
       </c>
       <c r="J14">
-        <v>3.6509800000000001E-4</v>
+        <v>1.565571E-3</v>
       </c>
       <c r="K14">
-        <v>3.7229299999999999E-4</v>
+        <v>1.607748E-3</v>
       </c>
       <c r="L14">
-        <v>1.48715E-3</v>
+        <v>8.4265200000000005E-4</v>
       </c>
       <c r="M14">
-        <v>5.9425099999999996E-4</v>
+        <v>9.8060199999999993E-5</v>
       </c>
       <c r="N14">
-        <v>1.81657E-4</v>
+        <v>1.48412E-4</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B15">
-        <v>0.67361801862716675</v>
+        <v>0.47452241182327271</v>
       </c>
       <c r="C15">
-        <v>0.66</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D15">
-        <f>ABS(B15 - C15)</f>
-        <v>1.3618018627166717E-2</v>
+        <f>(B15-C15)</f>
+        <v>8.5224118232726798E-3</v>
       </c>
       <c r="E15">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G15">
-        <v>8.2470099999999995E-5</v>
+        <v>2.0117939999999999E-3</v>
       </c>
       <c r="H15">
-        <v>1.08073E-3</v>
+        <v>2.979055E-3</v>
       </c>
       <c r="I15">
-        <v>1.5107530000000001E-3</v>
+        <v>1.669944E-3</v>
       </c>
       <c r="J15">
-        <v>4.9378400000000001E-5</v>
+        <v>2.8619930000000002E-3</v>
       </c>
       <c r="K15">
-        <v>8.9862700000000004E-4</v>
+        <v>1.9190399999999999E-3</v>
       </c>
       <c r="L15">
-        <v>1.2728990000000001E-3</v>
+        <v>2.6019620000000002E-3</v>
       </c>
       <c r="M15">
-        <v>1.7238600000000001E-5</v>
+        <v>2.1880390000000001E-3</v>
       </c>
       <c r="N15">
-        <v>1.0025940000000001E-3</v>
+        <v>2.3108339999999999E-3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B16">
-        <v>0.888621985912323</v>
+        <v>0.47421485185623169</v>
       </c>
       <c r="C16">
-        <v>0.876</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D16">
-        <f>ABS(B16 - C16)</f>
-        <v>1.2621985912322997E-2</v>
+        <f>(B16-C16)</f>
+        <v>8.2148518562316641E-3</v>
       </c>
       <c r="E16">
         <v>3.3459710000000001E-3</v>
@@ -1137,133 +1137,133 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G16">
-        <v>1.038473E-3</v>
+        <v>1.467105E-3</v>
       </c>
       <c r="H16">
-        <v>1.0938759999999999E-3</v>
+        <v>2.4349089999999999E-3</v>
       </c>
       <c r="I16">
-        <v>1.3732289999999999E-3</v>
+        <v>1.128488E-3</v>
       </c>
       <c r="J16">
-        <v>1.8495300000000001E-3</v>
+        <v>2.318868E-3</v>
       </c>
       <c r="K16">
-        <v>2.4251699999999999E-3</v>
+        <v>1.3813899999999999E-3</v>
       </c>
       <c r="L16">
-        <v>2.742005E-3</v>
+        <v>2.0597969999999999E-3</v>
       </c>
       <c r="M16">
-        <v>2.66804E-3</v>
+        <v>1.655E-3</v>
       </c>
       <c r="N16">
-        <v>2.2191369999999999E-3</v>
+        <v>1.770226E-3</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B17">
-        <v>0.18492753803730011</v>
+        <v>0.24094113707542419</v>
       </c>
       <c r="C17">
-        <v>0.17299999999999999</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="D17">
-        <f>ABS(B17 - C17)</f>
-        <v>1.1927538037300123E-2</v>
+        <f>(B17-C17)</f>
+        <v>7.9411370754241817E-3</v>
       </c>
       <c r="E17">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F17">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G17">
-        <v>2.841751E-3</v>
+        <v>2.9709129999999999E-3</v>
       </c>
       <c r="H17">
-        <v>1.167689E-3</v>
+        <v>1.5888199999999999E-3</v>
       </c>
       <c r="I17">
-        <v>1.2605520000000001E-3</v>
+        <v>2.4117769999999999E-3</v>
       </c>
       <c r="J17">
-        <v>1.9970029999999998E-3</v>
+        <v>2.8346669999999999E-3</v>
       </c>
       <c r="K17">
-        <v>2.3899139999999999E-3</v>
+        <v>2.0726299999999998E-3</v>
       </c>
       <c r="L17">
-        <v>1.9668440000000001E-3</v>
+        <v>1.5938759999999999E-3</v>
       </c>
       <c r="M17">
-        <v>1.2718E-3</v>
+        <v>2.379206E-3</v>
       </c>
       <c r="N17">
-        <v>1.1359790000000001E-3</v>
+        <v>3.0511259999999999E-3</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B18">
-        <v>0.86433935165405273</v>
+        <v>0.24068018794059751</v>
       </c>
       <c r="C18">
-        <v>0.876</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="D18">
-        <f>ABS(B18 - C18)</f>
-        <v>1.1660648345947267E-2</v>
+        <f>(B18-C18)</f>
+        <v>7.6801879405974938E-3</v>
       </c>
       <c r="E18">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F18">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G18">
-        <v>1.569076E-3</v>
+        <v>2.4318120000000002E-3</v>
       </c>
       <c r="H18">
-        <v>1.6236040000000001E-3</v>
+        <v>1.0592189999999999E-3</v>
       </c>
       <c r="I18">
-        <v>1.9055980000000001E-3</v>
+        <v>1.8789340000000001E-3</v>
       </c>
       <c r="J18">
-        <v>2.388481E-3</v>
+        <v>2.3000989999999999E-3</v>
       </c>
       <c r="K18">
-        <v>2.9736599999999999E-3</v>
+        <v>1.555706E-3</v>
       </c>
       <c r="L18">
-        <v>3.2985829999999999E-3</v>
+        <v>1.0765880000000001E-3</v>
       </c>
       <c r="M18">
-        <v>3.2256849999999998E-3</v>
+        <v>1.8633199999999999E-3</v>
       </c>
       <c r="N18">
-        <v>2.7680389999999999E-3</v>
+        <v>2.5443660000000002E-3</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B19">
-        <v>0.83133471012115479</v>
+        <v>6.3676714897155762E-2</v>
       </c>
       <c r="C19">
-        <v>0.82</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D19">
-        <f>ABS(B19 - C19)</f>
-        <v>1.1334710121154834E-2</v>
+        <f>(B19-C19)</f>
+        <v>7.6767148971557606E-3</v>
       </c>
       <c r="E19">
         <v>3.3459710000000001E-3</v>
@@ -1272,43 +1272,43 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-2.3471700000000002E-6</v>
+        <v>2.5521760000000002E-3</v>
       </c>
       <c r="H19">
-        <v>1.84759E-4</v>
+        <v>1.6138350000000001E-3</v>
       </c>
       <c r="I19">
-        <v>8.7353799999999998E-4</v>
+        <v>9.7601999999999997E-4</v>
       </c>
       <c r="J19">
-        <v>1.565571E-3</v>
+        <v>4.6964400000000002E-4</v>
       </c>
       <c r="K19">
-        <v>1.607748E-3</v>
+        <v>1.7945099999999999E-4</v>
       </c>
       <c r="L19">
-        <v>8.4265200000000005E-4</v>
+        <v>1.15464E-5</v>
       </c>
       <c r="M19">
-        <v>9.8060199999999993E-5</v>
+        <v>9.9827899999999997E-6</v>
       </c>
       <c r="N19">
-        <v>1.48412E-4</v>
+        <v>1.4078800000000001E-4</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="B20">
-        <v>4.5116007328033447E-2</v>
+        <v>0.1726028919219971</v>
       </c>
       <c r="C20">
-        <v>5.6000000000000001E-2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D20">
-        <f>ABS(B20 - C20)</f>
-        <v>1.0883992671966554E-2</v>
+        <f>(B20-C20)</f>
+        <v>7.6028919219970903E-3</v>
       </c>
       <c r="E20">
         <v>3.3459710000000001E-3</v>
@@ -1317,178 +1317,178 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.5521760000000002E-3</v>
+        <v>1.8177060000000001E-3</v>
       </c>
       <c r="H20">
-        <v>1.6138350000000001E-3</v>
+        <v>1.6078500000000001E-4</v>
       </c>
       <c r="I20">
-        <v>9.7601999999999997E-4</v>
+        <v>1.35143E-4</v>
       </c>
       <c r="J20">
-        <v>4.6964400000000002E-4</v>
+        <v>8.0365099999999995E-4</v>
       </c>
       <c r="K20">
-        <v>1.7945099999999999E-4</v>
+        <v>1.3088799999999999E-3</v>
       </c>
       <c r="L20">
-        <v>1.15464E-5</v>
+        <v>1.0588069999999999E-3</v>
       </c>
       <c r="M20">
-        <v>9.9827899999999997E-6</v>
+        <v>3.9642200000000001E-4</v>
       </c>
       <c r="N20">
-        <v>1.4078800000000001E-4</v>
+        <v>3.0571100000000003E-5</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.52671980857849121</v>
+        <v>0.33226823806762701</v>
       </c>
       <c r="C21">
-        <v>0.51600000000000001</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D21">
-        <f>ABS(B21 - C21)</f>
-        <v>1.0719808578491197E-2</v>
+        <f>(B21-C21)</f>
+        <v>7.2682380676269975E-3</v>
       </c>
       <c r="E21">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G21">
-        <v>3.06712E-4</v>
+        <v>1.9903410000000001E-3</v>
       </c>
       <c r="H21">
-        <v>1.517025E-3</v>
+        <v>1.507539E-3</v>
       </c>
       <c r="I21">
-        <v>3.7748199999999999E-5</v>
+        <v>2.3218290000000001E-3</v>
       </c>
       <c r="J21">
-        <v>1.420466E-3</v>
+        <v>1.217103E-3</v>
       </c>
       <c r="K21">
-        <v>8.2420200000000001E-5</v>
+        <v>1.6443670000000001E-3</v>
       </c>
       <c r="L21">
-        <v>1.365228E-3</v>
+        <v>2.518808E-3</v>
       </c>
       <c r="M21">
-        <v>1.4023400000000001E-4</v>
+        <v>1.331622E-3</v>
       </c>
       <c r="N21">
-        <v>1.292699E-3</v>
+        <v>1.5189820000000001E-3</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>0.70004904270172119</v>
+        <v>0.76660364866256714</v>
       </c>
       <c r="C22">
-        <v>0.69</v>
+        <v>0.76</v>
       </c>
       <c r="D22">
-        <f>ABS(B22 - C22)</f>
-        <v>1.0049042701721245E-2</v>
+        <f>(B22-C22)</f>
+        <v>6.6036486625671298E-3</v>
       </c>
       <c r="E22">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G22">
-        <v>5.5627700000000003E-5</v>
+        <v>1.06825E-3</v>
       </c>
       <c r="H22">
-        <v>8.8510800000000001E-4</v>
+        <v>1.525761E-3</v>
       </c>
       <c r="I22">
-        <v>1.6819879999999999E-3</v>
+        <v>2.5597710000000002E-3</v>
       </c>
       <c r="J22">
-        <v>3.83397E-4</v>
+        <v>2.5776330000000002E-3</v>
       </c>
       <c r="K22">
-        <v>2.968E-4</v>
+        <v>1.4979430000000001E-3</v>
       </c>
       <c r="L22">
-        <v>1.4434370000000001E-3</v>
+        <v>1.1189640000000001E-3</v>
       </c>
       <c r="M22">
-        <v>6.5412999999999995E-4</v>
+        <v>2.0728909999999999E-3</v>
       </c>
       <c r="N22">
-        <v>9.7124800000000002E-5</v>
+        <v>2.523707E-3</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B23">
-        <v>0.70002079010009766</v>
+        <v>6.256556510925293E-2</v>
       </c>
       <c r="C23">
-        <v>0.69</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D23">
-        <f>ABS(B23 - C23)</f>
-        <v>1.002079010009771E-2</v>
+        <f>(B23-C23)</f>
+        <v>6.5655651092529285E-3</v>
       </c>
       <c r="E23">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F23">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G23">
-        <v>1.6380209999999999E-3</v>
+        <v>3.613462E-3</v>
       </c>
       <c r="H23">
-        <v>2.4678149999999999E-3</v>
+        <v>2.6655749999999999E-3</v>
       </c>
       <c r="I23">
-        <v>3.2722110000000001E-3</v>
+        <v>2.0217619999999999E-3</v>
       </c>
       <c r="J23">
-        <v>1.9710869999999998E-3</v>
+        <v>1.5136590000000001E-3</v>
       </c>
       <c r="K23">
-        <v>1.8765310000000001E-3</v>
+        <v>1.2257920000000001E-3</v>
       </c>
       <c r="L23">
-        <v>3.0321559999999998E-3</v>
+        <v>1.063617E-3</v>
       </c>
       <c r="M23">
-        <v>2.2478229999999999E-3</v>
+        <v>1.0700180000000001E-3</v>
       </c>
       <c r="N23">
-        <v>1.67567E-3</v>
+        <v>1.209569E-3</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B24">
-        <v>6.3234955072402954E-2</v>
+        <v>0.69348287582397461</v>
       </c>
       <c r="C24">
-        <v>7.2999999999999995E-2</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="D24">
-        <f>ABS(B24 - C24)</f>
-        <v>9.7650449275970413E-3</v>
+        <f>(B24-C24)</f>
+        <v>6.4828758239745543E-3</v>
       </c>
       <c r="E24">
         <v>3.3459710000000001E-3</v>
@@ -1497,223 +1497,223 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G24">
-        <v>4.0474409999999997E-3</v>
+        <v>1.6475839999999999E-3</v>
       </c>
       <c r="H24">
-        <v>2.8590080000000001E-3</v>
+        <v>2.5320579999999998E-3</v>
       </c>
       <c r="I24">
-        <v>2.1696469999999998E-3</v>
+        <v>3.287805E-3</v>
       </c>
       <c r="J24">
-        <v>1.7271089999999999E-3</v>
+        <v>1.9615710000000001E-3</v>
       </c>
       <c r="K24">
-        <v>1.6079530000000001E-3</v>
+        <v>1.950182E-3</v>
       </c>
       <c r="L24">
-        <v>1.6935590000000001E-3</v>
+        <v>3.0739600000000001E-3</v>
       </c>
       <c r="M24">
-        <v>1.94534E-3</v>
+        <v>2.181765E-3</v>
       </c>
       <c r="N24">
-        <v>2.2822139999999999E-3</v>
+        <v>1.7558230000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B25">
-        <v>0.7691580057144165</v>
+        <v>0.56636762619018555</v>
       </c>
       <c r="C25">
-        <v>0.76</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D25">
-        <f>ABS(B25 - C25)</f>
-        <v>9.158005714416495E-3</v>
+        <f>(B25-C25)</f>
+        <v>6.3676261901854936E-3</v>
       </c>
       <c r="E25">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F25">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G25">
-        <v>1.06825E-3</v>
+        <v>1.794316E-3</v>
       </c>
       <c r="H25">
-        <v>1.525761E-3</v>
+        <v>3.083611E-3</v>
       </c>
       <c r="I25">
-        <v>2.5597710000000002E-3</v>
+        <v>1.9338389999999999E-3</v>
       </c>
       <c r="J25">
-        <v>2.5776330000000002E-3</v>
+        <v>2.4929510000000002E-3</v>
       </c>
       <c r="K25">
-        <v>1.4979430000000001E-3</v>
+        <v>2.4239840000000001E-3</v>
       </c>
       <c r="L25">
-        <v>1.1189640000000001E-3</v>
+        <v>1.9660060000000002E-3</v>
       </c>
       <c r="M25">
-        <v>2.0728909999999999E-3</v>
+        <v>2.8892409999999999E-3</v>
       </c>
       <c r="N25">
-        <v>2.523707E-3</v>
+        <v>1.6305709999999999E-3</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>0.45717814564704901</v>
+        <v>0.21580749750137329</v>
       </c>
       <c r="C26">
-        <v>0.46600000000000003</v>
+        <v>0.21</v>
       </c>
       <c r="D26">
-        <f>ABS(B26 - C26)</f>
-        <v>8.8218543529510196E-3</v>
+        <f>(B26-C26)</f>
+        <v>5.8074975013732988E-3</v>
       </c>
       <c r="E26">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G26">
-        <v>4.5270199999999998E-4</v>
+        <v>3.1081199999999998E-3</v>
       </c>
       <c r="H26">
-        <v>1.4643919999999999E-3</v>
+        <v>1.570281E-3</v>
       </c>
       <c r="I26">
-        <v>9.4949800000000004E-5</v>
+        <v>2.1574239999999998E-3</v>
       </c>
       <c r="J26">
-        <v>1.3362350000000001E-3</v>
+        <v>2.8549840000000001E-3</v>
       </c>
       <c r="K26">
-        <v>3.5916300000000002E-4</v>
+        <v>2.5081700000000001E-3</v>
       </c>
       <c r="L26">
-        <v>1.0569010000000001E-3</v>
+        <v>1.69221E-3</v>
       </c>
       <c r="M26">
-        <v>6.4724200000000002E-4</v>
+        <v>1.7756779999999999E-3</v>
       </c>
       <c r="N26">
-        <v>7.4598799999999995E-4</v>
+        <v>2.6955519999999999E-3</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B27">
-        <v>8.1680417060852051E-2</v>
+        <v>8.6596071720123291E-2</v>
       </c>
       <c r="C27">
-        <v>7.2999999999999995E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D27">
-        <f>ABS(B27 - C27)</f>
-        <v>8.6804170608520553E-3</v>
+        <f>(B27-C27)</f>
+        <v>5.5960717201232885E-3</v>
       </c>
       <c r="E27">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F27">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G27">
-        <v>3.5349230000000001E-3</v>
+        <v>3.9732320000000002E-3</v>
       </c>
       <c r="H27">
-        <v>2.3394620000000001E-3</v>
+        <v>2.711003E-3</v>
       </c>
       <c r="I27">
-        <v>1.6453699999999999E-3</v>
+        <v>2.0064670000000001E-3</v>
       </c>
       <c r="J27">
-        <v>1.1973330000000001E-3</v>
+        <v>1.6129510000000001E-3</v>
       </c>
       <c r="K27">
-        <v>1.0774059999999999E-3</v>
+        <v>1.5968320000000001E-3</v>
       </c>
       <c r="L27">
-        <v>1.1487859999999999E-3</v>
+        <v>1.796434E-3</v>
       </c>
       <c r="M27">
-        <v>1.410981E-3</v>
+        <v>2.1186899999999999E-3</v>
       </c>
       <c r="N27">
-        <v>1.754149E-3</v>
+        <v>2.487249E-3</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6513332724571228</v>
+        <v>0.36549991369247442</v>
       </c>
       <c r="C28">
-        <v>0.66</v>
+        <v>0.36</v>
       </c>
       <c r="D28">
-        <f>ABS(B28 - C28)</f>
-        <v>8.6667275428772284E-3</v>
+        <f>(B28-C28)</f>
+        <v>5.4999136924744341E-3</v>
       </c>
       <c r="E28">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F28">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G28">
-        <v>1.119047E-3</v>
+        <v>2.3616650000000002E-3</v>
       </c>
       <c r="H28">
-        <v>2.1094730000000002E-3</v>
+        <v>2.2930289999999998E-3</v>
       </c>
       <c r="I28">
-        <v>2.5397729999999999E-3</v>
+        <v>2.6382279999999998E-3</v>
       </c>
       <c r="J28">
-        <v>1.093403E-3</v>
+        <v>1.574893E-3</v>
       </c>
       <c r="K28">
-        <v>1.932666E-3</v>
+        <v>2.8472739999999999E-3</v>
       </c>
       <c r="L28">
-        <v>2.3107449999999999E-3</v>
+        <v>2.411519E-3</v>
       </c>
       <c r="M28">
-        <v>1.0666619999999999E-3</v>
+        <v>1.693045E-3</v>
       </c>
       <c r="N28">
-        <v>2.0376069999999999E-3</v>
+        <v>3.026936E-3</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B29">
-        <v>0.35565876960754389</v>
+        <v>0.56845211982727051</v>
       </c>
       <c r="C29">
-        <v>0.34699999999999998</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="D29">
-        <f>ABS(B29 - C29)</f>
-        <v>8.6587696075439147E-3</v>
+        <f>(B29-C29)</f>
+        <v>5.4521198272705629E-3</v>
       </c>
       <c r="E29">
         <v>3.3459710000000001E-3</v>
@@ -1722,43 +1722,43 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G29">
-        <v>2.4180790000000001E-3</v>
+        <v>1.7899929999999999E-3</v>
       </c>
       <c r="H29">
-        <v>2.207709E-3</v>
+        <v>3.0682000000000001E-3</v>
       </c>
       <c r="I29">
-        <v>2.740517E-3</v>
+        <v>1.9587599999999999E-3</v>
       </c>
       <c r="J29">
-        <v>1.588157E-3</v>
+        <v>2.4381730000000001E-3</v>
       </c>
       <c r="K29">
-        <v>2.622582E-3</v>
+        <v>2.4691549999999998E-3</v>
       </c>
       <c r="L29">
-        <v>2.7204730000000002E-3</v>
+        <v>1.8905180000000001E-3</v>
       </c>
       <c r="M29">
-        <v>1.5712E-3</v>
+        <v>2.9148669999999998E-3</v>
       </c>
       <c r="N29">
-        <v>2.755464E-3</v>
+        <v>1.592869E-3</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B30">
-        <v>0.66865217685699463</v>
+        <v>0.29515615105628967</v>
       </c>
       <c r="C30">
-        <v>0.66</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D30">
-        <f>ABS(B30 - C30)</f>
-        <v>8.6521768569945978E-3</v>
+        <f>(B30-C30)</f>
+        <v>5.1561510562896928E-3</v>
       </c>
       <c r="E30">
         <v>3.3459710000000001E-3</v>
@@ -1767,43 +1767,43 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G30">
-        <v>1.663103E-3</v>
+        <v>2.6702729999999999E-3</v>
       </c>
       <c r="H30">
-        <v>2.65468E-3</v>
+        <v>1.800935E-3</v>
       </c>
       <c r="I30">
-        <v>3.0884480000000001E-3</v>
+        <v>2.8387410000000001E-3</v>
       </c>
       <c r="J30">
-        <v>1.633032E-3</v>
+        <v>2.1886520000000001E-3</v>
       </c>
       <c r="K30">
-        <v>2.4720319999999999E-3</v>
+        <v>1.6451969999999999E-3</v>
       </c>
       <c r="L30">
-        <v>2.8564049999999998E-3</v>
+        <v>2.7441560000000002E-3</v>
       </c>
       <c r="M30">
-        <v>1.602175E-3</v>
+        <v>2.8097460000000001E-3</v>
       </c>
       <c r="N30">
-        <v>2.5717499999999998E-3</v>
+        <v>1.674551E-3</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="B31">
-        <v>0.49698251485824579</v>
+        <v>0.76490569114685059</v>
       </c>
       <c r="C31">
-        <v>0.48899999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="D31">
-        <f>ABS(B31 - C31)</f>
-        <v>7.9825148582458039E-3</v>
+        <f>(B31-C31)</f>
+        <v>4.9056911468505771E-3</v>
       </c>
       <c r="E31">
         <v>3.3459710000000001E-3</v>
@@ -1812,43 +1812,43 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G31">
-        <v>1.9495929999999999E-3</v>
+        <v>1.594778E-3</v>
       </c>
       <c r="H31">
-        <v>3.0502649999999999E-3</v>
+        <v>2.0362259999999999E-3</v>
       </c>
       <c r="I31">
-        <v>1.5916120000000001E-3</v>
+        <v>3.0788590000000002E-3</v>
       </c>
       <c r="J31">
-        <v>3.0231530000000002E-3</v>
+        <v>3.0873239999999998E-3</v>
       </c>
       <c r="K31">
-        <v>1.6279949999999999E-3</v>
+        <v>2.015354E-3</v>
       </c>
       <c r="L31">
-        <v>2.987787E-3</v>
+        <v>1.643018E-3</v>
       </c>
       <c r="M31">
-        <v>1.640215E-3</v>
+        <v>2.5868190000000002E-3</v>
       </c>
       <c r="N31">
-        <v>2.9416260000000001E-3</v>
+        <v>3.0290629999999998E-3</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>0.2179459631443024</v>
+        <v>0.1776811480522156</v>
       </c>
       <c r="C32">
-        <v>0.21</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="D32">
-        <f>ABS(B32 - C32)</f>
-        <v>7.9459631443024037E-3</v>
+        <f>(B32-C32)</f>
+        <v>4.6811480522156168E-3</v>
       </c>
       <c r="E32">
         <v>3.3459710000000001E-3</v>
@@ -1857,43 +1857,43 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G32">
-        <v>3.1081199999999998E-3</v>
+        <v>3.3140079999999998E-3</v>
       </c>
       <c r="H32">
-        <v>1.570281E-3</v>
+        <v>1.6711880000000001E-3</v>
       </c>
       <c r="I32">
-        <v>2.1574239999999998E-3</v>
+        <v>1.7687390000000001E-3</v>
       </c>
       <c r="J32">
-        <v>2.8549840000000001E-3</v>
+        <v>2.4913130000000002E-3</v>
       </c>
       <c r="K32">
-        <v>2.5081700000000001E-3</v>
+        <v>2.873156E-3</v>
       </c>
       <c r="L32">
-        <v>1.69221E-3</v>
+        <v>2.4500250000000002E-3</v>
       </c>
       <c r="M32">
-        <v>1.7756779999999999E-3</v>
+        <v>1.764222E-3</v>
       </c>
       <c r="N32">
-        <v>2.6955519999999999E-3</v>
+        <v>1.62728E-3</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B33">
-        <v>0.1727193146944046</v>
+        <v>0.16958120465278631</v>
       </c>
       <c r="C33">
         <v>0.16500000000000001</v>
       </c>
       <c r="D33">
-        <f>ABS(B33 - C33)</f>
-        <v>7.7193146944045943E-3</v>
+        <f>(B33-C33)</f>
+        <v>4.5812046527863026E-3</v>
       </c>
       <c r="E33">
         <v>3.3459710000000001E-3</v>
@@ -1928,62 +1928,62 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B34">
-        <v>0.2174638360738754</v>
+        <v>0.82445979118347168</v>
       </c>
       <c r="C34">
-        <v>0.21</v>
+        <v>0.82</v>
       </c>
       <c r="D34">
-        <f>ABS(B34 - C34)</f>
-        <v>7.4638360738754073E-3</v>
+        <f>(B34-C34)</f>
+        <v>4.4597911834717285E-3</v>
       </c>
       <c r="E34">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G34">
-        <v>1.562978E-3</v>
+        <v>1.0560680000000001E-3</v>
       </c>
       <c r="H34">
-        <v>-8.9638599999999996E-6</v>
+        <v>1.2435230000000001E-3</v>
       </c>
       <c r="I34">
-        <v>5.8158099999999996E-4</v>
+        <v>1.9379849999999999E-3</v>
       </c>
       <c r="J34">
-        <v>1.2982650000000001E-3</v>
+        <v>2.635217E-3</v>
       </c>
       <c r="K34">
-        <v>9.5641400000000005E-4</v>
+        <v>2.6768999999999999E-3</v>
       </c>
       <c r="L34">
-        <v>1.20505E-4</v>
+        <v>1.906942E-3</v>
       </c>
       <c r="M34">
-        <v>1.8397699999999999E-4</v>
+        <v>1.1586019999999999E-3</v>
       </c>
       <c r="N34">
-        <v>1.115752E-3</v>
+        <v>1.2090390000000001E-3</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B35">
-        <v>0.18045023083686829</v>
+        <v>0.6944584846496582</v>
       </c>
       <c r="C35">
-        <v>0.17299999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="D35">
-        <f>ABS(B35 - C35)</f>
-        <v>7.450230836868299E-3</v>
+        <f>(B35-C35)</f>
+        <v>4.4584846496582564E-3</v>
       </c>
       <c r="E35">
         <v>3.3459710000000001E-3</v>
@@ -1992,43 +1992,43 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G35">
-        <v>3.3140079999999998E-3</v>
+        <v>1.6380209999999999E-3</v>
       </c>
       <c r="H35">
-        <v>1.6711880000000001E-3</v>
+        <v>2.4678149999999999E-3</v>
       </c>
       <c r="I35">
-        <v>1.7687390000000001E-3</v>
+        <v>3.2722110000000001E-3</v>
       </c>
       <c r="J35">
-        <v>2.4913130000000002E-3</v>
+        <v>1.9710869999999998E-3</v>
       </c>
       <c r="K35">
-        <v>2.873156E-3</v>
+        <v>1.8765310000000001E-3</v>
       </c>
       <c r="L35">
-        <v>2.4500250000000002E-3</v>
+        <v>3.0321559999999998E-3</v>
       </c>
       <c r="M35">
-        <v>1.764222E-3</v>
+        <v>2.2478229999999999E-3</v>
       </c>
       <c r="N35">
-        <v>1.62728E-3</v>
+        <v>1.67567E-3</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B36">
-        <v>0.68277519941329956</v>
+        <v>0.41828992962837219</v>
       </c>
       <c r="C36">
-        <v>0.69</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D36">
-        <f>ABS(B36 - C36)</f>
-        <v>7.2248005867003862E-3</v>
+        <f>(B36-C36)</f>
+        <v>4.2899296283722133E-3</v>
       </c>
       <c r="E36">
         <v>3.3459710000000001E-3</v>
@@ -2037,43 +2037,43 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G36">
-        <v>1.1306249999999999E-3</v>
+        <v>1.633691E-3</v>
       </c>
       <c r="H36">
-        <v>1.951508E-3</v>
+        <v>2.1613219999999998E-3</v>
       </c>
       <c r="I36">
-        <v>2.748178E-3</v>
+        <v>1.5794279999999999E-3</v>
       </c>
       <c r="J36">
-        <v>1.447844E-3</v>
+        <v>1.549789E-3</v>
       </c>
       <c r="K36">
-        <v>1.357434E-3</v>
+        <v>2.3844999999999999E-3</v>
       </c>
       <c r="L36">
-        <v>2.5125260000000002E-3</v>
+        <v>1.056509E-3</v>
       </c>
       <c r="M36">
-        <v>1.7253450000000001E-3</v>
+        <v>2.4823839999999998E-3</v>
       </c>
       <c r="N36">
-        <v>1.1597770000000001E-3</v>
+        <v>1.3582620000000001E-3</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="B37">
-        <v>0.49601823091506958</v>
+        <v>0.36415106058120728</v>
       </c>
       <c r="C37">
-        <v>0.48899999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="D37">
-        <f>ABS(B37 - C37)</f>
-        <v>7.0182309150695898E-3</v>
+        <f>(B37-C37)</f>
+        <v>4.1510605812072887E-3</v>
       </c>
       <c r="E37">
         <v>3.3459710000000001E-3</v>
@@ -2082,133 +2082,133 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>3.7458400000000002E-4</v>
+        <v>7.9372700000000004E-4</v>
       </c>
       <c r="H37">
-        <v>1.4718699999999999E-3</v>
+        <v>7.17759E-4</v>
       </c>
       <c r="I37">
-        <v>1.8550300000000001E-5</v>
+        <v>1.0738080000000001E-3</v>
       </c>
       <c r="J37">
-        <v>1.4307530000000001E-3</v>
+        <v>-8.0622599999999996E-6</v>
       </c>
       <c r="K37">
-        <v>5.1217900000000003E-5</v>
+        <v>1.2716660000000001E-3</v>
       </c>
       <c r="L37">
-        <v>1.392512E-3</v>
+        <v>8.5092999999999996E-4</v>
       </c>
       <c r="M37">
-        <v>4.8810000000000002E-5</v>
+        <v>1.03205E-4</v>
       </c>
       <c r="N37">
-        <v>1.34442E-3</v>
+        <v>1.4567880000000001E-3</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="B38">
-        <v>4.9015730619430542E-2</v>
+        <v>0.49309739470481873</v>
       </c>
       <c r="C38">
-        <v>5.6000000000000001E-2</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D38">
-        <f>ABS(B38 - C38)</f>
-        <v>6.9842693805694592E-3</v>
+        <f>(B38-C38)</f>
+        <v>4.0973947048187354E-3</v>
       </c>
       <c r="E38">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F38">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>4.1304820000000004E-3</v>
+        <v>3.7458400000000002E-4</v>
       </c>
       <c r="H38">
-        <v>3.1811719999999999E-3</v>
+        <v>1.4718699999999999E-3</v>
       </c>
       <c r="I38">
-        <v>2.5392909999999999E-3</v>
+        <v>1.8550300000000001E-5</v>
       </c>
       <c r="J38">
-        <v>2.0338019999999999E-3</v>
+        <v>1.4307530000000001E-3</v>
       </c>
       <c r="K38">
-        <v>1.748941E-3</v>
+        <v>5.1217900000000003E-5</v>
       </c>
       <c r="L38">
-        <v>1.5899169999999999E-3</v>
+        <v>1.392512E-3</v>
       </c>
       <c r="M38">
-        <v>1.599156E-3</v>
+        <v>4.8810000000000002E-5</v>
       </c>
       <c r="N38">
-        <v>1.740716E-3</v>
+        <v>1.34442E-3</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B39">
-        <v>0.59697616100311279</v>
+        <v>0.81392359733581543</v>
       </c>
       <c r="C39">
-        <v>0.59</v>
+        <v>0.81</v>
       </c>
       <c r="D39">
-        <f>ABS(B39 - C39)</f>
-        <v>6.9761610031128241E-3</v>
+        <f>(B39-C39)</f>
+        <v>3.9235973358153764E-3</v>
       </c>
       <c r="E39">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F39">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G39">
-        <v>1.7520400000000001E-3</v>
+        <v>1.0481679999999999E-3</v>
       </c>
       <c r="H39">
-        <v>3.0341410000000002E-3</v>
+        <v>1.2696890000000001E-3</v>
       </c>
       <c r="I39">
-        <v>2.2960440000000001E-3</v>
+        <v>2.0332390000000001E-3</v>
       </c>
       <c r="J39">
-        <v>2.022378E-3</v>
+        <v>2.6844239999999999E-3</v>
       </c>
       <c r="K39">
-        <v>2.9734919999999999E-3</v>
+        <v>2.5233959999999998E-3</v>
       </c>
       <c r="L39">
-        <v>1.579099E-3</v>
+        <v>1.624833E-3</v>
       </c>
       <c r="M39">
-        <v>2.9927199999999999E-3</v>
+        <v>1.0580870000000001E-3</v>
       </c>
       <c r="N39">
-        <v>2.005256E-3</v>
+        <v>1.464782E-3</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="B40">
-        <v>0.26180598139762878</v>
+        <v>0.87982940673828125</v>
       </c>
       <c r="C40">
-        <v>0.255</v>
+        <v>0.876</v>
       </c>
       <c r="D40">
-        <f>ABS(B40 - C40)</f>
-        <v>6.8059813976287797E-3</v>
+        <f>(B40-C40)</f>
+        <v>3.8294067382812491E-3</v>
       </c>
       <c r="E40">
         <v>3.3459710000000001E-3</v>
@@ -2217,178 +2217,178 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G40">
-        <v>2.8423860000000001E-3</v>
+        <v>1.569076E-3</v>
       </c>
       <c r="H40">
-        <v>1.636719E-3</v>
+        <v>1.6236040000000001E-3</v>
       </c>
       <c r="I40">
-        <v>2.6113479999999999E-3</v>
+        <v>1.9055980000000001E-3</v>
       </c>
       <c r="J40">
-        <v>2.6560860000000002E-3</v>
+        <v>2.388481E-3</v>
       </c>
       <c r="K40">
-        <v>1.7215279999999999E-3</v>
+        <v>2.9736599999999999E-3</v>
       </c>
       <c r="L40">
-        <v>1.847359E-3</v>
+        <v>3.2985829999999999E-3</v>
       </c>
       <c r="M40">
-        <v>2.854119E-3</v>
+        <v>3.2256849999999998E-3</v>
       </c>
       <c r="N40">
-        <v>2.6503630000000002E-3</v>
+        <v>2.7680389999999999E-3</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>0.82676082849502563</v>
+        <v>0.1236706078052521</v>
       </c>
       <c r="C41">
-        <v>0.82</v>
+        <v>0.12</v>
       </c>
       <c r="D41">
-        <f>ABS(B41 - C41)</f>
-        <v>6.7608284950256836E-3</v>
+        <f>(B41-C41)</f>
+        <v>3.6706078052521074E-3</v>
       </c>
       <c r="E41">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F41">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>1.0560680000000001E-3</v>
+        <v>2.1137869999999998E-3</v>
       </c>
       <c r="H41">
-        <v>1.2435230000000001E-3</v>
+        <v>5.6239799999999998E-4</v>
       </c>
       <c r="I41">
-        <v>1.9379849999999999E-3</v>
+        <v>3.0508999999999999E-5</v>
       </c>
       <c r="J41">
-        <v>2.635217E-3</v>
+        <v>1.2902399999999999E-4</v>
       </c>
       <c r="K41">
-        <v>2.6768999999999999E-3</v>
+        <v>6.4474900000000002E-4</v>
       </c>
       <c r="L41">
-        <v>1.906942E-3</v>
+        <v>1.11491E-3</v>
       </c>
       <c r="M41">
-        <v>1.1586019999999999E-3</v>
+        <v>1.2988819999999999E-3</v>
       </c>
       <c r="N41">
-        <v>1.2090390000000001E-3</v>
+        <v>1.0971329999999999E-3</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B42">
-        <v>0.80262047052383423</v>
+        <v>0.32863166928291321</v>
       </c>
       <c r="C42">
-        <v>0.79600000000000004</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D42">
-        <f>ABS(B42 - C42)</f>
-        <v>6.6204705238341877E-3</v>
+        <f>(B42-C42)</f>
+        <v>3.6316692829131969E-3</v>
       </c>
       <c r="E42">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F42">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G42">
-        <v>1.0490370000000001E-3</v>
+        <v>2.533198E-3</v>
       </c>
       <c r="H42">
-        <v>1.3285580000000001E-3</v>
+        <v>2.0558299999999998E-3</v>
       </c>
       <c r="I42">
-        <v>2.2011130000000002E-3</v>
+        <v>2.8734350000000001E-3</v>
       </c>
       <c r="J42">
-        <v>2.7429469999999999E-3</v>
+        <v>1.7488040000000001E-3</v>
       </c>
       <c r="K42">
-        <v>2.272109E-3</v>
+        <v>2.1942260000000001E-3</v>
       </c>
       <c r="L42">
-        <v>1.2989799999999999E-3</v>
+        <v>3.0718609999999999E-3</v>
       </c>
       <c r="M42">
-        <v>1.129419E-3</v>
+        <v>1.861903E-3</v>
       </c>
       <c r="N42">
-        <v>1.942928E-3</v>
+        <v>2.065173E-3</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="B43">
-        <v>0.17156502604484561</v>
+        <v>0.49247989058494568</v>
       </c>
       <c r="C43">
-        <v>0.16500000000000001</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D43">
-        <f>ABS(B43 - C43)</f>
-        <v>6.565026044845601E-3</v>
+        <f>(B43-C43)</f>
+        <v>3.4798905849456885E-3</v>
       </c>
       <c r="E43">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F43">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G43">
-        <v>2.8580929999999999E-3</v>
+        <v>1.9495929999999999E-3</v>
       </c>
       <c r="H43">
-        <v>1.209878E-3</v>
+        <v>3.0502649999999999E-3</v>
       </c>
       <c r="I43">
-        <v>1.1883099999999999E-3</v>
+        <v>1.5916120000000001E-3</v>
       </c>
       <c r="J43">
-        <v>1.866007E-3</v>
+        <v>3.0231530000000002E-3</v>
       </c>
       <c r="K43">
-        <v>2.3615939999999998E-3</v>
+        <v>1.6279949999999999E-3</v>
       </c>
       <c r="L43">
-        <v>2.1057419999999999E-3</v>
+        <v>2.987787E-3</v>
       </c>
       <c r="M43">
-        <v>1.440357E-3</v>
+        <v>1.640215E-3</v>
       </c>
       <c r="N43">
-        <v>1.087848E-3</v>
+        <v>2.9416260000000001E-3</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B44">
-        <v>0.31844592094421392</v>
+        <v>0.25815331935882568</v>
       </c>
       <c r="C44">
-        <v>0.32500000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="D44">
-        <f>ABS(B44 - C44)</f>
-        <v>6.5540790557860884E-3</v>
+        <f>(B44-C44)</f>
+        <v>3.1533193588256792E-3</v>
       </c>
       <c r="E44">
         <v>3.3459710000000001E-3</v>
@@ -2397,88 +2397,88 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G44">
-        <v>2.533198E-3</v>
+        <v>2.8423860000000001E-3</v>
       </c>
       <c r="H44">
-        <v>2.0558299999999998E-3</v>
+        <v>1.636719E-3</v>
       </c>
       <c r="I44">
-        <v>2.8734350000000001E-3</v>
+        <v>2.6113479999999999E-3</v>
       </c>
       <c r="J44">
-        <v>1.7488040000000001E-3</v>
+        <v>2.6560860000000002E-3</v>
       </c>
       <c r="K44">
-        <v>2.1942260000000001E-3</v>
+        <v>1.7215279999999999E-3</v>
       </c>
       <c r="L44">
-        <v>3.0718609999999999E-3</v>
+        <v>1.847359E-3</v>
       </c>
       <c r="M44">
-        <v>1.861903E-3</v>
+        <v>2.854119E-3</v>
       </c>
       <c r="N44">
-        <v>2.065173E-3</v>
+        <v>2.6503630000000002E-3</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B45">
-        <v>4.9448519945144653E-2</v>
+        <v>0.94886559247970581</v>
       </c>
       <c r="C45">
-        <v>5.6000000000000001E-2</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D45">
-        <f>ABS(B45 - C45)</f>
-        <v>6.5514800548553478E-3</v>
+        <f>(B45-C45)</f>
+        <v>2.8655924797058585E-3</v>
       </c>
       <c r="E45">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F45">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>3.613462E-3</v>
+        <v>-1.3821E-5</v>
       </c>
       <c r="H45">
-        <v>2.6655749999999999E-3</v>
+        <v>-1.7150600000000001E-5</v>
       </c>
       <c r="I45">
-        <v>2.0217619999999999E-3</v>
+        <v>1.7515000000000001E-5</v>
       </c>
       <c r="J45">
-        <v>1.5136590000000001E-3</v>
+        <v>4.7853499999999998E-5</v>
       </c>
       <c r="K45">
-        <v>1.2257920000000001E-3</v>
+        <v>1.5737800000000001E-4</v>
       </c>
       <c r="L45">
-        <v>1.063617E-3</v>
+        <v>2.72661E-4</v>
       </c>
       <c r="M45">
-        <v>1.0700180000000001E-3</v>
+        <v>4.5694699999999997E-4</v>
       </c>
       <c r="N45">
-        <v>1.209569E-3</v>
+        <v>6.9489900000000002E-4</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B46">
-        <v>8.7545320391654968E-2</v>
+        <v>0.59258127212524414</v>
       </c>
       <c r="C46">
-        <v>8.1000000000000003E-2</v>
+        <v>0.59</v>
       </c>
       <c r="D46">
-        <f>ABS(B46 - C46)</f>
-        <v>6.5453203916549657E-3</v>
+        <f>(B46-C46)</f>
+        <v>2.5812721252441717E-3</v>
       </c>
       <c r="E46">
         <v>3.3459710000000001E-3</v>
@@ -2487,268 +2487,268 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G46">
-        <v>3.4522020000000001E-3</v>
+        <v>1.1781649999999999E-3</v>
       </c>
       <c r="H46">
-        <v>2.190474E-3</v>
+        <v>2.4449290000000002E-3</v>
       </c>
       <c r="I46">
-        <v>1.4998240000000001E-3</v>
+        <v>1.732354E-3</v>
       </c>
       <c r="J46">
-        <v>1.1205150000000001E-3</v>
+        <v>1.478207E-3</v>
       </c>
       <c r="K46">
-        <v>1.1137460000000001E-3</v>
+        <v>2.4151239999999998E-3</v>
       </c>
       <c r="L46">
-        <v>1.2967180000000001E-3</v>
+        <v>1.0528790000000001E-3</v>
       </c>
       <c r="M46">
-        <v>1.6435569999999999E-3</v>
+        <v>2.447252E-3</v>
       </c>
       <c r="N46">
-        <v>2.0105600000000002E-3</v>
+        <v>1.470903E-3</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B47">
-        <v>0.90252101421356201</v>
+        <v>7.5011909008026123E-2</v>
       </c>
       <c r="C47">
-        <v>0.89600000000000002</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D47">
-        <f>ABS(B47 - C47)</f>
-        <v>6.5210142135619931E-3</v>
+        <f>(B47-C47)</f>
+        <v>2.0119090080261276E-3</v>
       </c>
       <c r="E47">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F47">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G47">
-        <v>1.041497E-3</v>
+        <v>4.0474409999999997E-3</v>
       </c>
       <c r="H47">
-        <v>1.069246E-3</v>
+        <v>2.8590080000000001E-3</v>
       </c>
       <c r="I47">
-        <v>1.2370510000000001E-3</v>
+        <v>2.1696469999999998E-3</v>
       </c>
       <c r="J47">
-        <v>1.5423769999999999E-3</v>
+        <v>1.7271089999999999E-3</v>
       </c>
       <c r="K47">
-        <v>2.014306E-3</v>
+        <v>1.6079530000000001E-3</v>
       </c>
       <c r="L47">
-        <v>2.4371269999999999E-3</v>
+        <v>1.6935590000000001E-3</v>
       </c>
       <c r="M47">
-        <v>2.708893E-3</v>
+        <v>1.94534E-3</v>
       </c>
       <c r="N47">
-        <v>2.7081599999999998E-3</v>
+        <v>2.2822139999999999E-3</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B48">
-        <v>0.56942909955978394</v>
+        <v>0.25684034824371338</v>
       </c>
       <c r="C48">
-        <v>0.56299999999999994</v>
+        <v>0.255</v>
       </c>
       <c r="D48">
-        <f>ABS(B48 - C48)</f>
-        <v>6.4290995597839906E-3</v>
+        <f>(B48-C48)</f>
+        <v>1.8403482437133745E-3</v>
       </c>
       <c r="E48">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F48">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>1.7899929999999999E-3</v>
+        <v>1.292694E-3</v>
       </c>
       <c r="H48">
-        <v>3.0682000000000001E-3</v>
+        <v>8.30721E-5</v>
       </c>
       <c r="I48">
-        <v>1.9587599999999999E-3</v>
+        <v>1.051143E-3</v>
       </c>
       <c r="J48">
-        <v>2.4381730000000001E-3</v>
+        <v>1.115759E-3</v>
       </c>
       <c r="K48">
-        <v>2.4691549999999998E-3</v>
+        <v>1.78068E-4</v>
       </c>
       <c r="L48">
-        <v>1.8905180000000001E-3</v>
+        <v>3.1999200000000001E-4</v>
       </c>
       <c r="M48">
-        <v>2.9148669999999998E-3</v>
+        <v>1.3686060000000001E-3</v>
       </c>
       <c r="N48">
-        <v>1.592869E-3</v>
+        <v>1.180501E-3</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B49">
-        <v>0.33139997720718378</v>
+        <v>0.79763704538345337</v>
       </c>
       <c r="C49">
-        <v>0.32500000000000001</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="D49">
-        <f>ABS(B49 - C49)</f>
-        <v>6.3999772071837713E-3</v>
+        <f>(B49-C49)</f>
+        <v>1.6370453834533283E-3</v>
       </c>
       <c r="E49">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F49">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>1.9903410000000001E-3</v>
+        <v>4.0571300000000001E-6</v>
       </c>
       <c r="H49">
-        <v>1.507539E-3</v>
+        <v>2.809E-4</v>
       </c>
       <c r="I49">
-        <v>2.3218290000000001E-3</v>
+        <v>1.151668E-3</v>
       </c>
       <c r="J49">
-        <v>1.217103E-3</v>
+        <v>1.6976249999999999E-3</v>
       </c>
       <c r="K49">
-        <v>1.6443670000000001E-3</v>
+        <v>1.222943E-3</v>
       </c>
       <c r="L49">
-        <v>2.518808E-3</v>
+        <v>2.42897E-4</v>
       </c>
       <c r="M49">
-        <v>1.331622E-3</v>
+        <v>7.6097099999999993E-5</v>
       </c>
       <c r="N49">
-        <v>1.5189820000000001E-3</v>
+        <v>8.9457499999999999E-4</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B50">
-        <v>0.26135984063148499</v>
+        <v>0.41557914018630981</v>
       </c>
       <c r="C50">
-        <v>0.255</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D50">
-        <f>ABS(B50 - C50)</f>
-        <v>6.3598406314849809E-3</v>
+        <f>(B50-C50)</f>
+        <v>1.5791401863098353E-3</v>
       </c>
       <c r="E50">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F50">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G50">
-        <v>2.3155680000000001E-3</v>
+        <v>2.1687759999999999E-3</v>
       </c>
       <c r="H50">
-        <v>1.109358E-3</v>
+        <v>2.6988429999999998E-3</v>
       </c>
       <c r="I50">
-        <v>2.086517E-3</v>
+        <v>2.1093890000000001E-3</v>
       </c>
       <c r="J50">
-        <v>2.135082E-3</v>
+        <v>2.0904970000000002E-3</v>
       </c>
       <c r="K50">
-        <v>1.2071180000000001E-3</v>
+        <v>2.913639E-3</v>
       </c>
       <c r="L50">
-        <v>1.3703179999999999E-3</v>
+        <v>1.588664E-3</v>
       </c>
       <c r="M50">
-        <v>2.4096019999999998E-3</v>
+        <v>3.014929E-3</v>
       </c>
       <c r="N50">
-        <v>2.1918739999999999E-3</v>
+        <v>1.881499E-3</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.81628495454788208</v>
+        <v>0.82157254219055176</v>
       </c>
       <c r="C51">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="D51">
-        <f>ABS(B51 - C51)</f>
-        <v>6.2849545478820268E-3</v>
+        <f>(B51-C51)</f>
+        <v>1.5725421905518067E-3</v>
       </c>
       <c r="E51">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F51">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G51">
-        <v>1.0481679999999999E-3</v>
+        <v>1.5778540000000001E-3</v>
       </c>
       <c r="H51">
-        <v>1.2696890000000001E-3</v>
+        <v>1.7694710000000001E-3</v>
       </c>
       <c r="I51">
-        <v>2.0332390000000001E-3</v>
+        <v>2.4759750000000001E-3</v>
       </c>
       <c r="J51">
-        <v>2.6844239999999999E-3</v>
+        <v>3.1879500000000002E-3</v>
       </c>
       <c r="K51">
-        <v>2.5233959999999998E-3</v>
+        <v>3.2338940000000002E-3</v>
       </c>
       <c r="L51">
-        <v>1.624833E-3</v>
+        <v>2.4519149999999998E-3</v>
       </c>
       <c r="M51">
-        <v>1.0580870000000001E-3</v>
+        <v>1.686328E-3</v>
       </c>
       <c r="N51">
-        <v>1.464782E-3</v>
+        <v>1.732293E-3</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B52">
-        <v>0.8999602198600769</v>
+        <v>0.90741980075836182</v>
       </c>
       <c r="C52">
         <v>0.90600000000000003</v>
       </c>
       <c r="D52">
-        <f>ABS(B52 - C52)</f>
-        <v>6.0397801399231232E-3</v>
+        <f>(B52-C52)</f>
+        <v>1.4198007583617889E-3</v>
       </c>
       <c r="E52">
         <v>3.3459710000000001E-3</v>
@@ -2783,17 +2783,17 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B53">
-        <v>0.95202404260635376</v>
+        <v>0.34840282797813421</v>
       </c>
       <c r="C53">
-        <v>0.94599999999999995</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D53">
-        <f>ABS(B53 - C53)</f>
-        <v>6.0240426063538077E-3</v>
+        <f>(B53-C53)</f>
+        <v>1.4028279781342357E-3</v>
       </c>
       <c r="E53">
         <v>3.3459710000000001E-3</v>
@@ -2802,223 +2802,223 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>-1.3821E-5</v>
+        <v>8.4112399999999995E-4</v>
       </c>
       <c r="H53">
-        <v>-1.7150600000000001E-5</v>
+        <v>6.2199200000000003E-4</v>
       </c>
       <c r="I53">
-        <v>1.7515000000000001E-5</v>
+        <v>1.1587920000000001E-3</v>
       </c>
       <c r="J53">
-        <v>4.7853499999999998E-5</v>
+        <v>8.3249900000000001E-6</v>
       </c>
       <c r="K53">
-        <v>1.5737800000000001E-4</v>
+        <v>1.0274220000000001E-3</v>
       </c>
       <c r="L53">
-        <v>2.72661E-4</v>
+        <v>1.1387319999999999E-3</v>
       </c>
       <c r="M53">
-        <v>4.5694699999999997E-4</v>
+        <v>-1.56912E-5</v>
       </c>
       <c r="N53">
-        <v>6.9489900000000002E-4</v>
+        <v>1.147138E-3</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B54">
-        <v>7.5290054082870483E-2</v>
+        <v>0.1734159588813782</v>
       </c>
       <c r="C54">
-        <v>8.1000000000000003E-2</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="D54">
-        <f>ABS(B54 - C54)</f>
-        <v>5.7099459171295192E-3</v>
+        <f>(B54-C54)</f>
+        <v>4.1595888137821446E-4</v>
       </c>
       <c r="E54">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F54">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>3.9732320000000002E-3</v>
+        <v>1.7614799999999999E-3</v>
       </c>
       <c r="H54">
-        <v>2.711003E-3</v>
+        <v>1.07638E-4</v>
       </c>
       <c r="I54">
-        <v>2.0064670000000001E-3</v>
+        <v>1.8912000000000001E-4</v>
       </c>
       <c r="J54">
-        <v>1.6129510000000001E-3</v>
+        <v>9.1463099999999995E-4</v>
       </c>
       <c r="K54">
-        <v>1.5968320000000001E-3</v>
+        <v>1.305886E-3</v>
       </c>
       <c r="L54">
-        <v>1.796434E-3</v>
+        <v>8.9108000000000004E-4</v>
       </c>
       <c r="M54">
-        <v>2.1186899999999999E-3</v>
+        <v>1.9330399999999999E-4</v>
       </c>
       <c r="N54">
-        <v>2.487249E-3</v>
+        <v>4.4169999999999999E-5</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B55">
-        <v>0.29569709300994867</v>
+        <v>8.1193089485168457E-2</v>
       </c>
       <c r="C55">
-        <v>0.28999999999999998</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D55">
-        <f>ABS(B55 - C55)</f>
-        <v>5.6970930099486949E-3</v>
+        <f>(B55-C55)</f>
+        <v>1.9308948516845448E-4</v>
       </c>
       <c r="E55">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F55">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>2.1372779999999998E-3</v>
+        <v>2.374148E-3</v>
       </c>
       <c r="H55">
-        <v>1.2575189999999999E-3</v>
+        <v>1.1361399999999999E-3</v>
       </c>
       <c r="I55">
-        <v>2.306368E-3</v>
+        <v>4.3773E-4</v>
       </c>
       <c r="J55">
-        <v>1.6546309999999999E-3</v>
+        <v>4.8497900000000002E-5</v>
       </c>
       <c r="K55">
-        <v>1.102408E-3</v>
+        <v>3.4390700000000003E-5</v>
       </c>
       <c r="L55">
-        <v>2.2105620000000001E-3</v>
+        <v>2.12597E-4</v>
       </c>
       <c r="M55">
-        <v>2.286649E-3</v>
+        <v>5.3994399999999999E-4</v>
       </c>
       <c r="N55">
-        <v>1.140809E-3</v>
+        <v>8.9895399999999999E-4</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="B56">
-        <v>0.900321364402771</v>
+        <v>0.80928748846054077</v>
       </c>
       <c r="C56">
-        <v>0.90600000000000003</v>
+        <v>0.81</v>
       </c>
       <c r="D56">
-        <f>ABS(B56 - C56)</f>
-        <v>5.6786355972290314E-3</v>
+        <f>(B56-C56)</f>
+        <v>-7.1251153945928181E-4</v>
       </c>
       <c r="E56">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G56">
-        <v>-1.07211E-5</v>
+        <v>1.5792899999999999E-3</v>
       </c>
       <c r="H56">
-        <v>4.9438500000000001E-6</v>
+        <v>1.801441E-3</v>
       </c>
       <c r="I56">
-        <v>1.3124799999999999E-4</v>
+        <v>2.567012E-3</v>
       </c>
       <c r="J56">
-        <v>3.6234899999999998E-4</v>
+        <v>3.2204130000000001E-3</v>
       </c>
       <c r="K56">
-        <v>7.6076900000000001E-4</v>
+        <v>3.0589760000000001E-3</v>
       </c>
       <c r="L56">
-        <v>1.1666269999999999E-3</v>
+        <v>2.1566739999999999E-3</v>
       </c>
       <c r="M56">
-        <v>1.521515E-3</v>
+        <v>1.5855520000000001E-3</v>
       </c>
       <c r="N56">
-        <v>1.702631E-3</v>
+        <v>1.9907459999999998E-3</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B57">
-        <v>0.12535347044467929</v>
+        <v>0.48817536234855652</v>
       </c>
       <c r="C57">
-        <v>0.12</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D57">
-        <f>ABS(B57 - C57)</f>
-        <v>5.3534704446792925E-3</v>
+        <f>(B57-C57)</f>
+        <v>-8.2463765144347168E-4</v>
       </c>
       <c r="E57">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F57">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G57">
-        <v>3.671241E-3</v>
+        <v>1.432114E-3</v>
       </c>
       <c r="H57">
-        <v>2.1304900000000001E-3</v>
+        <v>2.5660280000000001E-3</v>
       </c>
       <c r="I57">
-        <v>1.6085100000000001E-3</v>
+        <v>1.087658E-3</v>
       </c>
       <c r="J57">
-        <v>1.7176450000000001E-3</v>
+        <v>2.5206970000000001E-3</v>
       </c>
       <c r="K57">
-        <v>2.2382970000000002E-3</v>
+        <v>1.1316709999999999E-3</v>
       </c>
       <c r="L57">
-        <v>2.703296E-3</v>
+        <v>2.5012340000000002E-3</v>
       </c>
       <c r="M57">
-        <v>2.873146E-3</v>
+        <v>1.143172E-3</v>
       </c>
       <c r="N57">
-        <v>2.655934E-3</v>
+        <v>2.4674710000000002E-3</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>0.52079272270202637</v>
+        <v>0.58875793218612671</v>
       </c>
       <c r="C58">
-        <v>0.51600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="D58">
-        <f>ABS(B58 - C58)</f>
-        <v>4.792722702026353E-3</v>
+        <f>(B58-C58)</f>
+        <v>-1.2420678138732599E-3</v>
       </c>
       <c r="E58">
         <v>3.3459710000000001E-3</v>
@@ -3027,43 +3027,43 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G58">
-        <v>1.8847029999999999E-3</v>
+        <v>1.7520400000000001E-3</v>
       </c>
       <c r="H58">
-        <v>3.1074079999999999E-3</v>
+        <v>3.0341410000000002E-3</v>
       </c>
       <c r="I58">
-        <v>1.6206409999999999E-3</v>
+        <v>2.2960440000000001E-3</v>
       </c>
       <c r="J58">
-        <v>3.0099929999999999E-3</v>
+        <v>2.022378E-3</v>
       </c>
       <c r="K58">
-        <v>1.6692580000000001E-3</v>
+        <v>2.9734919999999999E-3</v>
       </c>
       <c r="L58">
-        <v>2.952508E-3</v>
+        <v>1.579099E-3</v>
       </c>
       <c r="M58">
-        <v>1.7315130000000001E-3</v>
+        <v>2.9927199999999999E-3</v>
       </c>
       <c r="N58">
-        <v>2.875973E-3</v>
+        <v>2.005256E-3</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B59">
-        <v>0.52068948745727539</v>
+        <v>0.1180966198444366</v>
       </c>
       <c r="C59">
-        <v>0.51600000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="D59">
-        <f>ABS(B59 - C59)</f>
-        <v>4.6894874572753764E-3</v>
+        <f>(B59-C59)</f>
+        <v>-1.9033801555633917E-3</v>
       </c>
       <c r="E59">
         <v>3.3459710000000001E-3</v>
@@ -3072,43 +3072,43 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G59">
-        <v>1.3777380000000001E-3</v>
+        <v>3.1686079999999998E-3</v>
       </c>
       <c r="H59">
-        <v>2.6007690000000002E-3</v>
+        <v>1.6116290000000001E-3</v>
       </c>
       <c r="I59">
-        <v>1.094072E-3</v>
+        <v>1.081879E-3</v>
       </c>
       <c r="J59">
-        <v>2.500679E-3</v>
+        <v>1.1862520000000001E-3</v>
       </c>
       <c r="K59">
-        <v>1.1437400000000001E-3</v>
+        <v>1.706452E-3</v>
       </c>
       <c r="L59">
-        <v>2.4495820000000001E-3</v>
+        <v>2.175434E-3</v>
       </c>
       <c r="M59">
-        <v>1.209159E-3</v>
+        <v>2.3519790000000001E-3</v>
       </c>
       <c r="N59">
-        <v>2.3690209999999998E-3</v>
+        <v>2.1408019999999998E-3</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B60">
-        <v>0.76458346843719482</v>
+        <v>0.23098087310791021</v>
       </c>
       <c r="C60">
-        <v>0.76</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="D60">
-        <f>ABS(B60 - C60)</f>
-        <v>4.5834684371948153E-3</v>
+        <f>(B60-C60)</f>
+        <v>-2.0191268920898009E-3</v>
       </c>
       <c r="E60">
         <v>3.3459710000000001E-3</v>
@@ -3117,313 +3117,313 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>1.6278700000000001E-5</v>
+        <v>1.39536E-3</v>
       </c>
       <c r="H60">
-        <v>4.5665799999999998E-4</v>
+        <v>4.8624100000000001E-6</v>
       </c>
       <c r="I60">
-        <v>1.4968570000000001E-3</v>
+        <v>8.1966299999999999E-4</v>
       </c>
       <c r="J60">
-        <v>1.500181E-3</v>
+        <v>1.2540679999999999E-3</v>
       </c>
       <c r="K60">
-        <v>4.2763399999999998E-4</v>
+        <v>5.01604E-4</v>
       </c>
       <c r="L60">
-        <v>6.2045900000000002E-5</v>
+        <v>-9.0326099999999996E-6</v>
       </c>
       <c r="M60">
-        <v>1.0079589999999999E-3</v>
+        <v>7.7245999999999999E-4</v>
       </c>
       <c r="N60">
-        <v>1.440946E-3</v>
+        <v>1.4766689999999999E-3</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B61">
-        <v>8.5413992404937744E-2</v>
+        <v>0.65787923336029053</v>
       </c>
       <c r="C61">
-        <v>8.1000000000000003E-2</v>
+        <v>0.66</v>
       </c>
       <c r="D61">
-        <f>ABS(B61 - C61)</f>
-        <v>4.4139924049377416E-3</v>
+        <f>(B61-C61)</f>
+        <v>-2.1207666397095037E-3</v>
       </c>
       <c r="E61">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G61">
-        <v>2.374148E-3</v>
+        <v>1.663103E-3</v>
       </c>
       <c r="H61">
-        <v>1.1361399999999999E-3</v>
+        <v>2.65468E-3</v>
       </c>
       <c r="I61">
-        <v>4.3773E-4</v>
+        <v>3.0884480000000001E-3</v>
       </c>
       <c r="J61">
-        <v>4.8497900000000002E-5</v>
+        <v>1.633032E-3</v>
       </c>
       <c r="K61">
-        <v>3.4390700000000003E-5</v>
+        <v>2.4720319999999999E-3</v>
       </c>
       <c r="L61">
-        <v>2.12597E-4</v>
+        <v>2.8564049999999998E-3</v>
       </c>
       <c r="M61">
-        <v>5.3994399999999999E-4</v>
+        <v>1.602175E-3</v>
       </c>
       <c r="N61">
-        <v>8.9895399999999999E-4</v>
+        <v>2.5717499999999998E-3</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B62">
-        <v>0.35560625791549683</v>
+        <v>0.90356314182281494</v>
       </c>
       <c r="C62">
-        <v>0.36</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="D62">
-        <f>ABS(B62 - C62)</f>
-        <v>4.3937420845031605E-3</v>
+        <f>(B62-C62)</f>
+        <v>-2.4368581771850861E-3</v>
       </c>
       <c r="E62">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F62">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>2.3616650000000002E-3</v>
+        <v>-1.07211E-5</v>
       </c>
       <c r="H62">
-        <v>2.2930289999999998E-3</v>
+        <v>4.9438500000000001E-6</v>
       </c>
       <c r="I62">
-        <v>2.6382279999999998E-3</v>
+        <v>1.3124799999999999E-4</v>
       </c>
       <c r="J62">
-        <v>1.574893E-3</v>
+        <v>3.6234899999999998E-4</v>
       </c>
       <c r="K62">
-        <v>2.8472739999999999E-3</v>
+        <v>7.6076900000000001E-4</v>
       </c>
       <c r="L62">
-        <v>2.411519E-3</v>
+        <v>1.1666269999999999E-3</v>
       </c>
       <c r="M62">
-        <v>1.693045E-3</v>
+        <v>1.521515E-3</v>
       </c>
       <c r="N62">
-        <v>3.026936E-3</v>
+        <v>1.702631E-3</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="B63">
-        <v>0.36437803506851202</v>
+        <v>5.3520321846008301E-2</v>
       </c>
       <c r="C63">
-        <v>0.36</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D63">
-        <f>ABS(B63 - C63)</f>
-        <v>4.3780350685120317E-3</v>
+        <f>(B63-C63)</f>
+        <v>-2.4796781539917004E-3</v>
       </c>
       <c r="E63">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F63">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G63">
-        <v>1.8348290000000001E-3</v>
+        <v>4.1304820000000004E-3</v>
       </c>
       <c r="H63">
-        <v>1.767769E-3</v>
+        <v>3.1811719999999999E-3</v>
       </c>
       <c r="I63">
-        <v>2.1193929999999998E-3</v>
+        <v>2.5392909999999999E-3</v>
       </c>
       <c r="J63">
-        <v>1.0449960000000001E-3</v>
+        <v>2.0338019999999999E-3</v>
       </c>
       <c r="K63">
-        <v>2.3279080000000001E-3</v>
+        <v>1.748941E-3</v>
       </c>
       <c r="L63">
-        <v>1.8958689999999999E-3</v>
+        <v>1.5899169999999999E-3</v>
       </c>
       <c r="M63">
-        <v>1.164799E-3</v>
+        <v>1.599156E-3</v>
       </c>
       <c r="N63">
-        <v>2.5139030000000001E-3</v>
+        <v>1.740716E-3</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B64">
-        <v>0.81571024656295776</v>
+        <v>0.79345124959945679</v>
       </c>
       <c r="C64">
-        <v>0.82</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="D64">
-        <f>ABS(B64 - C64)</f>
-        <v>4.2897534370421875E-3</v>
+        <f>(B64-C64)</f>
+        <v>-2.5487504005432537E-3</v>
       </c>
       <c r="E64">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F64">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G64">
-        <v>1.5778540000000001E-3</v>
+        <v>1.0490370000000001E-3</v>
       </c>
       <c r="H64">
-        <v>1.7694710000000001E-3</v>
+        <v>1.3285580000000001E-3</v>
       </c>
       <c r="I64">
-        <v>2.4759750000000001E-3</v>
+        <v>2.2011130000000002E-3</v>
       </c>
       <c r="J64">
-        <v>3.1879500000000002E-3</v>
+        <v>2.7429469999999999E-3</v>
       </c>
       <c r="K64">
-        <v>3.2338940000000002E-3</v>
+        <v>2.272109E-3</v>
       </c>
       <c r="L64">
-        <v>2.4519149999999998E-3</v>
+        <v>1.2989799999999999E-3</v>
       </c>
       <c r="M64">
-        <v>1.686328E-3</v>
+        <v>1.129419E-3</v>
       </c>
       <c r="N64">
-        <v>1.732293E-3</v>
+        <v>1.942928E-3</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="B65">
-        <v>0.29411792755126948</v>
+        <v>0.11698126792907711</v>
       </c>
       <c r="C65">
-        <v>0.28999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="D65">
-        <f>ABS(B65 - C65)</f>
-        <v>4.1179275512694957E-3</v>
+        <f>(B65-C65)</f>
+        <v>-3.0187320709228888E-3</v>
       </c>
       <c r="E65">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G65">
-        <v>1.0985999999999999E-3</v>
+        <v>3.671241E-3</v>
       </c>
       <c r="H65">
-        <v>2.18798E-4</v>
+        <v>2.1304900000000001E-3</v>
       </c>
       <c r="I65">
-        <v>1.2629780000000001E-3</v>
+        <v>1.6085100000000001E-3</v>
       </c>
       <c r="J65">
-        <v>6.1846600000000002E-4</v>
+        <v>1.7176450000000001E-3</v>
       </c>
       <c r="K65">
-        <v>5.8366299999999997E-5</v>
+        <v>2.2382970000000002E-3</v>
       </c>
       <c r="L65">
-        <v>1.1553959999999999E-3</v>
+        <v>2.703296E-3</v>
       </c>
       <c r="M65">
-        <v>1.245997E-3</v>
+        <v>2.873146E-3</v>
       </c>
       <c r="N65">
-        <v>1.01106E-4</v>
+        <v>2.655934E-3</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B66">
-        <v>0.97644579410552979</v>
+        <v>0.34364733099937439</v>
       </c>
       <c r="C66">
-        <v>0.98</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D66">
-        <f>ABS(B66 - C66)</f>
-        <v>3.5542058944701971E-3</v>
+        <f>(B66-C66)</f>
+        <v>-3.3526690006255855E-3</v>
       </c>
       <c r="E66">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F66">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G66">
-        <v>1.5618870000000001E-3</v>
+        <v>1.9112510000000001E-3</v>
       </c>
       <c r="H66">
-        <v>1.556059E-3</v>
+        <v>1.6810390000000001E-3</v>
       </c>
       <c r="I66">
-        <v>1.5746379999999999E-3</v>
+        <v>2.2190439999999999E-3</v>
       </c>
       <c r="J66">
-        <v>1.562538E-3</v>
+        <v>1.064686E-3</v>
       </c>
       <c r="K66">
-        <v>1.590244E-3</v>
+        <v>2.11188E-3</v>
       </c>
       <c r="L66">
-        <v>1.576938E-3</v>
+        <v>2.1935290000000001E-3</v>
       </c>
       <c r="M66">
-        <v>1.5859839999999999E-3</v>
+        <v>1.0721629999999999E-3</v>
       </c>
       <c r="N66">
-        <v>1.610939E-3</v>
+        <v>2.242384E-3</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B67">
-        <v>0.32836917042732239</v>
+        <v>0.20654356479644781</v>
       </c>
       <c r="C67">
-        <v>0.32500000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="D67">
-        <f>ABS(B67 - C67)</f>
-        <v>3.3691704273223766E-3</v>
+        <f>(B67-C67)</f>
+        <v>-3.4564352035521828E-3</v>
       </c>
       <c r="E67">
         <v>3.3459710000000001E-3</v>
@@ -3432,178 +3432,178 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>9.5751199999999999E-4</v>
+        <v>1.562978E-3</v>
       </c>
       <c r="H67">
-        <v>4.7555399999999999E-4</v>
+        <v>-8.9638599999999996E-6</v>
       </c>
       <c r="I67">
-        <v>1.290266E-3</v>
+        <v>5.8158099999999996E-4</v>
       </c>
       <c r="J67">
-        <v>1.77491E-4</v>
+        <v>1.2982650000000001E-3</v>
       </c>
       <c r="K67">
-        <v>5.9929199999999997E-4</v>
+        <v>9.5641400000000005E-4</v>
       </c>
       <c r="L67">
-        <v>1.486862E-3</v>
+        <v>1.20505E-4</v>
       </c>
       <c r="M67">
-        <v>2.9353099999999998E-4</v>
+        <v>1.8397699999999999E-4</v>
       </c>
       <c r="N67">
-        <v>4.6819500000000003E-4</v>
+        <v>1.115752E-3</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B68">
-        <v>0.76329267024993896</v>
+        <v>0.68572014570236206</v>
       </c>
       <c r="C68">
-        <v>0.76</v>
+        <v>0.69</v>
       </c>
       <c r="D68">
-        <f>ABS(B68 - C68)</f>
-        <v>3.292670249938956E-3</v>
+        <f>(B68-C68)</f>
+        <v>-4.2798542976378862E-3</v>
       </c>
       <c r="E68">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F68">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>1.594778E-3</v>
+        <v>5.5627700000000003E-5</v>
       </c>
       <c r="H68">
-        <v>2.0362259999999999E-3</v>
+        <v>8.8510800000000001E-4</v>
       </c>
       <c r="I68">
-        <v>3.0788590000000002E-3</v>
+        <v>1.6819879999999999E-3</v>
       </c>
       <c r="J68">
-        <v>3.0873239999999998E-3</v>
+        <v>3.83397E-4</v>
       </c>
       <c r="K68">
-        <v>2.015354E-3</v>
+        <v>2.968E-4</v>
       </c>
       <c r="L68">
-        <v>1.643018E-3</v>
+        <v>1.4434370000000001E-3</v>
       </c>
       <c r="M68">
-        <v>2.5868190000000002E-3</v>
+        <v>6.5412999999999995E-4</v>
       </c>
       <c r="N68">
-        <v>3.0290629999999998E-3</v>
+        <v>9.7124800000000002E-5</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.21327900886535639</v>
+        <v>0.55537509918212891</v>
       </c>
       <c r="C69">
-        <v>0.21</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D69">
-        <f>ABS(B69 - C69)</f>
-        <v>3.2790088653563976E-3</v>
+        <f>(B69-C69)</f>
+        <v>-4.624900817871147E-3</v>
       </c>
       <c r="E69">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F69">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>2.5790409999999998E-3</v>
+        <v>2.2021899999999999E-4</v>
       </c>
       <c r="H69">
-        <v>1.0408539999999999E-3</v>
+        <v>1.514341E-3</v>
       </c>
       <c r="I69">
-        <v>1.617837E-3</v>
+        <v>3.5114100000000002E-4</v>
       </c>
       <c r="J69">
-        <v>2.3147630000000001E-3</v>
+        <v>9.2241800000000004E-4</v>
       </c>
       <c r="K69">
-        <v>1.9787479999999998E-3</v>
+        <v>8.39185E-4</v>
       </c>
       <c r="L69">
-        <v>1.167913E-3</v>
+        <v>3.9321700000000001E-4</v>
       </c>
       <c r="M69">
-        <v>1.2415379999999999E-3</v>
+        <v>1.307487E-3</v>
       </c>
       <c r="N69">
-        <v>2.1523459999999999E-3</v>
+        <v>5.1530399999999997E-5</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>0.28685089945793152</v>
+        <v>0.68176543712615967</v>
       </c>
       <c r="C70">
-        <v>0.28999999999999998</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="D70">
-        <f>ABS(B70 - C70)</f>
-        <v>3.1491005420684615E-3</v>
+        <f>(B70-C70)</f>
+        <v>-5.2345628738403871E-3</v>
       </c>
       <c r="E70">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F70">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>2.6702729999999999E-3</v>
+        <v>9.6497599999999996E-5</v>
       </c>
       <c r="H70">
-        <v>1.800935E-3</v>
+        <v>9.4294699999999997E-4</v>
       </c>
       <c r="I70">
-        <v>2.8387410000000001E-3</v>
+        <v>1.70218E-3</v>
       </c>
       <c r="J70">
-        <v>2.1886520000000001E-3</v>
+        <v>3.6509800000000001E-4</v>
       </c>
       <c r="K70">
-        <v>1.6451969999999999E-3</v>
+        <v>3.7229299999999999E-4</v>
       </c>
       <c r="L70">
-        <v>2.7441560000000002E-3</v>
+        <v>1.48715E-3</v>
       </c>
       <c r="M70">
-        <v>2.8097460000000001E-3</v>
+        <v>5.9425099999999996E-4</v>
       </c>
       <c r="N70">
-        <v>1.674551E-3</v>
+        <v>1.81657E-4</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B71">
-        <v>0.80685687065124512</v>
+        <v>0.5105547308921814</v>
       </c>
       <c r="C71">
-        <v>0.81</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D71">
-        <f>ABS(B71 - C71)</f>
-        <v>3.1431293487549361E-3</v>
+        <f>(B71-C71)</f>
+        <v>-5.4452691078186177E-3</v>
       </c>
       <c r="E71">
         <v>3.3459710000000001E-3</v>
@@ -3612,88 +3612,88 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G71">
-        <v>1.5792899999999999E-3</v>
+        <v>1.8847029999999999E-3</v>
       </c>
       <c r="H71">
-        <v>1.801441E-3</v>
+        <v>3.1074079999999999E-3</v>
       </c>
       <c r="I71">
-        <v>2.567012E-3</v>
+        <v>1.6206409999999999E-3</v>
       </c>
       <c r="J71">
-        <v>3.2204130000000001E-3</v>
+        <v>3.0099929999999999E-3</v>
       </c>
       <c r="K71">
-        <v>3.0589760000000001E-3</v>
+        <v>1.6692580000000001E-3</v>
       </c>
       <c r="L71">
-        <v>2.1566739999999999E-3</v>
+        <v>2.952508E-3</v>
       </c>
       <c r="M71">
-        <v>1.5855520000000001E-3</v>
+        <v>1.7315130000000001E-3</v>
       </c>
       <c r="N71">
-        <v>1.9907459999999998E-3</v>
+        <v>2.875973E-3</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B72">
-        <v>0.799052894115448</v>
+        <v>0.51030063629150391</v>
       </c>
       <c r="C72">
-        <v>0.79600000000000004</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D72">
-        <f>ABS(B72 - C72)</f>
-        <v>3.0528941154479572E-3</v>
+        <f>(B72-C72)</f>
+        <v>-5.699363708496108E-3</v>
       </c>
       <c r="E72">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F72">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>1.58245E-3</v>
+        <v>3.06712E-4</v>
       </c>
       <c r="H72">
-        <v>1.8676750000000001E-3</v>
+        <v>1.517025E-3</v>
       </c>
       <c r="I72">
-        <v>2.7605020000000002E-3</v>
+        <v>3.7748199999999999E-5</v>
       </c>
       <c r="J72">
-        <v>3.323328E-3</v>
+        <v>1.420466E-3</v>
       </c>
       <c r="K72">
-        <v>2.8398910000000002E-3</v>
+        <v>8.2420200000000001E-5</v>
       </c>
       <c r="L72">
-        <v>1.835574E-3</v>
+        <v>1.365228E-3</v>
       </c>
       <c r="M72">
-        <v>1.6592289999999999E-3</v>
+        <v>1.4023400000000001E-4</v>
       </c>
       <c r="N72">
-        <v>2.494858E-3</v>
+        <v>1.292699E-3</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.23573955893516541</v>
+        <v>0.75333482027053833</v>
       </c>
       <c r="C73">
-        <v>0.23300000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="D73">
-        <f>ABS(B73 - C73)</f>
-        <v>2.7395589351653926E-3</v>
+        <f>(B73-C73)</f>
+        <v>-6.6651797294616788E-3</v>
       </c>
       <c r="E73">
         <v>3.3459710000000001E-3</v>
@@ -3702,268 +3702,268 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>1.39536E-3</v>
+        <v>1.6278700000000001E-5</v>
       </c>
       <c r="H73">
-        <v>4.8624100000000001E-6</v>
+        <v>4.5665799999999998E-4</v>
       </c>
       <c r="I73">
-        <v>8.1966299999999999E-4</v>
+        <v>1.4968570000000001E-3</v>
       </c>
       <c r="J73">
-        <v>1.2540679999999999E-3</v>
+        <v>1.500181E-3</v>
       </c>
       <c r="K73">
-        <v>5.01604E-4</v>
+        <v>4.2763399999999998E-4</v>
       </c>
       <c r="L73">
-        <v>-9.0326099999999996E-6</v>
+        <v>6.2045900000000002E-5</v>
       </c>
       <c r="M73">
-        <v>7.7245999999999999E-4</v>
+        <v>1.0079589999999999E-3</v>
       </c>
       <c r="N73">
-        <v>1.4766689999999999E-3</v>
+        <v>1.440946E-3</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B74">
-        <v>0.23511302471160889</v>
+        <v>0.40676975250244141</v>
       </c>
       <c r="C74">
-        <v>0.23300000000000001</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D74">
-        <f>ABS(B74 - C74)</f>
-        <v>2.1130247116088741E-3</v>
+        <f>(B74-C74)</f>
+        <v>-7.2302474975585729E-3</v>
       </c>
       <c r="E74">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F74">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>2.4318120000000002E-3</v>
+        <v>6.0752199999999999E-4</v>
       </c>
       <c r="H74">
-        <v>1.0592189999999999E-3</v>
+        <v>1.143282E-3</v>
       </c>
       <c r="I74">
-        <v>1.8789340000000001E-3</v>
+        <v>5.4572799999999999E-4</v>
       </c>
       <c r="J74">
-        <v>2.3000989999999999E-3</v>
+        <v>5.1350199999999999E-4</v>
       </c>
       <c r="K74">
-        <v>1.555706E-3</v>
+        <v>1.3691840000000001E-3</v>
       </c>
       <c r="L74">
-        <v>1.0765880000000001E-3</v>
+        <v>3.4906999999999999E-6</v>
       </c>
       <c r="M74">
-        <v>1.8633199999999999E-3</v>
+        <v>1.4618999999999999E-3</v>
       </c>
       <c r="N74">
-        <v>2.5443660000000002E-3</v>
+        <v>3.1891200000000003E-4</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.12199147045612339</v>
+        <v>0.78867447376251221</v>
       </c>
       <c r="C75">
-        <v>0.12</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="D75">
-        <f>ABS(B75 - C75)</f>
-        <v>1.9914704561233981E-3</v>
+        <f>(B75-C75)</f>
+        <v>-7.3255262374878338E-3</v>
       </c>
       <c r="E75">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F75">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G75">
-        <v>3.1686079999999998E-3</v>
+        <v>1.58245E-3</v>
       </c>
       <c r="H75">
-        <v>1.6116290000000001E-3</v>
+        <v>1.8676750000000001E-3</v>
       </c>
       <c r="I75">
-        <v>1.081879E-3</v>
+        <v>2.7605020000000002E-3</v>
       </c>
       <c r="J75">
-        <v>1.1862520000000001E-3</v>
+        <v>3.323328E-3</v>
       </c>
       <c r="K75">
-        <v>1.706452E-3</v>
+        <v>2.8398910000000002E-3</v>
       </c>
       <c r="L75">
-        <v>2.175434E-3</v>
+        <v>1.835574E-3</v>
       </c>
       <c r="M75">
-        <v>2.3519790000000001E-3</v>
+        <v>1.6592289999999999E-3</v>
       </c>
       <c r="N75">
-        <v>2.1408019999999998E-3</v>
+        <v>2.494858E-3</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B76">
-        <v>0.56198078393936157</v>
+        <v>0.88859754800796509</v>
       </c>
       <c r="C76">
-        <v>0.56000000000000005</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="D76">
-        <f>ABS(B76 - C76)</f>
-        <v>1.980783939361519E-3</v>
+        <f>(B76-C76)</f>
+        <v>-7.4024519920349308E-3</v>
       </c>
       <c r="E76">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G76">
-        <v>2.2021899999999999E-4</v>
+        <v>1.041497E-3</v>
       </c>
       <c r="H76">
-        <v>1.514341E-3</v>
+        <v>1.069246E-3</v>
       </c>
       <c r="I76">
-        <v>3.5114100000000002E-4</v>
+        <v>1.2370510000000001E-3</v>
       </c>
       <c r="J76">
-        <v>9.2241800000000004E-4</v>
+        <v>1.5423769999999999E-3</v>
       </c>
       <c r="K76">
-        <v>8.39185E-4</v>
+        <v>2.014306E-3</v>
       </c>
       <c r="L76">
-        <v>3.9321700000000001E-4</v>
+        <v>2.4371269999999999E-3</v>
       </c>
       <c r="M76">
-        <v>1.307487E-3</v>
+        <v>2.708893E-3</v>
       </c>
       <c r="N76">
-        <v>5.1530399999999997E-5</v>
+        <v>2.7081599999999998E-3</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="B77">
-        <v>0.16698044538497919</v>
+        <v>0.86687088012695312</v>
       </c>
       <c r="C77">
-        <v>0.16500000000000001</v>
+        <v>0.876</v>
       </c>
       <c r="D77">
-        <f>ABS(B77 - C77)</f>
-        <v>1.9804453849791848E-3</v>
+        <f>(B77-C77)</f>
+        <v>-9.1291198730468759E-3</v>
       </c>
       <c r="E77">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G77">
-        <v>1.8177060000000001E-3</v>
+        <v>1.038473E-3</v>
       </c>
       <c r="H77">
-        <v>1.6078500000000001E-4</v>
+        <v>1.0938759999999999E-3</v>
       </c>
       <c r="I77">
-        <v>1.35143E-4</v>
+        <v>1.3732289999999999E-3</v>
       </c>
       <c r="J77">
-        <v>8.0365099999999995E-4</v>
+        <v>1.8495300000000001E-3</v>
       </c>
       <c r="K77">
-        <v>1.3088799999999999E-3</v>
+        <v>2.4251699999999999E-3</v>
       </c>
       <c r="L77">
-        <v>1.0588069999999999E-3</v>
+        <v>2.742005E-3</v>
       </c>
       <c r="M77">
-        <v>3.9642200000000001E-4</v>
+        <v>2.66804E-3</v>
       </c>
       <c r="N77">
-        <v>3.0571100000000003E-5</v>
+        <v>2.2191369999999999E-3</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.41580057144165039</v>
+        <v>0.6778109073638916</v>
       </c>
       <c r="C78">
-        <v>0.41399999999999998</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="D78">
-        <f>ABS(B78 - C78)</f>
-        <v>1.8005714416504115E-3</v>
+        <f>(B78-C78)</f>
+        <v>-9.1890926361084535E-3</v>
       </c>
       <c r="E78">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F78">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G78">
-        <v>2.1687759999999999E-3</v>
+        <v>1.098225E-3</v>
       </c>
       <c r="H78">
-        <v>2.6988429999999998E-3</v>
+        <v>1.9559769999999998E-3</v>
       </c>
       <c r="I78">
-        <v>2.1093890000000001E-3</v>
+        <v>2.7203459999999998E-3</v>
       </c>
       <c r="J78">
-        <v>2.0904970000000002E-3</v>
+        <v>1.4023040000000001E-3</v>
       </c>
       <c r="K78">
-        <v>2.913639E-3</v>
+        <v>1.393743E-3</v>
       </c>
       <c r="L78">
-        <v>1.588664E-3</v>
+        <v>2.513323E-3</v>
       </c>
       <c r="M78">
-        <v>3.014929E-3</v>
+        <v>1.623659E-3</v>
       </c>
       <c r="N78">
-        <v>1.881499E-3</v>
+        <v>1.2105849999999999E-3</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B79">
-        <v>0.94757020473480225</v>
+        <v>0.55354613065719604</v>
       </c>
       <c r="C79">
-        <v>0.94599999999999995</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="D79">
-        <f>ABS(B79 - C79)</f>
-        <v>1.5702047348022941E-3</v>
+        <f>(B79-C79)</f>
+        <v>-9.4538693428039E-3</v>
       </c>
       <c r="E79">
         <v>3.3459710000000001E-3</v>
@@ -3972,223 +3972,223 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G79">
-        <v>1.019531E-3</v>
+        <v>1.262127E-3</v>
       </c>
       <c r="H79">
-        <v>1.0197629999999999E-3</v>
+        <v>2.5639759999999999E-3</v>
       </c>
       <c r="I79">
-        <v>1.056193E-3</v>
+        <v>1.434924E-3</v>
       </c>
       <c r="J79">
-        <v>1.0878190000000001E-3</v>
+        <v>1.9273319999999999E-3</v>
       </c>
       <c r="K79">
-        <v>1.1977540000000001E-3</v>
+        <v>1.957482E-3</v>
       </c>
       <c r="L79">
-        <v>1.3124639999999999E-3</v>
+        <v>1.383801E-3</v>
       </c>
       <c r="M79">
-        <v>1.49512E-3</v>
+        <v>2.418641E-3</v>
       </c>
       <c r="N79">
-        <v>1.7304359999999999E-3</v>
+        <v>1.085262E-3</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.56153076887130737</v>
+        <v>0.6502457857131958</v>
       </c>
       <c r="C80">
-        <v>0.56000000000000005</v>
+        <v>0.66</v>
       </c>
       <c r="D80">
-        <f>ABS(B80 - C80)</f>
-        <v>1.5307688713073198E-3</v>
+        <f>(B80-C80)</f>
+        <v>-9.7542142868042303E-3</v>
       </c>
       <c r="E80">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F80">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G80">
-        <v>1.794316E-3</v>
+        <v>1.119047E-3</v>
       </c>
       <c r="H80">
-        <v>3.083611E-3</v>
+        <v>2.1094730000000002E-3</v>
       </c>
       <c r="I80">
-        <v>1.9338389999999999E-3</v>
+        <v>2.5397729999999999E-3</v>
       </c>
       <c r="J80">
-        <v>2.4929510000000002E-3</v>
+        <v>1.093403E-3</v>
       </c>
       <c r="K80">
-        <v>2.4239840000000001E-3</v>
+        <v>1.932666E-3</v>
       </c>
       <c r="L80">
-        <v>1.9660060000000002E-3</v>
+        <v>2.3107449999999999E-3</v>
       </c>
       <c r="M80">
-        <v>2.8892409999999999E-3</v>
+        <v>1.0666619999999999E-3</v>
       </c>
       <c r="N80">
-        <v>1.6305709999999999E-3</v>
+        <v>2.0376069999999999E-3</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.25350955128669739</v>
+        <v>0.68012470006942749</v>
       </c>
       <c r="C81">
-        <v>0.255</v>
+        <v>0.69</v>
       </c>
       <c r="D81">
-        <f>ABS(B81 - C81)</f>
-        <v>1.4904487133026167E-3</v>
+        <f>(B81-C81)</f>
+        <v>-9.8752999305724565E-3</v>
       </c>
       <c r="E81">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G81">
-        <v>1.292694E-3</v>
+        <v>1.1306249999999999E-3</v>
       </c>
       <c r="H81">
-        <v>8.30721E-5</v>
+        <v>1.951508E-3</v>
       </c>
       <c r="I81">
-        <v>1.051143E-3</v>
+        <v>2.748178E-3</v>
       </c>
       <c r="J81">
-        <v>1.115759E-3</v>
+        <v>1.447844E-3</v>
       </c>
       <c r="K81">
-        <v>1.78068E-4</v>
+        <v>1.357434E-3</v>
       </c>
       <c r="L81">
-        <v>3.1999200000000001E-4</v>
+        <v>2.5125260000000002E-3</v>
       </c>
       <c r="M81">
-        <v>1.3686060000000001E-3</v>
+        <v>1.7253450000000001E-3</v>
       </c>
       <c r="N81">
-        <v>1.180501E-3</v>
+        <v>1.1597770000000001E-3</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B82">
-        <v>0.17154128849506381</v>
+        <v>6.3030481338500977E-2</v>
       </c>
       <c r="C82">
-        <v>0.17299999999999999</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D82">
-        <f>ABS(B82 - C82)</f>
-        <v>1.4587115049361776E-3</v>
+        <f>(B82-C82)</f>
+        <v>-9.9695186614990189E-3</v>
       </c>
       <c r="E82">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G82">
-        <v>1.7614799999999999E-3</v>
+        <v>3.5349230000000001E-3</v>
       </c>
       <c r="H82">
-        <v>1.07638E-4</v>
+        <v>2.3394620000000001E-3</v>
       </c>
       <c r="I82">
-        <v>1.8912000000000001E-4</v>
+        <v>1.6453699999999999E-3</v>
       </c>
       <c r="J82">
-        <v>9.1463099999999995E-4</v>
+        <v>1.1973330000000001E-3</v>
       </c>
       <c r="K82">
-        <v>1.305886E-3</v>
+        <v>1.0774059999999999E-3</v>
       </c>
       <c r="L82">
-        <v>8.9108000000000004E-4</v>
+        <v>1.1487859999999999E-3</v>
       </c>
       <c r="M82">
-        <v>1.9330399999999999E-4</v>
+        <v>1.410981E-3</v>
       </c>
       <c r="N82">
-        <v>4.4169999999999999E-5</v>
+        <v>1.754149E-3</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B83">
-        <v>0.41532015800476069</v>
+        <v>7.0034146308898926E-2</v>
       </c>
       <c r="C83">
-        <v>0.41399999999999998</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D83">
-        <f>ABS(B83 - C83)</f>
-        <v>1.3201580047607075E-3</v>
+        <f>(B83-C83)</f>
+        <v>-1.0965853691101077E-2</v>
       </c>
       <c r="E83">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G83">
-        <v>6.0752199999999999E-4</v>
+        <v>3.4522020000000001E-3</v>
       </c>
       <c r="H83">
-        <v>1.143282E-3</v>
+        <v>2.190474E-3</v>
       </c>
       <c r="I83">
-        <v>5.4572799999999999E-4</v>
+        <v>1.4998240000000001E-3</v>
       </c>
       <c r="J83">
-        <v>5.1350199999999999E-4</v>
+        <v>1.1205150000000001E-3</v>
       </c>
       <c r="K83">
-        <v>1.3691840000000001E-3</v>
+        <v>1.1137460000000001E-3</v>
       </c>
       <c r="L83">
-        <v>3.4906999999999999E-6</v>
+        <v>1.2967180000000001E-3</v>
       </c>
       <c r="M83">
-        <v>1.4618999999999999E-3</v>
+        <v>1.6435569999999999E-3</v>
       </c>
       <c r="N83">
-        <v>3.1891200000000003E-4</v>
+        <v>2.0105600000000002E-3</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B84">
-        <v>0.34826543927192688</v>
+        <v>0.883442223072052</v>
       </c>
       <c r="C84">
-        <v>0.34699999999999998</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="D84">
-        <f>ABS(B84 - C84)</f>
-        <v>1.2654392719269048E-3</v>
+        <f>(B84-C84)</f>
+        <v>-1.2557776927948017E-2</v>
       </c>
       <c r="E84">
         <v>3.3459710000000001E-3</v>
@@ -4197,88 +4197,88 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>8.4112399999999995E-4</v>
+        <v>-9.7159900000000008E-6</v>
       </c>
       <c r="H84">
-        <v>6.2199200000000003E-4</v>
+        <v>1.4965400000000001E-5</v>
       </c>
       <c r="I84">
-        <v>1.1587920000000001E-3</v>
+        <v>1.8280299999999999E-4</v>
       </c>
       <c r="J84">
-        <v>8.3249900000000001E-6</v>
+        <v>4.9002900000000001E-4</v>
       </c>
       <c r="K84">
-        <v>1.0274220000000001E-3</v>
+        <v>9.6528599999999999E-4</v>
       </c>
       <c r="L84">
-        <v>1.1387319999999999E-3</v>
+        <v>1.3912709999999999E-3</v>
       </c>
       <c r="M84">
-        <v>-1.56912E-5</v>
+        <v>1.664158E-3</v>
       </c>
       <c r="N84">
-        <v>1.147138E-3</v>
+        <v>1.6617750000000001E-3</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="B85">
-        <v>0.36115294694900513</v>
+        <v>0.8820992112159729</v>
       </c>
       <c r="C85">
-        <v>0.36</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="D85">
-        <f>ABS(B85 - C85)</f>
-        <v>1.1529469490051403E-3</v>
+        <f>(B85-C85)</f>
+        <v>-1.3900788784027118E-2</v>
       </c>
       <c r="E85">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G85">
-        <v>7.9372700000000004E-4</v>
+        <v>1.565421E-3</v>
       </c>
       <c r="H85">
-        <v>7.17759E-4</v>
+        <v>1.594736E-3</v>
       </c>
       <c r="I85">
-        <v>1.0738080000000001E-3</v>
+        <v>1.763674E-3</v>
       </c>
       <c r="J85">
-        <v>-8.0622599999999996E-6</v>
+        <v>2.071828E-3</v>
       </c>
       <c r="K85">
-        <v>1.2716660000000001E-3</v>
+        <v>2.5479980000000001E-3</v>
       </c>
       <c r="L85">
-        <v>8.5092999999999996E-4</v>
+        <v>2.9751600000000001E-3</v>
       </c>
       <c r="M85">
-        <v>1.03205E-4</v>
+        <v>3.2495990000000002E-3</v>
       </c>
       <c r="N85">
-        <v>1.4567880000000001E-3</v>
+        <v>3.2482819999999999E-3</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B86">
-        <v>0.34801605343818659</v>
+        <v>0.5459517240524292</v>
       </c>
       <c r="C86">
-        <v>0.34699999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D86">
-        <f>ABS(B86 - C86)</f>
-        <v>1.0160534381866149E-3</v>
+        <f>(B86-C86)</f>
+        <v>-1.4048275947570854E-2</v>
       </c>
       <c r="E86">
         <v>3.3459710000000001E-3</v>
@@ -4287,28 +4287,28 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G86">
-        <v>1.9112510000000001E-3</v>
+        <v>1.2515849999999999E-3</v>
       </c>
       <c r="H86">
-        <v>1.6810390000000001E-3</v>
+        <v>2.5402570000000002E-3</v>
       </c>
       <c r="I86">
-        <v>2.2190439999999999E-3</v>
+        <v>1.390084E-3</v>
       </c>
       <c r="J86">
-        <v>1.064686E-3</v>
+        <v>1.953228E-3</v>
       </c>
       <c r="K86">
-        <v>2.11188E-3</v>
+        <v>1.8809810000000001E-3</v>
       </c>
       <c r="L86">
-        <v>2.1935290000000001E-3</v>
+        <v>1.429816E-3</v>
       </c>
       <c r="M86">
-        <v>1.0721629999999999E-3</v>
+        <v>2.3488210000000001E-3</v>
       </c>
       <c r="N86">
-        <v>2.242384E-3</v>
+        <v>1.096372E-3</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -4316,104 +4316,104 @@
         <v>29</v>
       </c>
       <c r="B87">
-        <v>0.89694458246231079</v>
+        <v>0.963997483253479</v>
       </c>
       <c r="C87">
-        <v>0.89600000000000002</v>
+        <v>0.98</v>
       </c>
       <c r="D87">
-        <f>ABS(B87 - C87)</f>
-        <v>9.4458246231077236E-4</v>
+        <f>(B87-C87)</f>
+        <v>-1.6002516746520978E-2</v>
       </c>
       <c r="E87">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G87">
-        <v>-9.7159900000000008E-6</v>
+        <v>1.5618870000000001E-3</v>
       </c>
       <c r="H87">
-        <v>1.4965400000000001E-5</v>
+        <v>1.556059E-3</v>
       </c>
       <c r="I87">
-        <v>1.8280299999999999E-4</v>
+        <v>1.5746379999999999E-3</v>
       </c>
       <c r="J87">
-        <v>4.9002900000000001E-4</v>
+        <v>1.562538E-3</v>
       </c>
       <c r="K87">
-        <v>9.6528599999999999E-4</v>
+        <v>1.590244E-3</v>
       </c>
       <c r="L87">
-        <v>1.3912709999999999E-3</v>
+        <v>1.576938E-3</v>
       </c>
       <c r="M87">
-        <v>1.664158E-3</v>
+        <v>1.5859839999999999E-3</v>
       </c>
       <c r="N87">
-        <v>1.6617750000000001E-3</v>
+        <v>1.610939E-3</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B88">
-        <v>0.1190817654132843</v>
+        <v>0.49875706434249878</v>
       </c>
       <c r="C88">
-        <v>0.12</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D88">
-        <f>ABS(B88 - C88)</f>
-        <v>9.182345867156938E-4</v>
+        <f>(B88-C88)</f>
+        <v>-1.7242935657501235E-2</v>
       </c>
       <c r="E88">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G88">
-        <v>2.1137869999999998E-3</v>
+        <v>1.3777380000000001E-3</v>
       </c>
       <c r="H88">
-        <v>5.6239799999999998E-4</v>
+        <v>2.6007690000000002E-3</v>
       </c>
       <c r="I88">
-        <v>3.0508999999999999E-5</v>
+        <v>1.094072E-3</v>
       </c>
       <c r="J88">
-        <v>1.2902399999999999E-4</v>
+        <v>2.500679E-3</v>
       </c>
       <c r="K88">
-        <v>6.4474900000000002E-4</v>
+        <v>1.1437400000000001E-3</v>
       </c>
       <c r="L88">
-        <v>1.11491E-3</v>
+        <v>2.4495820000000001E-3</v>
       </c>
       <c r="M88">
-        <v>1.2988819999999999E-3</v>
+        <v>1.209159E-3</v>
       </c>
       <c r="N88">
-        <v>1.0971329999999999E-3</v>
+        <v>2.3690209999999998E-3</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B89">
-        <v>0.68652892112731934</v>
+        <v>0.96172362565994263</v>
       </c>
       <c r="C89">
-        <v>0.68700000000000006</v>
+        <v>0.98</v>
       </c>
       <c r="D89">
-        <f>ABS(B89 - C89)</f>
-        <v>4.7107887268071913E-4</v>
+        <f>(B89-C89)</f>
+        <v>-1.8276374340057355E-2</v>
       </c>
       <c r="E89">
         <v>3.3459710000000001E-3</v>
@@ -4422,118 +4422,118 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G89">
-        <v>1.098225E-3</v>
+        <v>1.0324100000000001E-3</v>
       </c>
       <c r="H89">
-        <v>1.9559769999999998E-3</v>
+        <v>1.024257E-3</v>
       </c>
       <c r="I89">
-        <v>2.7203459999999998E-3</v>
+        <v>1.0433160000000001E-3</v>
       </c>
       <c r="J89">
-        <v>1.4023040000000001E-3</v>
+        <v>1.031887E-3</v>
       </c>
       <c r="K89">
-        <v>1.393743E-3</v>
+        <v>1.060456E-3</v>
       </c>
       <c r="L89">
-        <v>2.513323E-3</v>
+        <v>1.048174E-3</v>
       </c>
       <c r="M89">
-        <v>1.623659E-3</v>
+        <v>1.058448E-3</v>
       </c>
       <c r="N89">
-        <v>1.2105849999999999E-3</v>
+        <v>1.0848120000000001E-3</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B90">
-        <v>0.46568822860717768</v>
+        <v>0.64093726873397827</v>
       </c>
       <c r="C90">
-        <v>0.46600000000000003</v>
+        <v>0.66</v>
       </c>
       <c r="D90">
-        <f>ABS(B90 - C90)</f>
-        <v>3.1177139282234645E-4</v>
+        <f>(B90-C90)</f>
+        <v>-1.906273126602176E-2</v>
       </c>
       <c r="E90">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F90">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>1.467105E-3</v>
+        <v>8.2470099999999995E-5</v>
       </c>
       <c r="H90">
-        <v>2.4349089999999999E-3</v>
+        <v>1.08073E-3</v>
       </c>
       <c r="I90">
-        <v>1.128488E-3</v>
+        <v>1.5107530000000001E-3</v>
       </c>
       <c r="J90">
-        <v>2.318868E-3</v>
+        <v>4.9378400000000001E-5</v>
       </c>
       <c r="K90">
-        <v>1.3813899999999999E-3</v>
+        <v>8.9862700000000004E-4</v>
       </c>
       <c r="L90">
-        <v>2.0597969999999999E-3</v>
+        <v>1.2728990000000001E-3</v>
       </c>
       <c r="M90">
-        <v>1.655E-3</v>
+        <v>1.7238600000000001E-5</v>
       </c>
       <c r="N90">
-        <v>1.770226E-3</v>
+        <v>1.0025940000000001E-3</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B91">
-        <v>0.97992789745330811</v>
+        <v>0.88319826126098633</v>
       </c>
       <c r="C91">
-        <v>0.98</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="D91">
-        <f>ABS(B91 - C91)</f>
-        <v>7.2102546691876768E-5</v>
+        <f>(B91-C91)</f>
+        <v>-2.2801738739013699E-2</v>
       </c>
       <c r="E91">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F91">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G91">
-        <v>1.0324100000000001E-3</v>
+        <v>1.564616E-3</v>
       </c>
       <c r="H91">
-        <v>1.024257E-3</v>
+        <v>1.584731E-3</v>
       </c>
       <c r="I91">
-        <v>1.0433160000000001E-3</v>
+        <v>1.7115940000000001E-3</v>
       </c>
       <c r="J91">
-        <v>1.031887E-3</v>
+        <v>1.9422790000000001E-3</v>
       </c>
       <c r="K91">
-        <v>1.060456E-3</v>
+        <v>2.339355E-3</v>
       </c>
       <c r="L91">
-        <v>1.048174E-3</v>
+        <v>2.7435699999999999E-3</v>
       </c>
       <c r="M91">
-        <v>1.058448E-3</v>
+        <v>3.0973369999999999E-3</v>
       </c>
       <c r="N91">
-        <v>1.0848120000000001E-3</v>
+        <v>3.2779860000000001E-3</v>
       </c>
     </row>
   </sheetData>
